--- a/data/manual/not_confirmed_pregnant.xlsx
+++ b/data/manual/not_confirmed_pregnant.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,11 @@
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>may_be_pregnant_rc_graf</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
         </is>
       </c>
     </row>
@@ -646,6 +651,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S2" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -738,6 +746,9 @@
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +835,9 @@
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -915,6 +929,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S5" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1003,6 +1020,9 @@
         <is>
           <t>pregnan</t>
         </is>
+      </c>
+      <c r="S6" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="7">
@@ -1102,6 +1122,9 @@
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1188,6 +1211,9 @@
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1288,6 +1314,9 @@
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1394,6 +1423,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S10" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1488,6 +1520,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S11" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="12">
@@ -1584,6 +1619,9 @@
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1737,6 +1775,9 @@
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1964,6 +2005,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S14" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2060,6 +2104,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S15" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2153,6 +2200,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S16" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2243,6 +2293,9 @@
         <is>
           <t>pregnan</t>
         </is>
+      </c>
+      <c r="S17" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="18">
@@ -2360,6 +2413,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S18" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="19">
@@ -2510,6 +2566,9 @@
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2598,6 +2657,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S20" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2685,6 +2747,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S21" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="22">
@@ -2784,6 +2849,9 @@
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2868,6 +2936,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S23" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2950,6 +3021,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S24" t="n">
+        <v>2013</v>
       </c>
     </row>
     <row r="25">
@@ -3045,6 +3119,9 @@
           <t>active labor</t>
         </is>
       </c>
+      <c r="S25" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3141,6 +3218,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="27">
@@ -3361,6 +3441,9 @@
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3443,6 +3526,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S28" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="29">
@@ -3622,6 +3708,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S29" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3777,6 +3866,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S30" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3895,6 +3987,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S31" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3980,6 +4075,9 @@
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4093,6 +4191,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S33" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4182,6 +4283,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S34" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="35">
@@ -4280,6 +4384,9 @@
           <t>gestation</t>
         </is>
       </c>
+      <c r="S35" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4369,6 +4476,9 @@
         <is>
           <t>pregnan</t>
         </is>
+      </c>
+      <c r="S36" t="n">
+        <v>2011</v>
       </c>
     </row>
     <row r="37">
@@ -4467,6 +4577,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S37" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4557,6 +4670,9 @@
         <is>
           <t>pregnan</t>
         </is>
+      </c>
+      <c r="S38" t="n">
+        <v>2011</v>
       </c>
     </row>
     <row r="39">
@@ -4670,6 +4786,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S39" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4779,6 +4898,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S40" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4863,6 +4985,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S41" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4946,6 +5071,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S42" t="n">
+        <v>2013</v>
       </c>
     </row>
     <row r="43">
@@ -5049,6 +5177,9 @@
         <is>
           <t>pregnan</t>
         </is>
+      </c>
+      <c r="S43" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="44">
@@ -5249,6 +5380,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S44" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5369,6 +5503,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S45" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5491,6 +5628,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S46" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5590,6 +5730,9 @@
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5680,6 +5823,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S48" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5767,6 +5913,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S49" t="n">
+        <v>2013</v>
       </c>
     </row>
     <row r="50">
@@ -5856,6 +6005,9 @@
           <t>gestation</t>
         </is>
       </c>
+      <c r="S50" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5946,6 +6098,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S51" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6030,6 +6185,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S52" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="53">
@@ -6118,6 +6276,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S53" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="54">
@@ -6209,6 +6370,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S54" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6294,6 +6458,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S55" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6382,6 +6549,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S56" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="57">
@@ -6470,6 +6640,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S57" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="58">
@@ -6563,6 +6736,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S58" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="59">
@@ -6723,6 +6899,9 @@
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6871,6 +7050,9 @@
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6954,6 +7136,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S61" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="62">
@@ -7061,6 +7246,9 @@
         <is>
           <t>obstetr</t>
         </is>
+      </c>
+      <c r="S62" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="63">
@@ -7196,6 +7384,9 @@
           <t>pregnan</t>
         </is>
       </c>
+      <c r="S63" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7279,6 +7470,9 @@
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7365,6 +7559,9 @@
           <t>obstetr</t>
         </is>
       </c>
+      <c r="S65" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7461,6 +7658,9 @@
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7551,6 +7751,9 @@
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7645,6 +7848,9 @@
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7746,6 +7952,9 @@
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -7842,6 +8051,9 @@
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7933,6 +8145,9 @@
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -8027,6 +8242,9 @@
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -8117,6 +8335,9 @@
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -8210,6 +8431,9 @@
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -8424,6 +8648,9 @@
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -8517,6 +8744,9 @@
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -8694,6 +8924,9 @@
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -9095,6 +9328,9 @@
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -9262,6 +9498,9 @@
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -9354,6 +9593,9 @@
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -9590,6 +9832,9 @@
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -9799,6 +10044,9 @@
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -9953,6 +10201,9 @@
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10075,6 +10326,9 @@
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -10196,6 +10450,9 @@
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -10299,6 +10556,9 @@
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -10424,6 +10684,9 @@
       </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -10541,6 +10804,9 @@
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -10633,6 +10899,9 @@
       </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -10747,6 +11016,9 @@
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -10886,6 +11158,9 @@
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -11031,6 +11306,9 @@
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -11196,6 +11474,9 @@
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -11358,6 +11639,9 @@
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -11453,6 +11737,9 @@
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -11696,6 +11983,9 @@
       </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -11812,6 +12102,9 @@
       </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -11919,6 +12212,9 @@
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -12051,6 +12347,9 @@
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -12159,6 +12458,9 @@
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -12245,6 +12547,9 @@
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -12372,6 +12677,9 @@
       </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -12696,6 +13004,9 @@
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -12820,6 +13131,9 @@
       </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -12904,6 +13218,9 @@
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -13062,6 +13379,9 @@
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -13162,6 +13482,9 @@
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13254,6 +13577,9 @@
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -13367,6 +13693,9 @@
       </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -13478,6 +13807,9 @@
       </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -13565,6 +13897,9 @@
       </c>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -13654,6 +13989,9 @@
       </c>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -13748,6 +14086,9 @@
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -13865,6 +14206,9 @@
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -13955,6 +14299,9 @@
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -14054,6 +14401,9 @@
       </c>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -14149,6 +14499,9 @@
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -14295,6 +14648,9 @@
       </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -14433,6 +14789,9 @@
       </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -14530,6 +14889,9 @@
       </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -14635,6 +14997,9 @@
       </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -14733,6 +15098,9 @@
       </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -14825,6 +15193,9 @@
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -14910,6 +15281,9 @@
       </c>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -14996,6 +15370,9 @@
       </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -15120,6 +15497,9 @@
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -15377,6 +15757,9 @@
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -15492,6 +15875,9 @@
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -15606,6 +15992,9 @@
       </c>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -15815,6 +16204,9 @@
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -15920,6 +16312,9 @@
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16015,6 +16410,9 @@
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -16267,6 +16665,9 @@
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -16378,6 +16779,9 @@
       </c>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -16460,6 +16864,9 @@
       </c>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -16550,6 +16957,9 @@
       </c>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>2018</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/manual/not_confirmed_pregnant.xlsx
+++ b/data/manual/not_confirmed_pregnant.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7757,11 +7757,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2402 C4HB11</t>
+          <t>2400 P3L411</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SOUTHWEST MEMORIAL HOSPITAL</t>
+          <t>CALHOUN-LIBERTY HOSPITAL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7780,139 +7780,42 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>61327</v>
+        <v>101304</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1311 N MILDRED RD</t>
+          <t>20370 NE BURNS AVE</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>CORTEZ</t>
+          <t>BLOUNTSTOWN</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>POSTING OF SIGNS</t>
+          <t>COMPLIANCE WITH 489.24</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" s="2" t="n">
-        <v>43398</v>
+        <v>43007</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>C4HB11</t>
+          <t>P3L411</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on observation and interviews the facility failed to ensure Emergency Medical Treatment and Labor Act (EMTALA) signage was posted at relevant locations in the facility._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-Facility policy: _x000D_
-_x000D_
-The EMTALA (Emergency Medical and Labor Treatment Act) policy read, the hospital must post conspicuously, in the dedicated emergency departments and all areas in which individuals routinely present for treatment of emergency medical conditions and wait prior to examination and treatment, (such as entrance, admitting areas, waiting room or treatment room) signs that specify the rights of an individual under the law with respect to examination and treatment for emergency medical conditions and women who are pregnant and are having contractions. _x000D_
-_x000D_
-1. The facility failed to post signs, specifying the rights of individuals seeking examination and treatment for emergency medical conditions and women in labor, at entrances and waiting areas used by patients seeking emergency services and by pregnant women. Specifically, there was no EMTALA signage at the main entrance to the hospital, the emergency department (ED) ambulance bay, or in the ED waiting area outside patient registration. _x000D_
-_x000D_
-a. On 10/23/18 at 8:50 a.m., a tour of the facility was conducted with the executive assistant (Assistant #1). Observations of the main entrance of the hospital showed a temporary sign posted outside of the building, which indicated an emergency room    entrance. There was no EMTALA signage posted within the entrance door and hallway.  _x000D_
-_x000D_
-A continued facility tour of the ED waiting room showed no evidence of signage which described patients' rights under EMTALA. The only sign noted was posted in the hallway past the ED registration desk. The sign could not be visualized from the ED patient waiting area. This was in contrast to policy which stated the hospital must post rights of an individual under the EMTALA law, in a conspicuous area; including entrance, admitting areas, waiting room or treatment room. _x000D_
-_x000D_
-b. A tour of the ED's ambulance bay, including the door and surrounding areas, showed no evidence of any signage describing patients' rights under EMTALA. At 9:32 a.m., Assistant #1 confirmed the ambulance bay was recently painted and there were no signs present. _x000D_
-_x000D_
-c. On 10/23/18 at 10:07 a.m., a tour of the family birthing center was conducted, there was no signage posted which described patients' rights under EMTALA. According to Assistant #1, the back way to the birthing center from the ED was blocked off at the end of the hall. She said the current path from the ED registration desk to the birthing center was through the main hospital lobby. _x000D_
-_x000D_
-Obstetric (OB) registered nurse (RN #2) and RN #3 were interviewed. Both worked in the family birthing center. RN #3 stated most patients would bypass the ED registration and come straight to the unit. She stated the door directly to the ED was blocked for construction. RN #2 stated any patient who was more than 20 weeks pregnant would come directly to the family birthing center from the main hospital entrance.  She then confirmed the patients were not being transported through the hall past registration (where the EMTALA sign was noted), since 10/3/18. _x000D_
- _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>13</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2400 P3L411</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>CALHOUN-LIBERTY HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Critical Access Hospitals</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>101304</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>20370 NE BURNS AVE</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>BLOUNTSTOWN</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>COMPLIANCE WITH 489.24</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" s="2" t="n">
-        <v>43007</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>P3L411</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -7950,73 +7853,73 @@
 </t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="69">
+      <c r="A69" t="n">
         <v>14</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>2406 P3L411</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>CALHOUN-LIBERTY HOSPITAL</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Critical Access Hospitals</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F69" t="n">
         <v>101304</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>20370 NE BURNS AVE</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>BLOUNTSTOWN</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="J70" t="n">
+      <c r="J69" t="n">
         <v>2406</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" s="2" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" s="2" t="n">
         <v>43007</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>P3L411</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -8049,19 +7952,113 @@
 </t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>45</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2407 OMGX11</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>STAFFORD COUNTY HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Critical Access Hospitals</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>171323</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>502 S BUCKEYE</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>STAFFORD</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>2407</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>STABILIZING TREATMENT</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" s="2" t="n">
+        <v>43699</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>OMGX11</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on interview, record review and document review, the Critical Access Hospital (CAH) failed to provide necessary stabilizing treatment, resulting in a delay in treatment of an emergency medical condition (EMC), within the capability of the staff and CAH for one (Patient 10) of 22 sampled patients. Failure of the CAH to provide appropriate stabilizing treatment has the potential to place patients presenting to the emergency department (ED) at risk for worsening of their condition or even death._x000D_
+_x000D_
+Findings Include:_x000D_
+_x000D_
+Review of Patient 10's closed medical record showed she (MDS) dated [DATE] at 4:50 PM with a chief complaint of vomiting and abdominal pain. Laboratory studies included a urine analysis and a pregnancy test which were both negative._x000D_
+_x000D_
+Staff L, RN, documented vital signs at 5:12 PM as a blood pressure of 157/103 (normal range 120/80 - 140/90), pulse of 86 beats per minute, respirations at 20 breaths per minute, and a temperature of 36.7* Celsius (within normal range). Staff L, RN documented the patient complained she had upper abdominal pain that was constant and "hurts whole lot." Patient 10 rated her pain as an 8/10 on a scale of 0 to 10 (0 being no pain and 10 being severe pain).  _x000D_
+_x000D_
+Staff A, PA, documented he assessed the patient's abdomen and documented the patient reported mild, generalized tenderness. Staff A documented, "Patient has no fever, or focal tenderness, multiple patients in the area with similar symptoms - likely viral illness." _x000D_
+_x000D_
+At 5:06 PM on 05/23/19, Zofran (a medication to treat nausea and vomiting) 4 milligrams (mg) tablet was ordered by the provider and documented as given to Patient 10 at 5:17 PM. _x000D_
+_x000D_
+At 5:29 PM Staff A, PA entered an order for discharge in the medical record.  At 5:38 PM patient 10 was discharged    with a prescription for Zofran to treat her nausea.    _x000D_
+_x000D_
+The medical record lacked evidence that patient 10's nausea and vomiting had stabilized after receiving a dose of Zofran while in the ED or that she did not continue to vomit and would be able to maintain adequate hydration at home.  Without this treatment, the CAH could not be assured the patient would not deteriorate after discharge.  _x000D_
+_x000D_
+Review of the hospital's ED log showed Patient 10 returned to the ED on 05/24/19 at 8:10 PM (approximately 26 hours after discharge) with a chief complaint of severe right sided abdominal pain and was diagnosed    with acute appendicitis and sepsis (a serious condition resulting from the presence of harmful microorganisms in the blood or other tissues and the body's response to their presence, potentially leading to the malfunctioning of various organs, shock, and death)._x000D_
+_x000D_
+During an interview on 08/21/19 at 8:45 PM, Staff A, PA, stated that Patient 10 had no focal tenderness the first time she came in and it is rare to have anything acute without any tenderness. Staff A stated it might have been early for it to show up. Staff A stated that Patient 10's symptoms are almost always viral.  Staff A stated, "I always explain to patients with belly pain that it can be a number of things and they should return if anything changes or gets worse". _x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2407 OMGX11</t>
+          <t>2400 MQ7J11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8071,7 +8068,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>STAFFORD COUNTY HOSPITAL</t>
+          <t>CLAIBORNE COUNTY HOSPITAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -8080,233 +8077,42 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>171323</v>
+        <v>251320</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>502 S BUCKEYE</t>
+          <t>123 MCCOMB AVENUE</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>STAFFORD</t>
+          <t>PORT GIBSON</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>STABILIZING TREATMENT</t>
+          <t>COMPLIANCE WITH 489.24</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" s="2" t="n">
-        <v>43699</v>
+        <v>41383</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>OMGX11</t>
+          <t>MQ7J11</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on interview, record review and document review, the Critical Access Hospital (CAH) failed to provide necessary stabilizing treatment, resulting in a delay in treatment of an emergency medical condition (EMC), within the capability of the staff and CAH for one (Patient 10) of 22 sampled patients. Failure of the CAH to provide appropriate stabilizing treatment has the potential to place patients presenting to the emergency department (ED) at risk for worsening of their condition or even death._x000D_
-_x000D_
-Findings Include:_x000D_
-_x000D_
-Review of Patient 10's closed medical record showed she (MDS) dated [DATE] at 4:50 PM with a chief complaint of vomiting and abdominal pain. Laboratory studies included a urine analysis and a pregnancy test which were both negative._x000D_
-_x000D_
-Staff L, RN, documented vital signs at 5:12 PM as a blood pressure of 157/103 (normal range 120/80 - 140/90), pulse of 86 beats per minute, respirations at 20 breaths per minute, and a temperature of 36.7* Celsius (within normal range). Staff L, RN documented the patient complained she had upper abdominal pain that was constant and "hurts whole lot." Patient 10 rated her pain as an 8/10 on a scale of 0 to 10 (0 being no pain and 10 being severe pain).  _x000D_
-_x000D_
-Staff A, PA, documented he assessed the patient's abdomen and documented the patient reported mild, generalized tenderness. Staff A documented, "Patient has no fever, or focal tenderness, multiple patients in the area with similar symptoms - likely viral illness." _x000D_
-_x000D_
-At 5:06 PM on 05/23/19, Zofran (a medication to treat nausea and vomiting) 4 milligrams (mg) tablet was ordered by the provider and documented as given to Patient 10 at 5:17 PM. _x000D_
-_x000D_
-At 5:29 PM Staff A, PA entered an order for discharge in the medical record.  At 5:38 PM patient 10 was discharged    with a prescription for Zofran to treat her nausea.    _x000D_
-_x000D_
-The medical record lacked evidence that patient 10's nausea and vomiting had stabilized after receiving a dose of Zofran while in the ED or that she did not continue to vomit and would be able to maintain adequate hydration at home.  Without this treatment, the CAH could not be assured the patient would not deteriorate after discharge.  _x000D_
-_x000D_
-Review of the hospital's ED log showed Patient 10 returned to the ED on 05/24/19 at 8:10 PM (approximately 26 hours after discharge) with a chief complaint of severe right sided abdominal pain and was diagnosed    with acute appendicitis and sepsis (a serious condition resulting from the presence of harmful microorganisms in the blood or other tissues and the body's response to their presence, potentially leading to the malfunctioning of various organs, shock, and death)._x000D_
-_x000D_
-During an interview on 08/21/19 at 8:45 PM, Staff A, PA, stated that Patient 10 had no focal tenderness the first time she came in and it is rare to have anything acute without any tenderness. Staff A stated it might have been early for it to show up. Staff A stated that Patient 10's symptoms are almost always viral.  Staff A stated, "I always explain to patients with belly pain that it can be a number of things and they should return if anything changes or gets worse". _x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>68</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2402 YOYJ11</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>SANFORD MEDICAL CENTER THIEF RIVER FALLS</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Critical Access Hospitals</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>241381</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>3001 SANFORD PARKWAY</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>THIEF RIVER FALLS</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>2402</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>POSTING OF SIGNS</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" s="2" t="n">
-        <v>43810</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>YOYJ11</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-_x000D_
-Based on observation, interview, and document review, the critical access hospital (CAH) failed to ensure signage pertaining to the Emergency Medical Treatment and Active Labor Act (EMTALA) and corresponding patient rights' was posted in all areas likely to be notice by patients entering the Emergency Department (ED) or waiting for treatment.  This had potential to affect all patients presenting to the ED seeking care and treatment. _x000D_
-_x000D_
-Findings include: _x000D_
-_x000D_
-On 12/10/19, at 1:41 p.m. the ED was toured with the director of in-patient nursing (RN)-A.  The ED utilized one main entrance and the space immediately inside the entrance contained a single registration desk which shared space immediately adjacent to a waiting room filled with several chairs and visitors.  On the wall next to the registration desk, and visible to people sitting inside the waiting area, two white colored signs were posted on the wall which outlined a patient's rights pertaining to EMTALA.  Next to this posted signage, a badge-accessed doorway to the physical ED was present.  Inside, the ED consisted of two (2) triage rooms, two (2) trauma bays, four (4) treatment rooms, four (4) observation rooms, and three (3) examination rooms.  Examination Room #8 and Trauma Bay #2 were inspected with RN-A present.  Both of the rooms lacked any signage or information pertaining to a patient's right under EMTALA.  RN-A stated all of the examination rooms and trauma bays were "the exact same," and lacked signage.  The single ambulance garage entrance was then observed including the hallway connecting the garage to the physical ED.  The garage and connecting hallway both lacked any displayed signage or information pertaining to a patient's rights regarding EMTALA.  RN-A verified the lack of signage posted inside the physical ED.  _x000D_
-_x000D_
-During the tour, RN-A explained while the ED used one main entrance, labor and delivery (L&amp;D) patients who presented were sent to different areas of the hospital for triage and treatment based on how far along they were in their pregnancy.  All patients over 20 weeks were sent directly to the L&amp;D department and not sent to the physical ED which had just been toured.  RN-A and the surveyor toured the L&amp;D department which consisted of a total four (4) rooms.  Neither the rooms or hallways connecting the rooms displayed any signage or information pertaining to a patient's rights contained under EMTALA.  RN-A verified the lack of posted signage.  _x000D_
-_x000D_
-When interviewed immediately following the completed tour, RN-A stated she thought the ED Manager had discussed hanging more signage in the ED, however, RN-A was not sure where in the process this was at.  _x000D_
-_x000D_
-On 12/10/19, at 1:54 p.m. the patient access representative (PAR)-A was interviewed at the front registration desk.  PAR-A stated when a patient presented to the ED through the main entrance, they would first come to the registration desk.  PAR-A stated they provide each patient with a booklet of rights and provided these booklets for review.  The book outlined a patient's Federal and State rights, however, lacked any language or information on EMTALA or a patient's right under the act.  _x000D_
-_x000D_
-When interviewed on 12/10/19, at 1:57 p.m. ED registered nurse (RN)-B stated the nursing staff typically did not give patients any information on EMTALA.  Further, RN-B stated she did not believe any additional signage pertaining to EMTALA and a patient's rights therein were posted anywhere in the ED besides next to the main reception desk.      _x000D_
-_x000D_
-On 12/11/19, at 8:04 a.m. the ED Manager (RN)-C was interviewed.  RN-C explained the hospital had just recently re-located the displayed signage next to the reception desk from inside the locked ED doors so it would be more visible.  RN-C and the surveyor toured the ambulance garage and attached spaces.  RN-C verified it lacked any posted signage pertaining to EMTALA.  RN-C stated there had been signage displayed, however, it must have been taken down at some point.  Further, RN-C acknowledged some additional EMTALA signage needed to be displayed in the ED, including the ambulance garage. _x000D_
-_x000D_
-A hospital policy on EMTALA signage was not provided. _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>69</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2400 MQ7J11</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>CLAIBORNE COUNTY HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Critical Access Hospitals</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>251320</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>123 MCCOMB AVENUE</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PORT GIBSON</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>COMPLIANCE WITH 489.24</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" s="2" t="n">
-        <v>41383</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>MQ7J11</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -8333,73 +8139,73 @@
 </t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="72">
+      <c r="A72" t="n">
         <v>116</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>2406 43CU11</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>PORTER HOSPITAL, INC</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Critical Access Hospitals</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="F72" t="n">
         <v>471307</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>115 PORTER DRIVE</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>MIDDLEBURY</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>VT</t>
         </is>
       </c>
-      <c r="J74" t="n">
+      <c r="J72" t="n">
         <v>2406</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" s="2" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" s="2" t="n">
         <v>43843</v>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>43CU11</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -8429,73 +8235,73 @@
 </t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="73">
+      <c r="A73" t="n">
         <v>117</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>2406 IUSL11</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>DICKENSON COMMUNITY HOSPITAL</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Critical Access Hospitals</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="F73" t="n">
         <v>491303</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>312 HOSPITAL DRIVE</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>CLINTWOOD</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="J75" t="n">
+      <c r="J73" t="n">
         <v>2406</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" s="2" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" s="2" t="n">
         <v>41859</v>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>IUSL11</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -8646,73 +8452,73 @@
 _x000D</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
         <v>2014</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="74">
+      <c r="A74" t="n">
         <v>121</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>2406 PWEO11</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>MID VALLEY HOSPITAL</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Critical Access Hospitals</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="F74" t="n">
         <v>501328</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>810 JASMINE STREET</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>OMAK</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="J76" t="n">
+      <c r="J74" t="n">
         <v>2406</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" s="2" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" s="2" t="n">
         <v>43713</v>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>PWEO11</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -8742,73 +8548,73 @@
 </t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="75">
+      <c r="A75" t="n">
         <v>124</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>2409 D6YK11</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>WHIDBEYHEALTH MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Critical Access Hospitals</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="F75" t="n">
         <v>501339</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>101 NORTH MAIN STREET</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>COUPEVILLE</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="J77" t="n">
+      <c r="J75" t="n">
         <v>2409</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
         <is>
           <t>APPROPRIATE TRANSFER</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" s="2" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" s="2" t="n">
         <v>43154</v>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>D6YK11</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -8922,73 +8728,73 @@
 </t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="76">
+      <c r="A76" t="n">
         <v>151</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>2407 SQMW11</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>REGIONAL MEDICAL CENTER OF CENTRAL ALABAMA</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="F76" t="n">
         <v>10150</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>29 L V STABLER DRIVE</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>GREENVILLE</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="J78" t="n">
+      <c r="J76" t="n">
         <v>2407</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" s="2" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" s="2" t="n">
         <v>43693</v>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>SQMW11</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -9326,73 +9132,73 @@
 Review of the 8/8/19 11:23 AM ED Nursing Miscellaneous Nursing Note documentation completed by EI # 10, revealed "pt reports he/she doesn't want to wait any longer</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="77">
+      <c r="A77" t="n">
         <v>164</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>2407 74BC11</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>CALIFORNIA PACIFIC MEDICAL CENTER- VAN NESS CAMPUS</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="F77" t="n">
         <v>50047</v>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>1101 VAN NESS AVENUE</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>SAN FRANCISCO</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="J79" t="n">
+      <c r="J77" t="n">
         <v>2407</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" s="2" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" s="2" t="n">
         <v>44120</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>74BC11</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -9496,168 +9302,73 @@
 Review of policy and procedure titled, "P</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>169</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2402 WEKB11</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="n">
+        <v>173</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2406 SRL011</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>PROVIDENCE ST. JOSEPH HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ST JOSEPH'S MEDICAL CENTER OF STOCKTON</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>50069</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1100 WEST STEWART DR</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ORANGE</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
+      <c r="F78" t="n">
+        <v>50084</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1800 N CALIFORNIA ST</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>STOCKTON</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="J80" t="n">
-        <v>2402</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>POSTING OF SIGNS</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" s="2" t="n">
-        <v>40857</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>WEKB11</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-_x000D_
-Based on observation and interview, the hospital failed to conspicuously post signage in the ED waiting rooms and treatment rooms and in the L&amp;D (Labor and Delivery) waiting room and registration area. This could result in patients being unaware of their rights for examination in the event of an emergency medical condition. _x000D_
-_x000D_
-Findings:_x000D_
-_x000D_
-1. On 11/9/11, at 1330 hours, the hospital's ED was toured with the ED Director. The Director stated the ED had three waiting rooms. The initial waiting room, Waiting Room One was the initial entry point for all non-ambulance patients arriving at the ED. Immediately to the left of Waiting Room One a screening nurse was stationed. To the right, a security officer was stationed. Past the screening nurse, also on the left, were the patient registration area and the entrance to triage. To the right there were seats for patients and visitors. No signage specifying the rights of individuals for examination and treatment with respect to emergency medical conditions and women in labor in the ED was visible in Waiting Area One._x000D_
-_x000D_
-On the wall of the hallway leading to Waiting Rooms Two and Three the required emergency treatment signage was observed. The print font of the sign, according to the Director, was sufficient in size. However, it was difficult to read if a person was more than one foot away.  _x000D_
-_x000D_
-At 1345 hours, an interview was conducted with the parents of Patient 9, an ED pediatric patient waiting to be seen. When questioned about signs they had seen stating their child's rights to receive emergency treatment, both parents stated they had not noticed the signs._x000D_
-_x000D_
-During a tour of the treatment areas of the ED no conspicuous posting of signage was observed in locations likely to be noted by patients, informing them of their right to a medical screening examination, regardless of the ability to pay and whether the hospital participated in the Medicaid program._x000D_
-_x000D__x000D_
-_x000D__x000D_
- _x000D__x000D_
-_x000D__x000D_
-_x000D_
-2. The L&amp;D area was toured with the L&amp;D Nurse Manager and the Director of Regulatory on 11/9/11 at 1340 hours. The Nurse Manager stated if a patient who was more than 20 weeks pregnant presented to the ED with problems related to the pregnancy the patient would be brought to the L&amp;D unit for examination and observation. _x000D_
-_x000D_
-Observation of the small waiting area outside of the patient registration room as well as the inside of the patient registration room did not show signage specifying the rights of individuals for examination and treatment with respect to emergency medical conditions and women in labor and notice the hospital participated in the Medicaid program.  _x000D_
-_x000D_
-The required signage was found located inside of a room the Nurse Manager stated was used to triage the pregnant patients waiting for an examination._x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>173</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2406 SRL011</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>ST JOSEPH'S MEDICAL CENTER OF STOCKTON</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>50084</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>1800 N CALIFORNIA ST</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>STOCKTON</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
+      <c r="J78" t="n">
         <v>2406</v>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" s="2" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" s="2" t="n">
         <v>40891</v>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>SRL011</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -9830,73 +9541,73 @@
 </t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="79">
+      <c r="A79" t="n">
         <v>198</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>2406 SYB411</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>WEST ANAHEIM MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="F79" t="n">
         <v>50426</v>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>3033 W ORANGE AVENUE</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>ANAHEIM</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="J82" t="n">
+      <c r="J79" t="n">
         <v>2406</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" s="2" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" s="2" t="n">
         <v>42311</v>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>SYB411</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -10042,73 +9753,73 @@
 </t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="80">
+      <c r="A80" t="n">
         <v>207</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>2406 VKBS11</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>MEMORIAL MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="F80" t="n">
         <v>50557</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>1700 COFFEE RD</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>MODESTO</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="J83" t="n">
+      <c r="J80" t="n">
         <v>2406</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" s="2" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" s="2" t="n">
         <v>43202</v>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>VKBS11</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -10199,73 +9910,73 @@
 CI 1 stated the clinical record for Patien</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="81">
+      <c r="A81" t="n">
         <v>208</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>2407 VKBS11</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>MEMORIAL MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F81" t="n">
         <v>50557</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>1700 COFFEE RD</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>MODESTO</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="J84" t="n">
+      <c r="J81" t="n">
         <v>2407</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" s="2" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" s="2" t="n">
         <v>43202</v>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>VKBS11</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -10324,73 +10035,73 @@
 </t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="82">
+      <c r="A82" t="n">
         <v>234</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>2406 64W611</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>UNITED MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F82" t="n">
         <v>90008</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>1310 SOUTHERN AVENUE  SE</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>WASHINGTON</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>DC</t>
         </is>
       </c>
-      <c r="J85" t="n">
+      <c r="J82" t="n">
         <v>2406</v>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" s="2" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" s="2" t="n">
         <v>43154</v>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>64W611</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -10448,73 +10159,73 @@
 </t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="83">
+      <c r="A83" t="n">
         <v>263</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>2407 ZY3N11</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>HCA FLORIDA MERCY HOSPITAL</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="F83" t="n">
         <v>100167</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>3663 S MIAMI AVE</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>MIAMI</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="J86" t="n">
+      <c r="J83" t="n">
         <v>2407</v>
       </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" s="2" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" s="2" t="n">
         <v>41253</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>ZY3N11</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -10554,73 +10265,73 @@
 </t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="84">
+      <c r="A84" t="n">
         <v>272</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>2406 3C9X11</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>WELLINGTON REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="F84" t="n">
         <v>100275</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>10101 FOREST HILL BLVD</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>WELLINGTON</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="J87" t="n">
+      <c r="J84" t="n">
         <v>2406</v>
       </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" s="2" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" s="2" t="n">
         <v>44622</v>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>3C9X11</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -10682,73 +10393,73 @@
 </t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="85">
+      <c r="A85" t="n">
         <v>273</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>2409 89EN11</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>CLEVELAND CLINIC HOSPITAL</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="F85" t="n">
         <v>100289</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>3100 WESTON RD</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>WESTON</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="J88" t="n">
+      <c r="J85" t="n">
         <v>2409</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
         <is>
           <t>APPROPRIATE TRANSFER</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" s="2" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" s="2" t="n">
         <v>42943</v>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>89EN11</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -10802,73 +10513,73 @@
 </t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="86">
+      <c r="A86" t="n">
         <v>276</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>2407 JOU711</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>UPSON REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="F86" t="n">
         <v>110002</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>801 W GORDON STREET</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>THOMASTON</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J89" t="n">
+      <c r="J86" t="n">
         <v>2407</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" s="2" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>JOU711</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -10897,73 +10608,73 @@
 </t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="87">
+      <c r="A87" t="n">
         <v>277</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>2406 019G11</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>ADVENTHEALTH GORDON</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="F87" t="n">
         <v>110023</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>1035 RED BUD ROAD</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>CALHOUN</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J90" t="n">
+      <c r="J87" t="n">
         <v>2406</v>
       </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" s="2" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" s="2" t="n">
         <v>44575</v>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>019G11</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -11014,73 +10725,73 @@
 </t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="88">
+      <c r="A88" t="n">
         <v>280</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>2407 JLGO11</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>WELLSTAR SPALDING REGIONAL HOSPITAL</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F88" t="n">
         <v>110031</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>601 SOUTH 8TH STREET</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>GRIFFIN</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J91" t="n">
+      <c r="J88" t="n">
         <v>2407</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" s="2" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" s="2" t="n">
         <v>43334</v>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>JLGO11</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -11156,73 +10867,73 @@
 </t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="89">
+      <c r="A89" t="n">
         <v>281</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>2406 34RB11</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>MEMORIAL HEALTH UNIVERSITY MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="F89" t="n">
         <v>110036</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>4700 WATERS AVENUE</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>SAVANNAH</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J92" t="n">
+      <c r="J89" t="n">
         <v>2406</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" s="2" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" s="2" t="n">
         <v>43489</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>34RB11</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -11304,73 +11015,73 @@
 </t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="90">
+      <c r="A90" t="n">
         <v>282</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>2406 5NI411</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>MEMORIAL HEALTH UNIVERSITY MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="F90" t="n">
         <v>110036</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>4700 WATERS AVENUE</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>SAVANNAH</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J93" t="n">
+      <c r="J90" t="n">
         <v>2406</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" s="2" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" s="2" t="n">
         <v>43637</v>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>5NI411</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -11472,73 +11183,73 @@
 </t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="91">
+      <c r="A91" t="n">
         <v>283</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>2406 VUE611</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>TRINITY HOSPITAL OF AUGUSTA</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="F91" t="n">
         <v>110039</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>2260 WRIGHTSBORO RD</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>AUGUSTA</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J94" t="n">
+      <c r="J91" t="n">
         <v>2406</v>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" s="2" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" s="2" t="n">
         <v>42822</v>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>VUE611</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -11637,73 +11348,73 @@
 </t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="92">
+      <c r="A92" t="n">
         <v>285</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>2406 RCQY11</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>ST JOSEPH'S HOSPITAL - SAVANNAH</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F92" t="n">
         <v>110043</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>11705 MERCY BOULEVARD</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>SAVANNAH</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J95" t="n">
+      <c r="J92" t="n">
         <v>2406</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" s="2" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" s="2" t="n">
         <v>42066</v>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>RCQY11</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -11735,73 +11446,73 @@
 </t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="93">
+      <c r="A93" t="n">
         <v>293</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>2406 4F4G11</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>ST FRANCIS HOSPITAL- EMORY HEALTHCARE</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="F93" t="n">
         <v>110129</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>2122 MANCHESTER EXPRESSWAY</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>COLUMBUS</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="J96" t="n">
+      <c r="J93" t="n">
         <v>2406</v>
       </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" s="2" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" s="2" t="n">
         <v>43314</v>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>4F4G11</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -11981,73 +11692,73 @@
 During a telephone interview with the RN (#11 nurse that was assigned care for the baby on 07/18/18 from 7:00 a.m. until 7:00 p.m. on the Mother Baby Unit) on 07/31/18 at 10:30 a.m. in the Administration Conference Room, the nurse explained he/she is an obstetric (delivery of infants) nurse and has been a RN and worked at the facility for four (4) years.  The nurse said that he/she vaguely remembers the patient (#2).  After review of his/her notes the nurse explained that prior to discharge the baby had been nursing frequently for 20 to 30 minutes intervals.  The nurse said that the lactation consultant also saw the patient's mother during her admission.  The nurse explained that breastfeeding mothers are required to document feedings and are encouraged to feed 8-12 times in a 24-hour period.  The nurse said these recorded feedings are evaluated and if there are any lapses in feedings the nursing staff will encourage the mother to feed more often.  RN #11 said that at the end of </t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="94">
+      <c r="A94" t="n">
         <v>308</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>2406 3ZMA11</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>UNIVERSITY OF ILLINOIS HOSPITAL</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F97" t="n">
+      <c r="F94" t="n">
         <v>140150</v>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>1740 WEST TAYLOR ST SUITE 1400</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="J97" t="n">
+      <c r="J94" t="n">
         <v>2406</v>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" s="2" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" s="2" t="n">
         <v>42984</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>3ZMA11</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -12100,19 +11811,375 @@
 </t>
         </is>
       </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>309</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2409 3ZMA11</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>UNIVERSITY OF ILLINOIS HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>140150</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1740 WEST TAYLOR ST SUITE 1400</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CHICAGO</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>2409</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>APPROPRIATE TRANSFER</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" s="2" t="n">
+        <v>42984</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>3ZMA11</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+_x000D_
+Based on document review and interview, it was determined that for 1 of 9 (Pt. #1) Emergency Department (ED)clinical records reviewed of patients transferred to another Hospital, the Hospital failed to ensure an appropriate transfer was provided, as required._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+1.  On 9/5/17 at approximately 9:40 AM, the clinical  record of Pt. #1 was reviewed. Pt. #1 was a [AGE] year old female that presented to the Hospital's ED via CFD paramedic (Chicago Fire Department) on 8/17/17 with a complaint of sexual assault, "violated in her mouth twice yesterday". Pt. #1 was triaged with a Level 2 with admitting vital signs: pulse 104, blood pressure 125/74, respiration 18, temperature 37.2 and received a medical screening exam that included completion of sexual assault kit, urine pregnancy test, and blood test. The clinical record indicated that Pt. #1 was given discharge instructions on 8/17/17 at 6:30 PM that included educational materials and a follow-up appointment with (Clinic Office)._x000D_
+_x000D_
+2.  On 9/5/17 at approximately 10:00 AM, the State Police Incident Report to the Hospital  dated 8/17/17 at 10:26 PM was reviewed and indicated, "R/O (Responding Officer) was dispatched to a call of a disturbance with a discharged    patient in the ER... R/O then asked her if she wished to seek treatment at (Hospital #2), to which she agreed. Medical staff gave R/O all of subject's personal belongings, which consisted of her discharge papers... provided a courtesy escort to (Hospital #2) without further incident."_x000D_
+_x000D_
+The clinical record of Pt. #1 lacked certifying documentation of the need to transfer Pt #1, the acceptance of the receiving Hospital, that the required documents were sent with patient #1, and that Pt #1 was transferred by appropriate personnel._x000D_
+_x000D_
+3. On 9/5/17 at approximately 2:14 PM, an interview was conducted with E#2 (State Police Officer) who stated that he remembers telling the Hospital staff that he will be taking Pt. #1 to (Hospital #2's ER). E #2 then stated that he escorted Pt. #1 to (Hospital #2's ER) with the assistance of another officer._x000D_
+_x000D_
+4. On  9/5/17 at approximately 10:00 AM, the clinical record at (Hospital #2's ED) of Pt. #1 was reviewed._x000D_
+_x000D_
+The ED RN (Registered Nurse) Triage Note on 8/17/17 at 9:51 PM was reviewed and indicated, " ... Triage Adult, Accompanied by: Self ... Mode of Arrival: Walked ... Chief Complaint Additional Info (information): Pain all over per patient, s/p (status post) rape; departed (Hospital #1) and escorted to (Hospital #2) by (Hospital #1's) police staff under order of (Hospital #1's) P.D. (police department) superior ..." _x000D_
+_x000D_
+The ED Physician's Note on 8/17/17 at 11:38 PM was reviewed and indicated, " ... History of Present Illness: The patient presents with a psychiatric problem, suicidal ideation, Pt (Pt. #1) presented to ED after being brought here by (Hospital #1's) police for unknown reason. As per paperwork, pt. was treated for 'alleged sexual assault' at (Hospital #1) and was discharged   . Nursing coordinator verified information with (transferring Hospital) staff who also confirmed that (Pt. #1) was evaluated by psychiatry. (Pt. #1) c/o (complained of) feeling depressed and 'no one care, I don't want to live; I'm tired,' stating 'I don't know why cars don't run over me.' When specifically asked, (Pt. #1) admits to SI (suicidal ideation), tearful and denying any physical complaints ... Medical Decision Making: Differential Diagnosis: Anxiety, depression, suicide risk. Plan: threshold evaluation ..."_x000D_
+_x000D_
+The ED Physician Notes on 8/18/17 at 3:23 AM was reviewed and indicated, " ... Discussed with threshold, will plan to admit patient for SI (suicidal ideation) to inpatient psych (psychiatric) facility ... Impression and Plan: Diagnosis: Suicidal thoughts ... Disposition: awaiting transfer to inpatient psychiatric facility ..."_x000D_
+_x000D_
+The (Hospital #2's) RN Discharge Note on 8/18/17 at 6:19 PM was reviewed and indicated, " ... (Pt. #1) transferred to (Hospital #3) in care of (paramedic) ambulance staff."_x000D_
+_x000D_
+5. On 9/6/17 at approximately 8:30 AM, an interview was conducted with E #1 (Director of Accreditation). E #1 stated that the State police respond to (Hospital #1's) calls._x000D_
+    _x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>310</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2406 O33711</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>IROQUOIS MEMORIAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>140167</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>200 FAIRMAN STREET</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>WATSEKA</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" s="2" t="n">
+        <v>40807</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>O33711</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+_x000D_
+A.  Based on Hospital policy, ambulance reports, a review of clinical Emergency Department (ED) records, internal documentation (emails) and staff interview, it was determined that in 1 of  34 (Pt. #1) clinical records reviewed, the Hospital failed to provide a medical screening examination as required._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+1.  The Hospital policy titled "Emergency Department Compliance Policy," indicates: "All patients who present to the hospital.... will be provided with a medical screening examination.."_x000D_
+_x000D_
+2.  On survey date 09/20/11 the Hospital owned ambulance system report was reviewed and it indicated on [DATE] at 3:31 am the hospital received a call for a battery victim with  loss of consciousness.  The victim, Pt. #1 was brought to the ER  and put on bed #1.  The emergency physician (Physician #1) told the ambulance crew to reload the patient and take the patient to another Hospital because the CT scanner was not working at the hospital.  The ambulance crew transferred Pt. #1 to the receiving hospital on [DATE].  During the course of the investigation, the Hospital was unable to produce a clinical record that indicated the patient had been seen by a physician and received a medical screening examination._x000D_
+_x000D_
+3.  An interview with RN #1 was conducted per telephone on 09/20/11 at 3:10 pm.  RN #1 was working at the time of the presentation of Pt. #1.  RN #1 indicated he heard physician #1 say "what am I supposed to do? I can't scan his head.  He needs a trauma hospital."  RN #1 indicated the paramedic was on the phone and then they were wheeling Pt. #1 out of the hospital.  RN #1 was uncertain as to how long the CT scanner was down.  "They were trying to reboot the CT scanner." _x000D_
+_x000D_
+4.  An interview with the ED nurse, RN #2, who was on duty when Pt. #1 arrived at the ED, was conducted per phone at 3:30 pm on 09/20/11.  RN #2 indicated Pt. #1 was transported in from the field and had lacerations to his face, was placed in bay #1 and was transferred out while she was conducting telephone calls concerning transfers for 2 other patients.  It was verbalized by the RN #2 that she told the ambulance crew and Physician #1 "you can't do that without examining the patient, that is an EMTALA violation."  The ED Director (Physician #2) was notified by RN#2 on 09/05/11 regarding the inappropriate transfer and Pt. #1 being transferred out without a medical screening examination._x000D_
+_x000D_
+5.  Internal emails were reviewed on 09/20/11, it was verified the Ambulance Director notified Physician #2 via email on 09/05/11 regarding the improper transfer of Pt. #1 by Physician #1.  Physician #2 then sent Physician #1 an email to obtain further information.  Physician #1, who transferred the patient out, indicated in an email to Physician #2 "I looked at "Pt. #1," saw he was in no distress, was alert and following commands and was stable for transfer.  Unfortunately, I am unclear of these particular policies of "the Hospital" and really didn't think about the transfer issue because of the delay in treatment it might have caused."  _x000D_
+_x000D_
+6. Documentation of the receiving Hospital's patient record indicated that Pt. #1 was received at the hospital at 5:45 am on 09/04/11 with an elevated blood alcohol, trauma and facial injuries, status post assault and required a Spanish speaking interpreter.  Pt. #1 was positive for head injury, a large laceration to his right side of head/ear and lower lip.  Pt. #1 was expectorating blood, had abrasions to his mid thoracic spine and face.  Pt. #1 was stabilized and then transferred to another hospital at 7:59 am for a plastics consult and evaluation by the ears, nose and throat physician. _x000D_
+_x000D_
+7.  The above findings were verified with the ED Nurse Manager and Vice President (VP) of Compliance on 09/20/11 at 4:00 pm._x000D_
+_x000D_
+ B. Based on a review of the Medical Staff Bylaws, Rules and Regulations, Hospital policies, Obstetrical (OB) log and staff interview, it was determined that in 13 of 13 (Pt. #'s 22,23,24,25,26,27,28,29,30,31,32,33,34) clinical records reviewed in which the patient was referred to the OB for the Medical Screening , the Hospital failed to provide documentation that the Registered Nurses in the OB department were competent to provide a medical screening examination per the strict protocols for OB patients, therefore no appropriate medical screening examination was completed._x000D_
+_x000D_
+1. The medical staff bylaws, rules and regulations, were reviewed on 09/20/11, it indicated: "All individuals will be provided a medical screening exam, beyond triage, by a physician or non-physician provider under strict protocols for OB patients."  _x000D_
+_x000D_
+2. The policy titled, "Protocol Medical Screening For OB" was reviewed on 9/20/11, the protocol's purpose was "To screen maternal patients from the Emergency Department". The Procedure was to perform maternal assessment and fetal assessment; to contact the OB provider to communicate data and to discharge per OB providers instructions._x000D_
+_x000D_
+3. The policy titled  " Care of The Obstetrical (OB) Patient In The ED "  was reviewed on 9/20/11. It indicated  " 2. OB Patients of 20 weeks gestation or greater: a. In labor (or suspected of being in labor), or with a pregnancy related complaint, are ordinarily sent to the OB department. If, after assessment by the OB department, the patient ' s condition is deemed medical and not obstetrical, the patient should be returned to the ED for a medical screening exam and treatment by the ED physician. The patient can be discharged    or admitted     for further observation or treatment in the OB Department ... "_x000D_
+_x000D_
+4.    During an interview conducted with the ED Nurse Manager and the VP of Compliance on 09/20/11 at 4:00 PM, it was verbalized that there are 10 OB nurses and that all of them are allowed to assess OB patients who present to the ED and are directed to the OB department for evaluation. The hospital was unable to provide documentation of any competency training and testing to ensure the the nurses are competent to perform medical screening examinations on OB patients referred from the ED. _x000D_
+_x000D_
+4.  The OB outpatient register (log book) was reviewed on survey date 09/20/11.  The log indicated from 09/09/11 - 09/19/11, thirteen OB patients presented to the ED, were logged in and examined in the OB unit for potential deliveries.  There was no documentation to indicate that the 13 listed OB patients who were evaluated by the OB department from 09/09/11 - 09/19/11 had received an appropriate medical screening examination. The services rendered by the OB nurses, as addressed on the OB central log, indicated these women had been admitted     and checked for contractions, rupture of membranes, abdominal pain, vaginal bleeding, etc.  Three of 13 OB patients had been admitted    , two were admitted     for observation and eight had been discharged    to home without having an appropriate medical screening examination. _x000D_
+  _x000D_
+5.  The above findings were verified with the ED Nurse Manager and Vice President (VP) of Compliance on 09/20/11 at 4:00 PM._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>311</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2406 0GPY11</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ALEXIAN BROTHERS MEDICAL CENTER 1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>140258</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>800 W BIESTERFIELD RD</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ELK GROVE VILLAGE</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" s="2" t="n">
+        <v>42223</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>0GPY11</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+_x000D_
+A.  Based on document review, observation and interview, it was determined the hospital failed to ensure medical screening exams (MSE) are conducted by individual(s) deemed qualified by hospital By-Laws and/or Rules and Regulations._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+1.  On 8/5/15 at 11:00 AM, the Medical Staff Bylaw revised 8/12/14 were reviewed.  The Bylaws did not include individual(s) approved to perform MSEs._x000D_
+_x000D_
+2.  On 8/7/15 at 11:45 AM, hospital staff provided six binders titled Rules and Regulations containing approximately 5,000 pages.  According to hospital staff, the contents of the binders did not include the individual (s) approved to perform a MSE._x000D_
+_x000D_
+3.  On 8/5/15 at 1:15 PM, an interview was conducted with the Administrative Director of Nursing Services (E #6).  E #6 stated neither the Bylaws nor Rules and Regulations included the individual(s) approved to perform a MSE in the ED._x000D_
+_x000D_
+_x000D_
+B.  Based on document review and interview, it was determined, for 1 of 10 clinical records reviewed (Pt. #1), the hospital failed to provide an appropriate medical screening examination._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+1.  On 8/7/15 at 2:45 PM, a nursing practice and skill document titled, "Pain Assessment: "Using the Numeric Pain Rating Scale", provided by the Administrative Director of Nursing Services (E #6), was reviewed.  E #6 stated this pain rating scale is used by the whole hospital.  The document included, "The 11 point numeric scale of 0 - 10 contains the following anchors:  0 = no pain;  10 = worst possible pain.  Inadequate assessment of pain is a barrier to its management and relief of pain.  Effective analgesic management of pain requires an evaluation with a reliable and valid measurement tool to translate subjective information into objective measures..."_x000D_
+_x000D_
+2.  On 8/7/15 at 10:15 AM, hospital ED policy titled: "Triage Procedure in the Emergency Department", revised 4/16/12, was reviewed.  The policy included, "Appendix C - Patient Care Protocols - Abdominal Pain Protocol - Upper Abdomen Female - Saline lock [venous access], CBC [complete blood count], CMP [comprehensive metabolic panel], Amylase/Lipase [pancreatic test], UA [urine analysis]/Dip, and UHCG [pregnancy test]."_x000D_
+_x000D_
+3.  On 8/7/15 at 12:50 PM, hospital policy No. 950-1610-001.02, titled, "Licensed Physician Assistant, Request or Allied Staff Duties", revised 12/5/08, was reviewed.  The policy required, "3. Services Provided: The services provided by the licensed physician assistant shall be limited to services that the supervising physician generally provided in the normal course of his/her clinical medical practice."_x000D_
+_x000D_
+4.  On 8/5/15 between 9:00 AM and 11:00 AM, Pt. #1's clinical record was reviewed.  Pt. #1 was a [AGE] year old female, transported to the ED by ambulance on 6/15/15 at 9:19 PM, with a complaint of abdominal pain.  Patient #1 received 100 mcg of Fentanyl (pain medication) in the ambulance.  Pt. #1 was triaged in the Emergency Department (ED) at 9:25 PM and prioritized as urgent.  Vital signs taken at 9:29 PM were: blood pressure 132/85, respirations 20, pulse 102, temperature 96.3, oxygen saturation on room air 98%, and pain level 7 of 10.  _x000D_
+_x000D_
+5.  On 8/5/15 at 12:25 AM, an interview was conducted with the Physician Assistant (PA) (E #1) who cared for Pt. #1 on 6/15/15.  E #1 stated Pt. #1 had "belly pain" and had been vomiting.  Pt. #1 was calm when she arrived and received Fentanyl in the ambulance.  During Pt. #1's exam, Pt. #1 was not complaining when her abdomen was palpated.  E #1 estimated Pt. #1's pain level to be at 3 or 4, but did not ask.  A pain assessment using the hospital's 0 - 10 pain scale was not utilized.  _x000D_
+_x000D_
+6.  On 6/15/15 at 9:42 PM, a E #1 ordered laboratory blood tests including, CBC, CMP, and Lipase.  E #1 did not order a UA or UHCG, as required by hospital policy._x000D_
+_x000D_
+7.  On 8/5/15 at 12:55 PM, an interview was conducted with the Administrative Director of Nursing Services (E #6).  E #6 stated she spoke with E #1 regarding the UA and  UHCG.   E #1 did not order a pregnancy test because Pt. #1 was in her 40s and E #1 did not anticipated any imaging tests needed to be ordered.  E #1 did not order a UA because Pt. #1 had upper abdominal pain which didn't warrant a UA._x000D_
+_x000D_
+8.  E #1 performed Pt. #1's medical screening exam (MSE) on 6/15/15 at 9:37 PM.  However, Pt. #1's MSE documentation was dated 7/3/15 at 10:39 AM (19 days after Pt. #1's ED encounter).  _x000D_
+ _x000D_
+9.  E #1's supervising Physician's (MD #1) progress note dated 6/15/15 at 10:03 PM, included, "I was personally available for consultation in the emergency department.  I have reviewed the chart and agree with the documentation as recorded by the NP/PA, including the assessment, treatment plan, and disposition."   However, E #1's MSE was not documented until 7/3/15 at 10:39AM. _x000D_
+_x000D_
+10.  On 8/5/15 at 11:50 AM, a phone interview was conducted with MD #1.  MD #1 stated he did not see Pt. #1 but was available for the PA (E #1) who examined Pt. #1.  MD #1 stated the PA may not have finished her notes that day, because the ED was so busy. _x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2409 3ZMA11</t>
+          <t>2406 FGY511</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12122,7 +12189,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF ILLINOIS HOSPITAL</t>
+          <t>MEMORIAL HEALTHCARE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12131,82 +12198,61 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>140150</v>
+        <v>230121</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1740 WEST TAYLOR ST SUITE 1400</t>
+          <t>826 WEST KING STREET</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>CHICAGO</t>
+          <t>OWOSSO</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>APPROPRIATE TRANSFER</t>
+          <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" s="2" t="n">
-        <v>42984</v>
+        <v>42773</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>3ZMA11</t>
+          <t>FGY511</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
-_x000D_
-Based on document review and interview, it was determined that for 1 of 9 (Pt. #1) Emergency Department (ED)clinical records reviewed of patients transferred to another Hospital, the Hospital failed to ensure an appropriate transfer was provided, as required._x000D_
-_x000D_
+Based on document review and interview, the facility failed to provide an appropriate medical screening exam to one of nineteen patients (#4) reviewed resulting in the potential for poor patient outcomes.  _x000D_
 Findings include:_x000D_
 _x000D_
-1.  On 9/5/17 at approximately 9:40 AM, the clinical  record of Pt. #1 was reviewed. Pt. #1 was a [AGE] year old female that presented to the Hospital's ED via CFD paramedic (Chicago Fire Department) on 8/17/17 with a complaint of sexual assault, "violated in her mouth twice yesterday". Pt. #1 was triaged with a Level 2 with admitting vital signs: pulse 104, blood pressure 125/74, respiration 18, temperature 37.2 and received a medical screening exam that included completion of sexual assault kit, urine pregnancy test, and blood test. The clinical record indicated that Pt. #1 was given discharge instructions on 8/17/17 at 6:30 PM that included educational materials and a follow-up appointment with (Clinic Office)._x000D_
-_x000D_
-2.  On 9/5/17 at approximately 10:00 AM, the State Police Incident Report to the Hospital  dated 8/17/17 at 10:26 PM was reviewed and indicated, "R/O (Responding Officer) was dispatched to a call of a disturbance with a discharged    patient in the ER... R/O then asked her if she wished to seek treatment at (Hospital #2), to which she agreed. Medical staff gave R/O all of subject's personal belongings, which consisted of her discharge papers... provided a courtesy escort to (Hospital #2) without further incident."_x000D_
-_x000D_
-The clinical record of Pt. #1 lacked certifying documentation of the need to transfer Pt #1, the acceptance of the receiving Hospital, that the required documents were sent with patient #1, and that Pt #1 was transferred by appropriate personnel._x000D_
-_x000D_
-3. On 9/5/17 at approximately 2:14 PM, an interview was conducted with E#2 (State Police Officer) who stated that he remembers telling the Hospital staff that he will be taking Pt. #1 to (Hospital #2's ER). E #2 then stated that he escorted Pt. #1 to (Hospital #2's ER) with the assistance of another officer._x000D_
-_x000D_
-4. On  9/5/17 at approximately 10:00 AM, the clinical record at (Hospital #2's ED) of Pt. #1 was reviewed._x000D_
-_x000D_
-The ED RN (Registered Nurse) Triage Note on 8/17/17 at 9:51 PM was reviewed and indicated, " ... Triage Adult, Accompanied by: Self ... Mode of Arrival: Walked ... Chief Complaint Additional Info (information): Pain all over per patient, s/p (status post) rape; departed (Hospital #1) and escorted to (Hospital #2) by (Hospital #1's) police staff under order of (Hospital #1's) P.D. (police department) superior ..." _x000D_
-_x000D_
-The ED Physician's Note on 8/17/17 at 11:38 PM was reviewed and indicated, " ... History of Present Illness: The patient presents with a psychiatric problem, suicidal ideation, Pt (Pt. #1) presented to ED after being brought here by (Hospital #1's) police for unknown reason. As per paperwork, pt. was treated for 'alleged sexual assault' at (Hospital #1) and was discharged   . Nursing coordinator verified information with (transferring Hospital) staff who also confirmed that (Pt. #1) was evaluated by psychiatry. (Pt. #1) c/o (complained of) feeling depressed and 'no one care, I don't want to live; I'm tired,' stating 'I don't know why cars don't run over me.' When specifically asked, (Pt. #1) admits to SI (suicidal ideation), tearful and denying any physical complaints ... Medical Decision Making: Differential Diagnosis: Anxiety, depression, suicide risk. Plan: threshold evaluation ..."_x000D_
-_x000D_
-The ED Physician Notes on 8/18/17 at 3:23 AM was reviewed and indicated, " ... Discussed with threshold, will plan to admit patient for SI (suicidal ideation) to inpatient psych (psychiatric) facility ... Impression and Plan: Diagnosis: Suicidal thoughts ... Disposition: awaiting transfer to inpatient psychiatric facility ..."_x000D_
-_x000D_
-The (Hospital #2's) RN Discharge Note on 8/18/17 at 6:19 PM was reviewed and indicated, " ... (Pt. #1) transferred to (Hospital #3) in care of (paramedic) ambulance staff."_x000D_
-_x000D_
-5. On 9/6/17 at approximately 8:30 AM, an interview was conducted with E #1 (Director of Accreditation). E #1 stated that the State police respond to (Hospital #1's) calls._x000D_
-    _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
+On 2/7/2017 at 0900 medical record review revealed the patient of concern (patient #4) (MDS) dated [DATE] at 1246. Triage was initiated by Registered Nurse (RN) staff H at 1304. Arrival Method: Walking; Priority: Urgent (3). The chief complaint was documented as Behavioral Problem. "Per Mother patient here at request of therapist from "Facility A" for Psychiatric Eval." The patient was a [AGE] year old female with a history of "cutting, she has been in therapy since April of 2016." Patient had history of myringotomy tubes in her ears but had no other medical history and was not on any medications. Staff H completed a nursing assessment at 11/12/2016 at 1312 at which time a Mental Health Assessment was completed. The patient was asked if she ever thought about harming herself or others to which staff H had checked the "Yes" box.  Behavior was documented as "agitated, angry, no eye contact, restless, would not answer about date, time, and place. Patient was also documented as refusing to have vital signs taken, to allow ID band to be placed, or to change clothing. Staff H documentation further stated "communicate at times by speaking to mother and would not allow staff to visualize cutting on right thigh that mother reported occurred three days ago. Staff H checked the "No" box under Suicide precautions initiated. _x000D_
+_x000D_
+At 1305 ED physician staff K documented his assessment of the patient.  "History of present Illness" he stated "Per patient and mother, she has been having suicidal ideation's for the past several months but does not have a specific plan." He continued with past history "no pertinent history", are you pregnant now "No", Review of systems "all systems negative except "Psychiatric/Neurological reports: Emotional problems, Suicidal." A physical exam was completed it included: Neurological/Psychiatric- "alert, agitated, aggressive" Skin- "Normal color, warm/dry, Self-mutilation old, well-healed scars on right arm with semi-old wounds to right thigh."_x000D_
+_x000D_
+At 1306 ED physician Staff K ordered the following labs: CBC with Differential (complete blood count- Hematology), Comprehensive Metabolic Panel (Chemistry of the blood), Amylase, Lipase, Thyroid Stimulating Hormone, Toxicology, Salicylate, Acetaminophen, Drug screen, Urine, pregnancy. At 1400 ED physician Staff K documented "results reviewed, laboratory values normal"._x000D_
+_x000D_
+The medical record did not contain documentation of additional mental health assessments or interviews by the physician of record, a social work referral, or contact with the on call Psychiatrist. _x000D_
+_x000D_
+ At 1504 the physician staff K documented under "Progress/re-eval-Improved, doing well here, mom feels comfortable taking patient home and to follow up with psych on Monday (11-14-2016)." Patient was discharged    by staff I at 1542._x000D_
+_x000D_
+On 2/15/2017 at 1400 ED Physician staff K was interviewed by phone. Staff K stated "I do not really remember this patient, but if after assessing her, completing labs, and collecting history; if she had been in therapy for a while and she verbalized that she did not have a plan that may have been why I did not have a psych eval completed or had her admitted    . I do not know for sure."_x000D_
+_x000D_
+On 2/7/2017 at 1100 the policy titled "Care of Psychiatric Patients" #521.012D dated July 2012 was reviewed. The policy states on page 1 of 2 under 1. "Patients who present with psychiatric complaints will be interviewed...to determine patients need for safety (i.e., harm to self/others.)" Under 3. "Emergency Department physician will evaluate patient and medically clear patient and determine need for psychiatric intervention."_x000D_
 </t>
         </is>
       </c>
@@ -12218,11 +12264,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2406 O33711</t>
+          <t>2400 J2F211</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12232,7 +12278,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>IROQUOIS MEMORIAL HOSPITAL</t>
+          <t>MEMORIAL HOSPITAL AT GULFPORT</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12241,377 +12287,42 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>140167</v>
+        <v>250019</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>200 FAIRMAN STREET</t>
+          <t>4500 13TH STREET</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>WATSEKA</t>
+          <t>GULFPORT</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>MEDICAL SCREENING EXAM</t>
+          <t>COMPLIANCE WITH 489.24</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" s="2" t="n">
-        <v>40807</v>
+        <v>43224</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>O33711</t>
+          <t>J2F211</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-_x000D_
-A.  Based on Hospital policy, ambulance reports, a review of clinical Emergency Department (ED) records, internal documentation (emails) and staff interview, it was determined that in 1 of  34 (Pt. #1) clinical records reviewed, the Hospital failed to provide a medical screening examination as required._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-1.  The Hospital policy titled "Emergency Department Compliance Policy," indicates: "All patients who present to the hospital.... will be provided with a medical screening examination.."_x000D_
-_x000D_
-2.  On survey date 09/20/11 the Hospital owned ambulance system report was reviewed and it indicated on [DATE] at 3:31 am the hospital received a call for a battery victim with  loss of consciousness.  The victim, Pt. #1 was brought to the ER  and put on bed #1.  The emergency physician (Physician #1) told the ambulance crew to reload the patient and take the patient to another Hospital because the CT scanner was not working at the hospital.  The ambulance crew transferred Pt. #1 to the receiving hospital on [DATE].  During the course of the investigation, the Hospital was unable to produce a clinical record that indicated the patient had been seen by a physician and received a medical screening examination._x000D_
-_x000D_
-3.  An interview with RN #1 was conducted per telephone on 09/20/11 at 3:10 pm.  RN #1 was working at the time of the presentation of Pt. #1.  RN #1 indicated he heard physician #1 say "what am I supposed to do? I can't scan his head.  He needs a trauma hospital."  RN #1 indicated the paramedic was on the phone and then they were wheeling Pt. #1 out of the hospital.  RN #1 was uncertain as to how long the CT scanner was down.  "They were trying to reboot the CT scanner." _x000D_
-_x000D_
-4.  An interview with the ED nurse, RN #2, who was on duty when Pt. #1 arrived at the ED, was conducted per phone at 3:30 pm on 09/20/11.  RN #2 indicated Pt. #1 was transported in from the field and had lacerations to his face, was placed in bay #1 and was transferred out while she was conducting telephone calls concerning transfers for 2 other patients.  It was verbalized by the RN #2 that she told the ambulance crew and Physician #1 "you can't do that without examining the patient, that is an EMTALA violation."  The ED Director (Physician #2) was notified by RN#2 on 09/05/11 regarding the inappropriate transfer and Pt. #1 being transferred out without a medical screening examination._x000D_
-_x000D_
-5.  Internal emails were reviewed on 09/20/11, it was verified the Ambulance Director notified Physician #2 via email on 09/05/11 regarding the improper transfer of Pt. #1 by Physician #1.  Physician #2 then sent Physician #1 an email to obtain further information.  Physician #1, who transferred the patient out, indicated in an email to Physician #2 "I looked at "Pt. #1," saw he was in no distress, was alert and following commands and was stable for transfer.  Unfortunately, I am unclear of these particular policies of "the Hospital" and really didn't think about the transfer issue because of the delay in treatment it might have caused."  _x000D_
-_x000D_
-6. Documentation of the receiving Hospital's patient record indicated that Pt. #1 was received at the hospital at 5:45 am on 09/04/11 with an elevated blood alcohol, trauma and facial injuries, status post assault and required a Spanish speaking interpreter.  Pt. #1 was positive for head injury, a large laceration to his right side of head/ear and lower lip.  Pt. #1 was expectorating blood, had abrasions to his mid thoracic spine and face.  Pt. #1 was stabilized and then transferred to another hospital at 7:59 am for a plastics consult and evaluation by the ears, nose and throat physician. _x000D_
-_x000D_
-7.  The above findings were verified with the ED Nurse Manager and Vice President (VP) of Compliance on 09/20/11 at 4:00 pm._x000D_
-_x000D_
- B. Based on a review of the Medical Staff Bylaws, Rules and Regulations, Hospital policies, Obstetrical (OB) log and staff interview, it was determined that in 13 of 13 (Pt. #'s 22,23,24,25,26,27,28,29,30,31,32,33,34) clinical records reviewed in which the patient was referred to the OB for the Medical Screening , the Hospital failed to provide documentation that the Registered Nurses in the OB department were competent to provide a medical screening examination per the strict protocols for OB patients, therefore no appropriate medical screening examination was completed._x000D_
-_x000D_
-1. The medical staff bylaws, rules and regulations, were reviewed on 09/20/11, it indicated: "All individuals will be provided a medical screening exam, beyond triage, by a physician or non-physician provider under strict protocols for OB patients."  _x000D_
-_x000D_
-2. The policy titled, "Protocol Medical Screening For OB" was reviewed on 9/20/11, the protocol's purpose was "To screen maternal patients from the Emergency Department". The Procedure was to perform maternal assessment and fetal assessment; to contact the OB provider to communicate data and to discharge per OB providers instructions._x000D_
-_x000D_
-3. The policy titled  " Care of The Obstetrical (OB) Patient In The ED "  was reviewed on 9/20/11. It indicated  " 2. OB Patients of 20 weeks gestation or greater: a. In labor (or suspected of being in labor), or with a pregnancy related complaint, are ordinarily sent to the OB department. If, after assessment by the OB department, the patient ' s condition is deemed medical and not obstetrical, the patient should be returned to the ED for a medical screening exam and treatment by the ED physician. The patient can be discharged    or admitted     for further observation or treatment in the OB Department ... "_x000D_
-_x000D_
-4.    During an interview conducted with the ED Nurse Manager and the VP of Compliance on 09/20/11 at 4:00 PM, it was verbalized that there are 10 OB nurses and that all of them are allowed to assess OB patients who present to the ED and are directed to the OB department for evaluation. The hospital was unable to provide documentation of any competency training and testing to ensure the the nurses are competent to perform medical screening examinations on OB patients referred from the ED. _x000D_
-_x000D_
-4.  The OB outpatient register (log book) was reviewed on survey date 09/20/11.  The log indicated from 09/09/11 - 09/19/11, thirteen OB patients presented to the ED, were logged in and examined in the OB unit for potential deliveries.  There was no documentation to indicate that the 13 listed OB patients who were evaluated by the OB department from 09/09/11 - 09/19/11 had received an appropriate medical screening examination. The services rendered by the OB nurses, as addressed on the OB central log, indicated these women had been admitted     and checked for contractions, rupture of membranes, abdominal pain, vaginal bleeding, etc.  Three of 13 OB patients had been admitted    , two were admitted     for observation and eight had been discharged    to home without having an appropriate medical screening examination. _x000D_
-  _x000D_
-5.  The above findings were verified with the ED Nurse Manager and Vice President (VP) of Compliance on 09/20/11 at 4:00 PM._x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>311</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2406 0GPY11</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>ALEXIAN BROTHERS MEDICAL CENTER 1</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>140258</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>800 W BIESTERFIELD RD</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ELK GROVE VILLAGE</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" s="2" t="n">
-        <v>42223</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>0GPY11</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-_x000D_
-A.  Based on document review, observation and interview, it was determined the hospital failed to ensure medical screening exams (MSE) are conducted by individual(s) deemed qualified by hospital By-Laws and/or Rules and Regulations._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-1.  On 8/5/15 at 11:00 AM, the Medical Staff Bylaw revised 8/12/14 were reviewed.  The Bylaws did not include individual(s) approved to perform MSEs._x000D_
-_x000D_
-2.  On 8/7/15 at 11:45 AM, hospital staff provided six binders titled Rules and Regulations containing approximately 5,000 pages.  According to hospital staff, the contents of the binders did not include the individual (s) approved to perform a MSE._x000D_
-_x000D_
-3.  On 8/5/15 at 1:15 PM, an interview was conducted with the Administrative Director of Nursing Services (E #6).  E #6 stated neither the Bylaws nor Rules and Regulations included the individual(s) approved to perform a MSE in the ED._x000D_
-_x000D_
-_x000D_
-B.  Based on document review and interview, it was determined, for 1 of 10 clinical records reviewed (Pt. #1), the hospital failed to provide an appropriate medical screening examination._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-1.  On 8/7/15 at 2:45 PM, a nursing practice and skill document titled, "Pain Assessment: "Using the Numeric Pain Rating Scale", provided by the Administrative Director of Nursing Services (E #6), was reviewed.  E #6 stated this pain rating scale is used by the whole hospital.  The document included, "The 11 point numeric scale of 0 - 10 contains the following anchors:  0 = no pain;  10 = worst possible pain.  Inadequate assessment of pain is a barrier to its management and relief of pain.  Effective analgesic management of pain requires an evaluation with a reliable and valid measurement tool to translate subjective information into objective measures..."_x000D_
-_x000D_
-2.  On 8/7/15 at 10:15 AM, hospital ED policy titled: "Triage Procedure in the Emergency Department", revised 4/16/12, was reviewed.  The policy included, "Appendix C - Patient Care Protocols - Abdominal Pain Protocol - Upper Abdomen Female - Saline lock [venous access], CBC [complete blood count], CMP [comprehensive metabolic panel], Amylase/Lipase [pancreatic test], UA [urine analysis]/Dip, and UHCG [pregnancy test]."_x000D_
-_x000D_
-3.  On 8/7/15 at 12:50 PM, hospital policy No. 950-1610-001.02, titled, "Licensed Physician Assistant, Request or Allied Staff Duties", revised 12/5/08, was reviewed.  The policy required, "3. Services Provided: The services provided by the licensed physician assistant shall be limited to services that the supervising physician generally provided in the normal course of his/her clinical medical practice."_x000D_
-_x000D_
-4.  On 8/5/15 between 9:00 AM and 11:00 AM, Pt. #1's clinical record was reviewed.  Pt. #1 was a [AGE] year old female, transported to the ED by ambulance on 6/15/15 at 9:19 PM, with a complaint of abdominal pain.  Patient #1 received 100 mcg of Fentanyl (pain medication) in the ambulance.  Pt. #1 was triaged in the Emergency Department (ED) at 9:25 PM and prioritized as urgent.  Vital signs taken at 9:29 PM were: blood pressure 132/85, respirations 20, pulse 102, temperature 96.3, oxygen saturation on room air 98%, and pain level 7 of 10.  _x000D_
-_x000D_
-5.  On 8/5/15 at 12:25 AM, an interview was conducted with the Physician Assistant (PA) (E #1) who cared for Pt. #1 on 6/15/15.  E #1 stated Pt. #1 had "belly pain" and had been vomiting.  Pt. #1 was calm when she arrived and received Fentanyl in the ambulance.  During Pt. #1's exam, Pt. #1 was not complaining when her abdomen was palpated.  E #1 estimated Pt. #1's pain level to be at 3 or 4, but did not ask.  A pain assessment using the hospital's 0 - 10 pain scale was not utilized.  _x000D_
-_x000D_
-6.  On 6/15/15 at 9:42 PM, a E #1 ordered laboratory blood tests including, CBC, CMP, and Lipase.  E #1 did not order a UA or UHCG, as required by hospital policy._x000D_
-_x000D_
-7.  On 8/5/15 at 12:55 PM, an interview was conducted with the Administrative Director of Nursing Services (E #6).  E #6 stated she spoke with E #1 regarding the UA and  UHCG.   E #1 did not order a pregnancy test because Pt. #1 was in her 40s and E #1 did not anticipated any imaging tests needed to be ordered.  E #1 did not order a UA because Pt. #1 had upper abdominal pain which didn't warrant a UA._x000D_
-_x000D_
-8.  E #1 performed Pt. #1's medical screening exam (MSE) on 6/15/15 at 9:37 PM.  However, Pt. #1's MSE documentation was dated 7/3/15 at 10:39 AM (19 days after Pt. #1's ED encounter).  _x000D_
- _x000D_
-9.  E #1's supervising Physician's (MD #1) progress note dated 6/15/15 at 10:03 PM, included, "I was personally available for consultation in the emergency department.  I have reviewed the chart and agree with the documentation as recorded by the NP/PA, including the assessment, treatment plan, and disposition."   However, E #1's MSE was not documented until 7/3/15 at 10:39AM. _x000D_
-_x000D_
-10.  On 8/5/15 at 11:50 AM, a phone interview was conducted with MD #1.  MD #1 stated he did not see Pt. #1 but was available for the PA (E #1) who examined Pt. #1.  MD #1 stated the PA may not have finished her notes that day, because the ED was so busy. _x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>359</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2406 FGY511</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>MEMORIAL HEALTHCARE</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>230121</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>826 WEST KING STREET</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>OWOSSO</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" s="2" t="n">
-        <v>42773</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>FGY511</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on document review and interview, the facility failed to provide an appropriate medical screening exam to one of nineteen patients (#4) reviewed resulting in the potential for poor patient outcomes.  _x000D_
-Findings include:_x000D_
-_x000D_
-On 2/7/2017 at 0900 medical record review revealed the patient of concern (patient #4) (MDS) dated [DATE] at 1246. Triage was initiated by Registered Nurse (RN) staff H at 1304. Arrival Method: Walking; Priority: Urgent (3). The chief complaint was documented as Behavioral Problem. "Per Mother patient here at request of therapist from "Facility A" for Psychiatric Eval." The patient was a [AGE] year old female with a history of "cutting, she has been in therapy since April of 2016." Patient had history of myringotomy tubes in her ears but had no other medical history and was not on any medications. Staff H completed a nursing assessment at 11/12/2016 at 1312 at which time a Mental Health Assessment was completed. The patient was asked if she ever thought about harming herself or others to which staff H had checked the "Yes" box.  Behavior was documented as "agitated, angry, no eye contact, restless, would not answer about date, time, and place. Patient was also documented as refusing to have vital signs taken, to allow ID band to be placed, or to change clothing. Staff H documentation further stated "communicate at times by speaking to mother and would not allow staff to visualize cutting on right thigh that mother reported occurred three days ago. Staff H checked the "No" box under Suicide precautions initiated. _x000D_
-_x000D_
-At 1305 ED physician staff K documented his assessment of the patient.  "History of present Illness" he stated "Per patient and mother, she has been having suicidal ideation's for the past several months but does not have a specific plan." He continued with past history "no pertinent history", are you pregnant now "No", Review of systems "all systems negative except "Psychiatric/Neurological reports: Emotional problems, Suicidal." A physical exam was completed it included: Neurological/Psychiatric- "alert, agitated, aggressive" Skin- "Normal color, warm/dry, Self-mutilation old, well-healed scars on right arm with semi-old wounds to right thigh."_x000D_
-_x000D_
-At 1306 ED physician Staff K ordered the following labs: CBC with Differential (complete blood count- Hematology), Comprehensive Metabolic Panel (Chemistry of the blood), Amylase, Lipase, Thyroid Stimulating Hormone, Toxicology, Salicylate, Acetaminophen, Drug screen, Urine, pregnancy. At 1400 ED physician Staff K documented "results reviewed, laboratory values normal"._x000D_
-_x000D_
-The medical record did not contain documentation of additional mental health assessments or interviews by the physician of record, a social work referral, or contact with the on call Psychiatrist. _x000D_
-_x000D_
- At 1504 the physician staff K documented under "Progress/re-eval-Improved, doing well here, mom feels comfortable taking patient home and to follow up with psych on Monday (11-14-2016)." Patient was discharged    by staff I at 1542._x000D_
-_x000D_
-On 2/15/2017 at 1400 ED Physician staff K was interviewed by phone. Staff K stated "I do not really remember this patient, but if after assessing her, completing labs, and collecting history; if she had been in therapy for a while and she verbalized that she did not have a plan that may have been why I did not have a psych eval completed or had her admitted    . I do not know for sure."_x000D_
-_x000D_
-On 2/7/2017 at 1100 the policy titled "Care of Psychiatric Patients" #521.012D dated July 2012 was reviewed. The policy states on page 1 of 2 under 1. "Patients who present with psychiatric complaints will be interviewed...to determine patients need for safety (i.e., harm to self/others.)" Under 3. "Emergency Department physician will evaluate patient and medically clear patient and determine need for psychiatric intervention."_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>372</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2400 J2F211</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>MEMORIAL HOSPITAL AT GULFPORT</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>250019</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>4500 13TH STREET</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>GULFPORT</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>COMPLIANCE WITH 489.24</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" s="2" t="n">
-        <v>43224</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>J2F211</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -12675,73 +12386,73 @@
 </t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="100">
+      <c r="A100" t="n">
         <v>382</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>2406 RU2V11</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>NORTH KANSAS CITY HOSPITAL</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="F100" t="n">
         <v>260096</v>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>2800 CLAY EDWARDS DRIVE</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>NORTH KANSAS CITY</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>MO</t>
         </is>
       </c>
-      <c r="J103" t="n">
+      <c r="J100" t="n">
         <v>2406</v>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" s="2" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" s="2" t="n">
         <v>42893</v>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>RU2V11</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -13002,73 +12713,73 @@
 -Staff H added an addendum to his note at 3:57 PM that reported the patient became agitated when staff told him they were going to take the strings out of his pants. This led him to threaten to kill staff and run out of the emergency department. Security was activated but they were unable to catch the patient. The local police department was notified to search for the patient, and affidavits were then written to be kept with the chart. The patient was on a one-to-one observation (staff member</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="101">
+      <c r="A101" t="n">
         <v>392</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>2400 OO3E11</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>CHI HEALTH CREIGHTON UNIVERSITY MEDICAL CENTER - B</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F104" t="n">
+      <c r="F101" t="n">
         <v>280060</v>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>7500 MERCY RD</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>OMAHA</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="J104" t="n">
+      <c r="J101" t="n">
         <v>2400</v>
       </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
         <is>
           <t>COMPLIANCE WITH 489.24</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" s="2" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>OO3E11</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -13129,19 +12840,378 @@
 </t>
         </is>
       </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>450</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2406 J2RQ11</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ST BARNABAS HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>330399</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>4422 THIRD AVENUE</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>BRONX</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" s="2" t="n">
+        <v>41669</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>J2RQ11</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on interviews and review of documents, video recording, and procedures, it was determined the facility failed to implement effective practices to monitor the emergency waiting room for patients with presumptive medical needs to ensure that all patients receive medical screening examination. There was no medical screening examination noted in 2 of 66 emergency medical records reviewed. (MR #1 and MR#2)_x000D_
+_x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+The facility failed to provide medical screening to 2 of 66 patients who arrived to the hospital's emergency room    for emergency medical needs._x000D_
+_x000D_
+1. Review of MR#1  on 1/27/14 at 11 AM makes specific reference to an event which occurred on 1/20/14 in which a male patient was found by Security staff to be in cardiac arrest in the waiting room, approximately eight hours after triage. The patient was in a position where his face was between his knees seated in a chair in the rear section of the emergency waiting room._x000D_
+_x000D_
+Review of MR #1 on 1/27/14 at 11 am found this [AGE] year old male presented for emergency care as a walk in on 1/19/14 at 9:52 PM. The patient 's pre-triage assessment  was conducted at 9:52 PM (where a face to face encounter occurs where the registered nurse speaks with the patient through a glass window). The written encounter form documented during this "quick registration " process noted the patient's reason for visit as "left hand has abscess" ._x000D_
+_x000D_
+Formal triage was provided at 10:04 PM on 1/19/14, and the electronic triage form notes patient the complained of  itch on the arms for four days. Vitals were taken and documented a: temperature of 98.7 F, respiratory rate of 18, BP (Blood Pressure) of 121/68, SPO2% 100% on room air. No pulse was noted in the triage assessment.  The pain scale was rated as 4/10 in the extremities, constant, with tightness._x000D_
+_x000D_
+Past medical history noted was significant for "asthma/ COPD (chronic obstructive pulmonary disease), hepatitis , osteo[DIAGNOSES REDACTED]". He was classified as Emergency Severity Index triage level =3 , which is classified as an urgent category. This represents conditions that could potentially progress to serious problems requiring emergency intervention.  _x000D_
+ The patient was registered at 9:54 PM. _x000D_
+_x000D_
+At 12:55 AM on 1/20/14 the physician noted in the record: "patient was called overhead with no response. Patient looked for in the ED waiting area with no response. Patient not found in ED beds, asthma area: patient not in ED at this time." _x000D_
+_x000D_
+At 3:10 AM the physician documented in the record: "patient was called overhead with no response. Patient looked for in the ED waiting area with no response. Patient not found in ED beds, asthma area: patient not in ED at this time." (Note this is the same text used in the previous note in the medical record. _x000D_
+_x000D_
+Interview with staff #4 on 1/28/14 reported he called the patient's name from the emergency department (ED) door)._x000D_
+_x000D_
+At 4:08 AM, the physician noted in the record that "the patient was called overhead in the waiting area and in the Emergency Department. The patient did not respond and cannot be located at this time."_x000D_
+_x000D_
+The patient was later found unresponsive in the ED waiting room at approximately 6:42 AM. A new emergency department record of encounter was created at this time.(6:44 AM)_x000D_
+_x000D_
+The patient was found with no vital signs, slumped over and cyanotic. He was immediately transported into the ED treatment area and resuscitation attempts /CPR were unsuccessful. Patient was pronounced dead at 6:55 AM on 1/20/14. Review of the cardiac arrest record by the physician found the patient was found in the ED waiting room, unresponsive, with facial cyanosis. There was never any pulse found and the cardiac monitor registered asystole, refractory to all interventions, including endotracheal intubation, 3 rounds of epinephrine, bicarb x 2, 2 administration of glucose, and one of Narcan. Patient was pronounced dead at 6:55 AM on 1/20/14 and sent to ME._x000D_
+_x000D_
+Videotape monitoring of the emergency department waiting room was viewed with hospital staff  (Staff #1, #2, #13, #22) on 1/28/14 between the approximate hours of 1:50 PM and and 3:20 PM. _x000D_
+_x000D_
+The videotapes showed the chronology between the patient's arrival on 1/19/14 at 9:38 PM for triage until and the time he was found to be in cardiac arrest by a security officer on 1/20/14 at 6:37 AM, while the officer performed rounds in the emergency waiting room to clear the waiting room of sleeping persons. The videotape record shows that between 10:31 PM on 1/19/14 and 6:37 AM on 1/20/14, the patient was in a position where he was bent over and where his head was between his knees. (slightly greater than a period of eight hours)._x000D_
+_x000D_
+_x000D_
+Review of security incident situation reports (4) on 1/20/14 documented at 0647 AM and one incident report form ( MD documented at 0715 am  and nurse documented at 6:40 AM) were reviewed on 1/27/14._x000D_
+_x000D_
+Security report #1 written by one security officer states that he and another officer went to the waiting area at 640 AM to clear the area. This officer further writes that he was getting everyone up who was sleeping and went to the patient in MR #1 to try to wake him up. The patient did not respond. This officer wrote he lifted patient._x000D_
+_x000D_
+Review of form titled " Patient and Visitor Incident report" form dated 1/20/14, included a physician report , timed at 0715 AM stated  " patient was found slumped in cardiac arrest in the waiting area of the ER. The patient was wheeled to the main ER. CPR, ACLS, intubation, and left femoral line were done. Patient was not responsive and pronounced dead at 0655 AM."_x000D_
+_x000D_
+_x000D_
+Interview with staff # 4 on 1/28/14 at 3:30 PM was conducted, who was assigned to the patient during the ED visit of 1/19/14. Staff #4 stated he called the patient's around 1 am on 1/20/14. He called overhead and went to the ED waiting room door to call the patient by name. He waited 2 minutes and there was no answer. Inside the ED, usually he does a quick sweep through ED-2 (the area where patients are inside of the ED treatment area on a stretcher remain). At 3 AM he did the same thing and there was no answer by the patient. He acknowledged he does not go directly into the ED waiting room to call patients._x000D_
+_x000D_
+Staff #4  also reported he received a call on 1/20/14 for  a stretcher in the waiting room, the patient looked dead. The patient's face was blue. The patient was placed on a stretcher and wheeled to ED-1 and ACLS was started. He spent the whole time doing compressions. The attending physician pronounced the patient dead._x000D_
+_x000D_
+On 1/28/14 at 3:30 PM surveyors interviewed staff #5, who stated he called the patient at least once overhead on the loudspeaker and then he went to the ED door where there was no answer/response. He reported that during overnights, the ED receives  a lot of patients where a no answer is very common. When queried if he goes into the waiting room area to call patients he replied "generally no"._x000D_
+He recalled that during this incident, one patient care technician (PCT) ran into the ED and reported the someone out there looks blue. He went to ED-1 (section of the medical emergency room   ) , prepared beds for a code. He followed standard ACLS protocol . A Central line placed in the groin. The patient's face was blue._x000D_
+_x000D_
+ The two triage nurses, staff #6 and Staff #7 were both interviewed concurrently on 1/29/14 at 8:30 AM. The initial pre-triage encounter slip was signed by staff #7 at 9:52 on 1/19/14, who reported at interview that she did not recall the patient at all._x000D_
+_x000D_
+The process for initial screening was described by staff #7. The walk in patient comes to the glass triage booth, and if able to do so, the patient shall document the name , date of birth, and reason for visit in the ED. The  nurse speaks with the patient through the window. The nurse does not come outside of the booth to fully visualize patients. The patient then takes this slip to the registration clerk. If the patient is very ill, the patient is brought directly inside of the ED._x000D_
+_x000D_
+After initial screening, the patient shall wait in the waiting room for full triage. Staff #7 performed the full assessment on patient referenced in MR #1. The patient said he had a rash. The patient had splotches to both arms. He did not see the patient after triage. He stated that rounds are never done by the nurse of the waiting room._x000D_
+_x000D_
+Staff #6 was queried if he noticed that the encounter slip noted the patient had a left hand abscess, whi[DIAGNOSES REDACTED]ered from his note which documented arm itching/rash. He stated that registration actually holds on to the form and the clerk inputs the complaint ._x000D_
+_x000D_
+Both staff #6 and #7 stated that they never look into the waiting room to monitor patients._x000D_
+_x000D_
+The policy titled, "Triage of patients Adults and Pediatrics" was reviewed on 1/28/14 at 10 AM. The facility's ED policy for triage of Patients in effect at the time of the incident notes: "The triage nurse will monitor the waiting area". No guidance or instructions are documented to explain how this waiting room monitoring shall occur from the time of the patient arrival, through triage, and until the call for medical evaluation._x000D_
+_x000D_
+Review of ED Procedures on 1/28/14 finds that the emergency department  (ED) has no policy and procedure for marking charts as no answer in the walk in waiting room. Furthermore, there is no policy to address patients who do not answer prior to the completion of full triage nor for those patients who do not answer to staff and/or who leave after complete triage (prior to performance of a medical screening examination). _x000D_
+Additionally, the facility has no policy and procedure for the reassessment of patients who are triaged to the waiting room._x000D_
+_x000D_
+In addition the triage policies require that patients triaged as ESI-3 , which was the category assigned to the patient referenced in MR#1, are to have vital signs taken no less frequently than every two hours for the first four hours then every four hours if clinically stable. The patient  was classified as Emergency Severity Index triage level =3 , which is classified as an urgent category. This represents conditions that could potentially progress to serious problems requiring emergency intervention. In the case of MR #1, the patient failed to follow this process, because MR #1 had been triaged as ESI-3 and should have had vital signs within 2 hours of triage. However, based on interview with staff #2 on 1/28/14, it was stated  there is no written schedule for reassessment for patients triaged to the waiting room. _x000D_
+_x000D_
+Despite having been triaged as level three, the patient never received a medical evaluation and the staff's attempts to locate this patient were insufficient._x000D_
+_x000D_
+The facility failed to effectively monitor the emergency room    waiting area to ensure the health and safety of patients awaiting medical evaluation or for those with presumptive need for medical care._x000D_
+_x000D_
+The facility failed to provide a medical screening examination to a patient who was triaged but who did not answer calls made by medical staff for a medical screening examination.  The facility failed to implement a process for emergency waiting room patients who are unregistered or who do not respond to calls for medical evaluation following triage. _x000D_
+_x000D_
+2. Review of MR #2 on 1/29/14 at approximately 3 PM referenced a pregnant patient who came by EMS who complained of generalized body aches was never triaged and thus never received any medical screening examination. _x000D_
+_x000D_
+ Review of MR #2 found that on the ambulance call report (ACR) that the patient arrived at 12:32 PM on 1/27/14 complaining of body aches and the ambulance call report was signed by the Emergency department triage nurse._x000D_
+_x000D_
+During interview with the triage nurse in the adult ED (staff #23) on 1/29/14 at approximately 2 PM, the nurse stated that she signed the ACR and she sent the patient and EMS to Labor and Delivery for triage and assessment. The nurse stated she did not triage the patient nor take any vital signs. _x000D_
+_x000D_
+During interview with the Staff #12 on 1/31/14, Staff #12 stated that there was no record of the patient being examined, no record of fetal monitoring performed, no chart was prepared , and the patient was sent back to the main ED because the patient's complaints were not related to pregnancy._x000D_
+_x000D_
+Review of the triage log book for Labor and Delivery on 1/31/14 for the date of 1/27/14 at 1341 hours (1:41 PM) found that the patient was transferred to ED._x000D_
+_x000D_
+The patient was returned to the ED where she walked out without being triaged or medically evaluated._x000D_
+_x000D_
+Review of policy and procedure titled : "Pregnant patients presenting to the ED" on 1/31/14 it is stated that pregnant patients presenting to ED with pregnancy greater than 20 weeks whose complaint is non-pregnancy related , e.g., asthma, shall be registered in the ED and be evaluated by the emergency physician. Further review of policy finds that pregnant patients with flu like illness are to be isolated away from the maternity pavilion. In the case of MR #2 staff failed to follow this policy. _x000D_
+._x000D_
+._x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>453</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2406 EF3G11</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SCOTLAND MEMORIAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>340008</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>500 LAUCHWOOD DR</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>LAURINBURG</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" s="2" t="n">
+        <v>42529</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>EF3G11</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on hospital policy and procedure review, medical record reviews, and physician and staff interviews, the hospital's DED (Dedicated Emergency Department)  physician failed to provide an appropriate medical screening examination (MSE) within the capability of the hospital's DED, including ancillary services routinely available to the DED, to determine whether or not an emergency medical condition (EMC) existed for 1 of 23 sampled patients who presented to the DED (Patient # 11) with complaint of a fall with no feeling in her legs after an altercation._x000D_
+_x000D_
+The findings include:_x000D_
+_x000D_
+Closed DED medical record review of patient (Pt) #11 revealed a [AGE] year old female that presented via private vehicle to the DED on 04/23/2016 at 0349 with a chief complaint of "ALL (NO FEELING IN HER LEG)."  Review of Nursing Triage assessment dated  [DATE] at 0402 revealed "VITAL SIGNS: BP 151/69, Pulse: 67, Resp: 17, Temp: 97.8, Pain: 0, O2 Sat: 99, on ROOM AIR."  Further review of Triage assessment dated  [DATE] at 0403 revealed "ADMISSION: URGENCY:  ESI 3 (Urgent)...TRANSPORT: Wheelchair ...CURRENT MEDICATIONS  None."  Review of record revealed Pt #11 was placed in a treatment room at 0405.  Review of Triage assessment dated  [DATE] at 0405 revealed "...SUBJECT ASSESSMENT:  PT. (patient) C/O (complaining of) NOT BEING ABLE TO FEEL HER LEGS.  PT'S FAMILY STATES SHE WAS PHYSICALLY ASSAULTED BY HER HUSBAND.  PT. WAS SLAMMED ON THE FLOOR BY HER HUSBAND AND HAS NOT BEEN ABLE TO WALK SINCE.  PT. URINATED ON HERSELF PER FAMILY.  PAIN:  On a scale 0-10 (pain scale 0-no pain, 10 -excruciating pain)   patient rates pain as 0."  Review of Physician's HPI (history of present illness) dated 04/23/2106 at 0429 revealed "CHIEF COMPLAINT: Patient presents for the evaluation of bilateral, Back, Legs, numbness, decreased use...MECHANISM: Complaint occurred by fall, Fall from standing. OCCURRED: Onset was few hours prior to arrival, Patient currently has symptoms.  LOCATION: Unable to localize.  QUALITY: Unable to describe pain.  ASSOCIATED WITH: Alcohol: Yes, Neurologic Symptoms Prior to Patient Arrival present, LOC (loss of consciousness): none, GCS (Glasgow Coma Score-level of consciousness): 15, Patient denies clavicle pain, shoulder pain, elbow pain, wrist pain, hand pain, finger pain.  Patient is able to ambulate or bear weight, Patient denies pain on walking, hip pain, knee pain, ankle pain, foot pain.  RISK FACTORS: Spine Injury Risk Factors: None ...NOTES:  Slammed on to Chair at Party, struck Back, denied pain, stated cannot feel or move legs."   Review of Physician's Orders dated 04/23/2016 at 0429 revealed an order for an Alcohol level, a Basic Metabolic Panel, Complete Blood Count with Diff, Drug screen, Pregnancy Test, Urinalysis, Magnesium and Lumbar Spine without contrast.  Review of Nursing assessment dated  [DATE] at 0430 revealed "CONSTITUTIONAL:  Patient is alert and oriented x 3 (person, place and time) ...Patient arrives to treatment area via hospital wheelchair, Patient lifted to cart (stretcher), History obtained from family, Patient appears intoxicated, pt anxious and tearful, verbally abusive.  BACK:  Patient has strong pulses to upper and lower extremities bilaterally,  Patient complains of pain to lower back, Pain described as aching, Pain is continuous, Patient unable to ambulate, verbalizes numbness from waist down both lower extremities, pt has inward turn of both legs."  Review of Physician's Physical Exam dated 04/23/2016 at 0431 revealed "CONSTITUTIONAL ...Patient appears comfortable, Hypertensive, Patient is agitated....BACK:  There is no CVA Tenderness, There is no tenderness to palpation, Normal Inspection ...LOWER EXTREMITY:  Inspection normal, No cyanosis, clubbing, edema.  Normal range of motion, No calf tenderness, Normal pulses.  NEURO:  There is weakness in the left leg. There is weakness in the right leg. There is a sensory deficit in the left leg. There is a sensory deficit in the right leg. Subjective...PSYCHIATRIC:  Oriented x 3, Normal insight, concentration.  Agitated affect, Anxious affect."  Review of nursing procedures revealed IV (intravenous) access was established and labs drawn with family present on 04/23/2016 at 0445.  Further review of procedure notes revealed urine specimen for urinalysis and pregnancy test obtained via straight catheter at 0455.  Review of Physician's orders dated 04/23/2016 at 0539 revealed an order for Morphine (Pain medication) 2mg IV Push.  Review of Medication Service Records revealed Morphine 2 mg IV was administered and response to Morphine was reassessed at 0620.  Review of Physician's Orders dated 04/23/2016 at 0603 revealed an order for Thiamine 100 mg IV Drip/Infusion.  Review of Medication Service Records revealed Thiamine 100 mg IV piggyback infusion administered at 0623 and discontinued at 0650.  Review of Physician's Order dated 04/23/2016 at 0604 revealed an order for Benadryl 50 mg IV push.  Review of Medication Service Records revealed Benadryl 50 mg IV was administered at 0620 and response to Benadryl was reassessed at 0650.  Review of Physician's Orders dated 04/23/2016 at 0607 revealed an order for Normal Saline 1000 ml IV bolus.  Review of Physician's "LAB INTERPRETATION"  Notes dated 04/23/2016 at 0623 revealed "INTERPRETATION: I reviewed the lab results, Elevated WBC (white blood count), CBC (complete blood count) otherwise normal, Decreased Sodium Bicarbonate, otherwise Chemistry normal, Urinalysis is normal, Urine toxicology positive for, cannabinoids, Alcohol level 227, by blood."  Review of Physician's "RADIOLOGY INTERPRETATION" Notes dated 04/23/2016 at 0623 revealed "INTERPRETER: Preliminary review of CT by Radiologist.  BACK: Interpretation of L-spine CT shows, L-spine negative, no fracture, no subluxation, no bony lesion, no cord compression, however, degenerative joint disease present."  Review of "DOCTOR NOTES" dated 04/23/2016 at 0624 revealed "Moved both legs w/ (with) Painful Stimuli to Feet and Legs, appears to be more anxiety related, friends agree and will take pt home to F/U (follow-up) as an outpt (outpatient).  PATIENT STATUS:  Patient has improved since arrival to emergency department.  PATIENT PLAN: The patient will be discharged   . The patient will follow up with primary care physician." Review of Physician's Notes revealed a Final Primary Diagnosis of "Low back contusion" with Additional diagnosis of "Acute alcohol intoxication, Anxiety, CANNABIS (marijuana) ABUSE UNCOMPLICATED, CONVERSION D/O (Disorder) W/MOTOR SX (symptoms)/DEFICIT, DEHYDRATION, Hypertension, Paresthesia."  Review of Physician's Orders dated 04/23/2016 at 0627 revealed an order for Hydroxyzine HCl 50 mg po and Ultram 50 mg po to take home. Review of Medications Service record revealed Hydroxyzine HCl 50 mg po and Ultram 50 mg po were given to patient's father for patient to take at home.  Further review of DED record dated 04/23/2016 at 0628 revealed "DISPOSITION ...discharge ... Home/Self Care, Disposition Transport: *Wheelchair, Condition: Stable."  Review of Medication Service Records revealed Normal Saline 1000 ml bolus was administered at 0630 and discontinued at 0720.  Review of Nurse's Notes dated 04/23/2016 at 0700 revealed "VITAL SIGNS: BP 142/106 (SITTING), Pulse: 119 (STRONG), Resp: 20 (NORMAL), Temp: 98.3 (ORAL), Pain: 10, O2 Sat: 100 on ROOM AIR."  Review of Physician's Orders dated 04/23/2016 at 0717 revealed and order for Norflex 60 mg IV Push.  Review of Medication Service Records revealed Norflex 60 mg IV was administered at 0720 and response to Norflex was reassessed at 0800.   Review of Nurse's Notes dated 04/23/2016 at 0730 revealed "Pt. aggressive and cussing.  States she wanted to be transferred.  States 'don't come close to me because I grab'.  Tried to calm pt. down ..."  Review of Nurse's Notes dated 04/23/2016 at 0811 revealed "...Attempted to call family and pts. boyfriend multiple times with the phone numbers pt. provided.  No answer from any of the numbers will continue to call."  Review of Nurse's Notes dated 04/23/2016 at 1010 revealed "Pt. gave a phone number to call that she didn't give earlier.  Spoke with family member states they will be here to pick up pt."  Review of Nurse's Notes dated 04/23/2016 at 1042 revealed "VITAL SIGNS: BP 133/101 (LYING), Pulse: 97 (STRONG), Resp: 22, Temp: 98.0 (ORAL), Pain: 10, O2 Sat: 99 on ROOM AIR."  Review of Nurse's Notes dated 04/23/2016 at 1110 revealed "Father at bedside.  States he would like for pt. to be reevaluated.  'Name' (DED Physician) to speak with pts. father."  Review of "DOCTOR NOTES" dated 04/23/2016 at 1119 revealed "TEXT:  Pt refusing to leave, father at bedside, pt screaming and hyperventilating, moving legs freely, states can't  feel or move legs but has 10/10 pain and thrashing about, clear psychiatric component present, had discussion with father, he agrees to take pt home after a dose of pain medications, pt has nml (normal) motor/sensation/vascular in the lower extremities.  CT spine nml, doubt acute cord syndrome, doubt acute vascular compromise."  Review of Physician's Orders dated 04/23/2016 at 1119 revealed and order for Dilaudid 1 mg IM, Phenergan 12.5 mg IM and Valium 10 mg IM.  Review of Medication Service Records revealed Dilaudid 1 mg IM was administered at 1132 and response to Dilaudid was reassessed at 1214 with documentation of pain decreased and rated an 8 on a 0-10 scale.  Further review of Medication Service Records revealed Phenergan 12.5 mg IM was administered at 1133 and response to Phenergan was reassessed at 1215.  Further review of Medication Service Record revealed Valium 10 mg IM was administered at 1135 and response to Valium was reassessed at 1215.  Review of Nurse's Notes dated 04/23/2016 at 1203 revealed "VITAL SIGNS: BP 153/89 (LYING), Pulse: 65, Resp: 18, Temp: 98.5 (ORAL), Pain: 8, O2 Sat: 100 on ROOM AIR."  There was no documentation in the medical record to indicate that prior to discharging Patient #11 on 4/23/2016 from the ED that she was able to walk/ambulate. Prior to discharge there was no explanation for the patient ' s numbness, back pain or urinary incontinence.   Review of Nursing Discharge Note dated 04/23/2016 at 1215 revealed patient was discharged    via wheelchair with family to home at 1215.  Further review revealed discharge instructions were given to the patient and her father with discharge teaching performed.  Further review revealed medication prescriptions for Hydroxyzine HCL (antihistamine used short-term to treat anxiety), Ultram (pain medication) and Norflex (muscle relaxer) given to patient at discharge.  Further review of Nurse's Notes revealed "Patient counseling on medication(s) dispensed provided. Above person(s) (patient/father) verbalized understanding of discharge instructions and follow-up care, Patient treated and evaluated by physician."  Review of DED record dated 04/23/2016 at 1217 revealed "...Patient left the department."   _x000D_
+_x000D_
+The Medical record from hospital B was reviewed.  The medical record revealed that patient #11 (MDS) dated [DATE]. A review of the History and Physical documented by the emergency room    physician revealed in part,  " [AGE] year old with a past medical significant for Hypertension, osteoporosis. She apparently fell    past Friday while drinking ...and reports since that time she has had inability to walk with burning and numbness in her feet. She reports that she was able to sense that she needed to urinate. She apparently was seen in outside emergency room    and was sent home. She then presented to (Hospital B Name of Hospital) yesterday afternoon, and underwent CT scan of her lumbar spine and an MRI scan of her which showed some posterior ligament calcification ...She was recommended for MRI (magnetic reasoning imaging -technique used in radiology to perform pictures of the anatomy and physiological processes of the body) for cervical and thoracic spine, which was performed. This showed multi-level ligamentous calcification, most severe at T (thoracic) 10-T11 where there was canal compromise and spinal gliosis. Neurosurgery was then asked to evaluate and recommended was made for admission. The operative report dated  4/26/2016 revealed the Chief complaint was listed as Spinal Cord injury with evidence of severe T10-T11 thoracic stenosis secondary to calcified mass in the ligamentum Flavum. The surgical procedure performed was T10-11 laminectomy ( Surgical procedure where the back  part of the vertebra is removed to relieve pressure on the spinal cord)   with excision of epidural mass._x000D_
+_x000D_
+Policy and procedure_x000D_
+The facilities policy titled,  " Emergency Medical Treatment and Labor Act (EMTALA), Effective date 3/98, Revised date 10/2011 was reviewed. The policy and procedure revealed in part,  " Medical Screening Examination is to determine whether or not an emergency medical condition exists ...SMH (Scotland Memorial Hospital) shall provide an appropriate medical screening examination and provide stabilizing treatment for medical conditions ...that is within the  hospital ' s capability and capacity. "_x000D_
+_x000D_
+_x000D_
+_x000D_
+Staff interview on 06/08/2016 at 1015 with the Quality/Compliance Director [QC DIR] #1 and Patient Experience Director [PX DIR] #2 revealed the hospital first became aware of a grievance when Pt #11's sister-in-law called to hospital administration. Interview revealed the grievance process was followed and an immediate investigation was begun. Interview revealed they learned Pt #11 was currently in another hospital and attempted to reach her by phone.  Interview revealed Pt #11 was contacted and information about her concerns was documented and an investigation was immediately started.  Interview revealed a request was sent to the Emergency Department Assistant Medical Director, Emergency Department Medical Director and the Emergency Department Nursing Director to review Pt #11's medical record.  Interview revealed physician peer review was completed by the Assistant Medical Director of the Emergency Department.  Interview revealed Emergency Department Nursing Director discussed case and presented education on behaviors, and discharge during a staff meeting.  Interview revealed an email requesting a review and confirmation of findings of the CT Scan Pt #11 received during her Emergency Department visit was sent to the Radiology Department.  Interview revealed a review of the CT Scan images was performed and an email from the Radiology Department was received with the findings.  Interview revealed a resolution letter was sent to the complainant._x000D_
+_x000D_
+Physician interview on 06/08/2016 with MD #3, the MD who reviewed Pt #11's record for the grievance, revealed MD #3 reviewed Pt #11's medical record with MD #4 and MD #7.  Interview revealed MD #3 interviewed MD #4 and MD #7 there were no concerns about the decision to discharge Pt #11 home.  Interview revealed Pt #11 was evaluated by 2 different Physicians in the Emergency Department, 3 hours apart and both found sensation and movement of Pt #11's legs.  Interview revealed MD #3's findings after review of the record was that Pt #11's sensation and movement in lower extremities were intact.  Interview revealed MD #4 and MD #7 documented in the record that Pt #11 was able to move her legs and responded to painful stimuli.  Interview revealed MD #3 felt the medical care Pt #11 received was appropriate.  Interview revealed "Based on review and interview, I found no issues with Medical Screening Exam, Treatment or Stabilization of Pt #11."_x000D_
+_x000D_
+Physician interview on 06/08/2016 at 0925 with MD #4, the MD who completed the MSE on Pt #11, revealed Pt # 11 came to the DED with friends after an altercation with her boyfriend/significant other at a party where she had been drinking.  Interview revealed the boyfriend/significant other reportedly slammed Pt #11 across a chair and onto the ground.  Interview revealed that Pt #11 was agitated and belligerent.  Interview revealed MD #4 performed a physical exam, reviewed vital signs and nursing assessment, ordered a CT Scan of the Lumbar Spine and ordered Labs.  Interview revealed Pt #11 was not cooperative with the exam, but did retract both legs with painful stimuli.  Interview revealed MD #3 was able view Pt #11 moving her lower extremities by distracting her focus on something else.  Interview revealed MD #4 did not note any bruising or obvious red marks to Pt #11's back.  Interview revealed MD #3 did consider transferring Pt #11 to another hospital until Pt #11 begin moving her lower extremities.  Interview revealed Pt #11 did not complain of lower back pain and Benadryl and Morphine were ordered.  Interview revealed "I did not want to mask her symptoms by giving too much medication.  I did order Norflex after her tests (CT scan and labs) were back (completed).  I was not aware of any incontinence, but she did refuse the bedpan and bedside commode.  Pt was hard to assess due to her drunkenness.  I did not see her stand or attempt to walk.  Pt was not cooperative."  Interview revealed the CT scan was read and resulted by the Radiologist.   _x000D_
+_x000D_
+Staff interview on 06/08/2016 at 0940 with RN #5 revealed Pt #11 presented to the DED via wheelchair with her sister and another family member.  Interview revealed Pt #11's sister did most of the talking.  Interview revealed Pt #11 was upset, crying, screaming and yelling.  Interview revealed the family told RN #5 that the patient had urinated on herself.  Interview revealed the patient smelled of alcohol and her speech was slurred upon arrival to triage.  Interview revealed "Patient was cooperative in triage, but was difficult getting information from her as she was grabbing the top of stretcher, pushing/pulling herself to the top about to come off, then grabbed my arm.  I told her she was going to break my arm if she didn't let go.  She was very anxious.  She looked like she was in terror.  I didn't notice if she was using her legs to push/pull up on the stretcher."  Interview revealed RN #5 did vital signs, obtained history, and performed a triage assessment.  Interview revealed Pt # 11's sister requested to speak to RN #5 alone.  Interview revealed other Emergency Department (ED) staff transported Pt #11 to ED treatment room while she spoke with sister.  Interview revealed Pt #11's sister told RN #5 that Pt 11's boyfriend/husband punched her in the back, stood her up and she fell    on  to the floor.  Interview revealed RN #5 did not ask family how they got her to the car to bring to the hospital.  Interview revealed two ED staff members held Pt #11 under the arms and assisted her to the stretcher from the wheelchair.  Interview revealed RN #5 did not recall if Pt #11 was able to bear weight on her legs/feet, but did recall that getting Pt #11 onto the stretcher was not a difficult task.  Interview revealed "I charted she had '0' pain in triage.  Being she was upset in triage, I went back into the room with (physician name) (MD #4) to do a sensation test on her lower extremities.  Physician broke a tongue depressor to make a sharp edge, poked bottom of feet with tongue depressor.  She (Pt #11) did respond by moving feet, left foot, and toes moving.  I never saw her legs retracting back onto the bed.  Her legs were bowed inward in triage.  Family stated her legs had been like that all her whole life and she had had several surgeries on her legs.  I did not see any bruising or redness on her back. She was crying with her hand over her face and yelling at times.  While in room, Pt was sitting on side of bed with her feet touching the floor.  She asked 'Are my feet touching the floor' nurse told her 'Yes'.  Pt said 'I can' t feel my feet'."_x000D_
+_x000D_
+Staff interview on 06/08/2016 at 0910 with RN #6 revealed she was the primary nurse for Pt #11.  Interview revealed Pt #11 presented to treatment room via wheelchair, hollering and rude to staff.  Interview revealed family told RN #6 that Pt #11 had been drinking and got involved in a fight and somehow got pushed.  Interview revealed the family stated Pt #11 wanted to wait a few hours before going to hospital because she had been drinking.  Interview revealed RN #6 completed an assessment on Pt #11.  Interview revealed Pt #11 initially complained of no pain, but did complain that she couldn't move her legs.  Interview revealed Pt #11 was seen by MD #4 who tested   Pt #11's sensation in her legs by using a sharp object on her feet.  Interview revealed Pt #11 responded to painful stimuli by moving her legs.  Interview revealed staff attempted to assist Pt #11 with bedside commode and patient sit on edge of bed with feet on the floor.  Interview revealed staff asked Pt #11 if she was able to stand up and Pt #11 jerked her feet up off the floor and stated "I didn't realize my feet were on the floor".  Interview revealed Pt #11 refused to use the bedside commode and refused to use the bedpan. Interview revealed Pt #11 urinated in the bed several times and was cleaned up and eventually placed in a brief (diaper like pants).  Interview revealed Pt #11 refused to allow staff to assist her to bedpan or bedside commode.  Interview revealed nursing staff attempted to check mobility and sensation of Pt #11's legs, but patient would just keep cussing at staff and would not cooperate.  Interview revealed Pt #11 did not respond to nursing assessment of legs by stating "she could feel something".  Interview revealed Pt #11 felt no one would listen to her because she had been drinking.  Interview revealed RN #6 reassured Pt #11 that she would still receive appropriate treatment.  Interview revealed Pt 11's  family left and did not return until after called numerous times to pick patient up after discharge.  Interview revealed "I don't believe I ever saw her (Pt #11) stand or walk. She seemed to have anxiety attacks, hollering 'can't feel legs'.   She would settle down if no one was in room to talk with her.  She did complain of pain in her legs, but don't believe she complained of pain in her back."  Interview revealed RN #6 did administer medications for pain and anxiety._x000D_
+_x000D_
+Physician interview with MD #7 revealed he was the MD that relieved MD #4.  Interview revealed Pt #11 was discharged    prior to MD #7 coming on shift.  Interview revealed MD #7 did not get involved in Pt #11's care until 4 hours after his shift started.  Interview revealed Pt #11 was quiet during the first 4 hours of his shift.  Interview revealed Pt #11's father came to pick up Pt #11 for discharge around 11 a.m. and Pt #11 became very agitated and yelling from her room. Interview revealed Pt #11's father requested to speak with MD #7 about re-evaluating patient and administering pain medication prior to leaving the hospital.  Interview revealed MD #7 completed a brief physical exam.  Interview revealed Pt #11 was moving her legs freely, lower extremity pulses were intact, and lower extremity motor function was intact.  Interview revealed MD #7 met and sat with Pt #11 and her father to review the CT findings and address pain.  Interview revealed Pt #11 was complaining of low back pain and pain medication with nausea medication and anxiety medication was ordered and administered to Pt #11 prior to discharge.  Interview revealed Pt #11's father was very appreciative of MD #7 speaking with him.  Interview revealed MD #7 felt that Pt #11 was stable for discharge home._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>461</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2406 65OP11</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CAPE FEAR VALLEY MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>340028</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1638 OWEN DRIVE P O BOX 2000</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>FAYETTEVILLE</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" s="2" t="n">
+        <v>40961</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>65OP11</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on hospital policy review, closed medical record review, and physician interview, the hospital staff failed to provide an appropriate medical screening examination to determine whether or not an emergency medical condition existed for 1 of 43 sampled patients that presented to the hospital's DED (dedicated emergency department) and requested medical treatment (Patient #30)._x000D_
+_x000D_
+The findings include:_x000D_
+_x000D_
+Review of current hospital policy entitled "Medical Screening" revised 10/18/2011 revealed, "POLICY:  (Name of Hospital - Hospital A) provides a medical screening examination (MSE) and ancillary services, within the capabilities of the Health System's Emergency Department (ED), to patients requesting examination or medical treatment.... PURPOSE:  To provide appropriate medical care to patients who present to the Health System and to comply with Emergency Medical Treatment and Active Labor Act (EMTALA) requirements related to medical screening examination....DEFINITIONS:  1.  Emergency Medical Condition:  A medical condition manifesting itself by acute symptoms of [DIAGNOSES REDACTED]....2.  Medical Screening Examination:  An evaluation sufficient to determine if an emergency medical condition or pregnancy with contractions exists.  The exam includes appropriate resources routinely available or accessible to (Hospital A).  3.  Qualified Medical Personnel:  For the purpose of this policy, a physician, a physician's assistant, nurse practitioner, a certified nurse midwife, and/or obstetrical Registered Nurse is the person qualified to provide medical screening examinations to rule out an emergency medical condition....GUIDELINES:  1.  Patients presenting to (Hospital A) requesting or having request made on their behalf for examination, are to have a medical screening examination performed by qualified medical personnel to determine if an emergency medical condition exists...."  _x000D_
+_x000D_
+Closed medical record review for Patient #30 revealed a [AGE] year-old female that presented to Hospital A's DED via EMS (Emergency Management System - Ambulance) on 01/31/2012 at 0045.  Review of EMS paramedic's documentation prior to arrival at the hospital revealed, "History of Present Illness:  Pt (patient) states she had surgery on her bladder 2 weeks ago due to [DIAGNOSES REDACTED].  Pt's bladder bag was leaking so pt went to (outpatient clinic at Hospital B) today to have bag changed out....Pt stated she has been unable to eat since yesterday.  Pt began vomiting tonight, has been dizzy since she returned home from (outpatient clinic at Hospital B), and is also complaining of a headache times one day."  Further review of EMS documentation revealed at 0016 the patient was given 4 milligrams (mg) of Zofran (antiemetic medication) via intramuscular injection.  Record review revealed the triage nurse assessed the patient upon arrival at 0045, at which time the patient complained of a headache that she rated 10 of 10 (on a scale of 0-10, with 10 being the most intense pain).  Record review revealed at 0145 Physician #1 (DED physician) evaluated the patient.  Review of Physician #1's notes revealed at 0145 revealed, "HPI (history of present illness) chief complaint: vomiting...'I think I'm dehydrated'...Pt c/o (complains of) weakness, lightheadedness, dizziness + HA (headache).  States s/s (signs and symptoms) began as HA, then N &amp; V (nausea/vomiting)....current symptoms: nausea...vomiting....1/17 (01/17/2012) had surg(ery) (secondary) to bladder CA (cancer).  Uncomplicated hosp(ital) course per pt...."  Record review revealed at 0159 Physician #1 ordered the following lab and diagnostic studies:  CBC (complete blood count), CMP (comprehensive metabolic panel), lipase, urinalysis, urine culture, PT/PTT (prothrombin time and partial thromboplastin time), and CT (computed tomography) scan of the head and brain.  Record review revealed the head/brain CT scan was done at 0302 and was noted by the radiologist to be "unremarkable" at 0335.  Record review revealed all labwork was completed and resulted by 0409.  Further record review revealed at 0324 the patient was given an intravenous (IV) fluid bolus and Zofran 4 mg IV per Physician #1's orders.  Review of nurse's notes revealed, "03:47...Patient remains stable....03:50...Pain Assessment...0/10 - Pain Free....03:56...Response to Medication...Feels better."  Review of Physician #1's notes (not timed) revealed, "Pt stable, tachycardia improved s/p (after) hydration.  Pt has (illegible) appt (appointment) w (with) (Hospital B) urology....r/o (ruled out) obvious evidence of infection.  Plan f/u (follow up) am today w specialist....Disposition - discharge....Condition - improved, stable."  Review of Physician #1's notes at 0642 revealed, "Discharge Diagnosis...Primary:  Vomiting, persistant  Secondary:  Weakness fatigue  Additional Diagnoses:  Headache."  Record review revealed at 0719 the patient was discharged    to home with prescriptions for Phenergan (antiemetic medication) and Zofran.  Record review revealed the patient was instructed to go to the outpatient clinic at Hospital B at 0900 on the same morning as discharge, to keep the appointment she already had with the specialist there.  Record review revealed no radiological diagnostic studies of the patient's abdomen were done on 01/31/2012 when the patient presented with persistent vomiting 14 days following surgery._x000D_
+_x000D_
+Closed medical record review for Patient #30 revealed the patient presented to Hospital A's DED again on 02/02/2012 at 1728 via private transportation (2 days after first visit).  Review of triage nurse's notes at 1739 revealed, "Pt arrived to front line triage via wheel chair with c/o chest and back pain.  Pt is vomiting at this time at triage desk.  Pt appears pale in color and recent surgery noted for [DIAGNOSES REDACTED]."  Record review revealed at 1733 the patient rated her pain to be a 10 out of 10.  Record review revealed an electrocardiogram (EKG) was done at 1743.  Record review revealed Physician #2 evaluated the patient at 1800.  Review of Physician #2's notes at 1800 revealed, "Pt here with nausea and vomiting since this past Saturday (01/29/2012).  She is S/P 'bladder surgery' this past January at (Hospital B).  Was seen here with similar complaints 2 days ago."  Record review revealed at 1802 the physician ordered the following lab studies:  CBC, CMP, and Lipase.  Record review revealed the patient was given intravenous fluids and Zofran 8 mg IV at 1825 per physician's orders.  Record review revealed the patient waited in the waiting room until 2148, at which time she was taken to a treatment room.  Review of nurse's notes at 2235 revealed, "...Pt states 0/10 cp (chest pain) @ this time, but states lower back pain...."  Record review revealed at 2330 Physician #3 reviewed lab and EKG results.  Record review revealed Physician #3 examined the patient at 2339.  Review of Physician #3's notes at 2339 revealed the patient complained of "aching" epigastric pain and vomiting for one day (patient was unsure of how many times she had vomited).  Review of Physician #3's notes at 2339 revealed the patient stated she had not had a bowel movement for 4-5 days.  Further review of Physician #3's notes at 2339 revealed the patient had a urostomy and had bladder resection with urine diversion surgery on 01/17/2012 at Hospital B.  Record review revealed a hemoccult test (swab of patient's stool checked for presence of blood) was done at on 02/03/2012 at 0245, per physician's orders, and was positive (blood present).  Record review revealed Physician #3 ordered an abdominal Xray at 0221.  Record review revealed the Xray was done at 0346.  Review of abdominal Xray results dictated by the radiologist at 0353 revealed, "...Impression:...Abnormal bowel gas pattern, findings suggesting possible developing small bowel obstruction...."  Further record review revealed at 0223 Physician #3 ordered an abdominal CT scan for "H/O (history of) Abdominal pain/Vomiting/Constipation."  Record review revealed the abdominal CT scan was done at 0721.  Review of CT scan results dictated by the radiologist at 0734 revealed, ""...Impression:  1.  Small bowel obstruction thought to be related to adhesions with a transition zone in the left pelvic region.  2.  Postoperative changes of what is thought to represent a cystectomy with ureteral stents extending through the ileal conduit into a collection bag without obstruction.  3.  Small right renal cyst.  4.  Prominent rectal fecal material."  Review of Physician #1's notes on 02/03/2012 at 1039 revealed, "Discharge Diagnosis...Primary:  Bowel Obstruction  Secondary:  Dehydration  Additional Diagnoses:  Renal failure, acute."  Record review revealed the patient was transferred to Hospital B for further treatment on 02/03/2012 at 1952 (3 days after the patient first presented to the DED with persistent vomiting 14 days following surgery).  _x000D_
+_x000D_
+Interview on 02/23/2012 at 1530 with Physician #1 revealed the physician recalled seeing Patient #30 in the DED on 02/03/2012.  Interview revealed when the physician saw the patient on 02/03/2012 he did not recognize her or recall that he had seen her before in the DED.  The physician reviewed the patient's medical record from the 01/31/2012 DED visit during the interview.  Interview revealed the patient (MDS) dated [DATE] with nausea and vomiting and "not feeling well".  Interview revealed the patient had an appointment later that same day to follow up with the specialist at the outpatient clinic at Hospital B.  Interview revealed, "She had a routine nausea/vomiting evaluation.  The (head) CT must have been done because of the headache she was having....The labwork showed she was slightly anemic and dehydrated.  It looks like after hydration in the ED she was feeling better....I do not see films (Xray studies) of her belly.  I didn't order any.  It depends on what direction they (patients) are going in whether or not I order radiology studies of the abdomen....Not everyone gets a big workup with nausea and vomiting....With her (Patient #30) I didn't go down the road of thinking it was infection or bowel obstruction.  If I was going down that road, I would have ordered an abdominal Xray, maybe even a CT....I don't know why I didn't go down that road."_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2405 X8E611</t>
+          <t>2406 ON7F11</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -13151,7 +13221,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CAYUGA MEDICAL CENTER AT ITHACA</t>
+          <t>CAPE FEAR VALLEY MEDICAL CENTER</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -13160,488 +13230,42 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>330307</v>
+        <v>340028</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>101 DATES DRIVE</t>
+          <t>1638 OWEN DRIVE P O BOX 2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>ITHACA</t>
+          <t>FAYETTEVILLE</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>EMERGENCY ROOM LOG</t>
+          <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" s="2" t="n">
-        <v>42774</v>
+        <v>40864</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>X8E611</t>
+          <t>ON7F11</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on findings from interview and document review, the hospital did not ensure all individuals presenting to the Emergency Department (ED) or other areas (Maternal Child Health [MCH] unit) that provide ED care, are entered into a central log. Also, the hospital's policy and procedure (P&amp;P) for care of pregnant patients that present to the ED does not address central log documentation.  _x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
--- Per interview of Staff A (ED Director) on 2/8/17 at 10:50 am, patients presenting to the ED who are 20 weeks gestation or greater and their complaint is related to pregnancy (and not in acute distress) are directed to the MCH unit for a medical screening exam (MSE) by a Qualified Medical Provider (QMP). These patients are not entered into the ED Central Log. _x000D_
-_x000D_
- -- During interview of Staff B (Director of MCH unit) on 2/8/17 at 8:30 am, patients presenting to the MCH unit from the ED (who are greater than 20 weeks gestation) are transported to the MCH unit. However, the MCH unit does not maintain a central log of patients presenting from the ED. _x000D_
-_x000D_
--- Per review of hospital's P&amp;P titled "ED and MCH Joint Management Protocol Ver 3," published 11/12/13, it was identified it lacked instruction to staff to document and maintain a central log. _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>450</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2406 J2RQ11</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>ST BARNABAS HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>330399</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>4422 THIRD AVENUE</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>BRONX</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" s="2" t="n">
-        <v>41669</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>J2RQ11</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on interviews and review of documents, video recording, and procedures, it was determined the facility failed to implement effective practices to monitor the emergency waiting room for patients with presumptive medical needs to ensure that all patients receive medical screening examination. There was no medical screening examination noted in 2 of 66 emergency medical records reviewed. (MR #1 and MR#2)_x000D_
-_x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-The facility failed to provide medical screening to 2 of 66 patients who arrived to the hospital's emergency room    for emergency medical needs._x000D_
-_x000D_
-1. Review of MR#1  on 1/27/14 at 11 AM makes specific reference to an event which occurred on 1/20/14 in which a male patient was found by Security staff to be in cardiac arrest in the waiting room, approximately eight hours after triage. The patient was in a position where his face was between his knees seated in a chair in the rear section of the emergency waiting room._x000D_
-_x000D_
-Review of MR #1 on 1/27/14 at 11 am found this [AGE] year old male presented for emergency care as a walk in on 1/19/14 at 9:52 PM. The patient 's pre-triage assessment  was conducted at 9:52 PM (where a face to face encounter occurs where the registered nurse speaks with the patient through a glass window). The written encounter form documented during this "quick registration " process noted the patient's reason for visit as "left hand has abscess" ._x000D_
-_x000D_
-Formal triage was provided at 10:04 PM on 1/19/14, and the electronic triage form notes patient the complained of  itch on the arms for four days. Vitals were taken and documented a: temperature of 98.7 F, respiratory rate of 18, BP (Blood Pressure) of 121/68, SPO2% 100% on room air. No pulse was noted in the triage assessment.  The pain scale was rated as 4/10 in the extremities, constant, with tightness._x000D_
-_x000D_
-Past medical history noted was significant for "asthma/ COPD (chronic obstructive pulmonary disease), hepatitis , osteo[DIAGNOSES REDACTED]". He was classified as Emergency Severity Index triage level =3 , which is classified as an urgent category. This represents conditions that could potentially progress to serious problems requiring emergency intervention.  _x000D_
- The patient was registered at 9:54 PM. _x000D_
-_x000D_
-At 12:55 AM on 1/20/14 the physician noted in the record: "patient was called overhead with no response. Patient looked for in the ED waiting area with no response. Patient not found in ED beds, asthma area: patient not in ED at this time." _x000D_
-_x000D_
-At 3:10 AM the physician documented in the record: "patient was called overhead with no response. Patient looked for in the ED waiting area with no response. Patient not found in ED beds, asthma area: patient not in ED at this time." (Note this is the same text used in the previous note in the medical record. _x000D_
-_x000D_
-Interview with staff #4 on 1/28/14 reported he called the patient's name from the emergency department (ED) door)._x000D_
-_x000D_
-At 4:08 AM, the physician noted in the record that "the patient was called overhead in the waiting area and in the Emergency Department. The patient did not respond and cannot be located at this time."_x000D_
-_x000D_
-The patient was later found unresponsive in the ED waiting room at approximately 6:42 AM. A new emergency department record of encounter was created at this time.(6:44 AM)_x000D_
-_x000D_
-The patient was found with no vital signs, slumped over and cyanotic. He was immediately transported into the ED treatment area and resuscitation attempts /CPR were unsuccessful. Patient was pronounced dead at 6:55 AM on 1/20/14. Review of the cardiac arrest record by the physician found the patient was found in the ED waiting room, unresponsive, with facial cyanosis. There was never any pulse found and the cardiac monitor registered asystole, refractory to all interventions, including endotracheal intubation, 3 rounds of epinephrine, bicarb x 2, 2 administration of glucose, and one of Narcan. Patient was pronounced dead at 6:55 AM on 1/20/14 and sent to ME._x000D_
-_x000D_
-Videotape monitoring of the emergency department waiting room was viewed with hospital staff  (Staff #1, #2, #13, #22) on 1/28/14 between the approximate hours of 1:50 PM and and 3:20 PM. _x000D_
-_x000D_
-The videotapes showed the chronology between the patient's arrival on 1/19/14 at 9:38 PM for triage until and the time he was found to be in cardiac arrest by a security officer on 1/20/14 at 6:37 AM, while the officer performed rounds in the emergency waiting room to clear the waiting room of sleeping persons. The videotape record shows that between 10:31 PM on 1/19/14 and 6:37 AM on 1/20/14, the patient was in a position where he was bent over and where his head was between his knees. (slightly greater than a period of eight hours)._x000D_
-_x000D_
-_x000D_
-Review of security incident situation reports (4) on 1/20/14 documented at 0647 AM and one incident report form ( MD documented at 0715 am  and nurse documented at 6:40 AM) were reviewed on 1/27/14._x000D_
-_x000D_
-Security report #1 written by one security officer states that he and another officer went to the waiting area at 640 AM to clear the area. This officer further writes that he was getting everyone up who was sleeping and went to the patient in MR #1 to try to wake him up. The patient did not respond. This officer wrote he lifted patient._x000D_
-_x000D_
-Review of form titled " Patient and Visitor Incident report" form dated 1/20/14, included a physician report , timed at 0715 AM stated  " patient was found slumped in cardiac arrest in the waiting area of the ER. The patient was wheeled to the main ER. CPR, ACLS, intubation, and left femoral line were done. Patient was not responsive and pronounced dead at 0655 AM."_x000D_
-_x000D_
-_x000D_
-Interview with staff # 4 on 1/28/14 at 3:30 PM was conducted, who was assigned to the patient during the ED visit of 1/19/14. Staff #4 stated he called the patient's around 1 am on 1/20/14. He called overhead and went to the ED waiting room door to call the patient by name. He waited 2 minutes and there was no answer. Inside the ED, usually he does a quick sweep through ED-2 (the area where patients are inside of the ED treatment area on a stretcher remain). At 3 AM he did the same thing and there was no answer by the patient. He acknowledged he does not go directly into the ED waiting room to call patients._x000D_
-_x000D_
-Staff #4  also reported he received a call on 1/20/14 for  a stretcher in the waiting room, the patient looked dead. The patient's face was blue. The patient was placed on a stretcher and wheeled to ED-1 and ACLS was started. He spent the whole time doing compressions. The attending physician pronounced the patient dead._x000D_
-_x000D_
-On 1/28/14 at 3:30 PM surveyors interviewed staff #5, who stated he called the patient at least once overhead on the loudspeaker and then he went to the ED door where there was no answer/response. He reported that during overnights, the ED receives  a lot of patients where a no answer is very common. When queried if he goes into the waiting room area to call patients he replied "generally no"._x000D_
-He recalled that during this incident, one patient care technician (PCT) ran into the ED and reported the someone out there looks blue. He went to ED-1 (section of the medical emergency room   ) , prepared beds for a code. He followed standard ACLS protocol . A Central line placed in the groin. The patient's face was blue._x000D_
-_x000D_
- The two triage nurses, staff #6 and Staff #7 were both interviewed concurrently on 1/29/14 at 8:30 AM. The initial pre-triage encounter slip was signed by staff #7 at 9:52 on 1/19/14, who reported at interview that she did not recall the patient at all._x000D_
-_x000D_
-The process for initial screening was described by staff #7. The walk in patient comes to the glass triage booth, and if able to do so, the patient shall document the name , date of birth, and reason for visit in the ED. The  nurse speaks with the patient through the window. The nurse does not come outside of the booth to fully visualize patients. The patient then takes this slip to the registration clerk. If the patient is very ill, the patient is brought directly inside of the ED._x000D_
-_x000D_
-After initial screening, the patient shall wait in the waiting room for full triage. Staff #7 performed the full assessment on patient referenced in MR #1. The patient said he had a rash. The patient had splotches to both arms. He did not see the patient after triage. He stated that rounds are never done by the nurse of the waiting room._x000D_
-_x000D_
-Staff #6 was queried if he noticed that the encounter slip noted the patient had a left hand abscess, whi[DIAGNOSES REDACTED]ered from his note which documented arm itching/rash. He stated that registration actually holds on to the form and the clerk inputs the complaint ._x000D_
-_x000D_
-Both staff #6 and #7 stated that they never look into the waiting room to monitor patients._x000D_
-_x000D_
-The policy titled, "Triage of patients Adults and Pediatrics" was reviewed on 1/28/14 at 10 AM. The facility's ED policy for triage of Patients in effect at the time of the incident notes: "The triage nurse will monitor the waiting area". No guidance or instructions are documented to explain how this waiting room monitoring shall occur from the time of the patient arrival, through triage, and until the call for medical evaluation._x000D_
-_x000D_
-Review of ED Procedures on 1/28/14 finds that the emergency department  (ED) has no policy and procedure for marking charts as no answer in the walk in waiting room. Furthermore, there is no policy to address patients who do not answer prior to the completion of full triage nor for those patients who do not answer to staff and/or who leave after complete triage (prior to performance of a medical screening examination). _x000D_
-Additionally, the facility has no policy and procedure for the reassessment of patients who are triaged to the waiting room._x000D_
-_x000D_
-In addition the triage policies require that patients triaged as ESI-3 , which was the category assigned to the patient referenced in MR#1, are to have vital signs taken no less frequently than every two hours for the first four hours then every four hours if clinically stable. The patient  was classified as Emergency Severity Index triage level =3 , which is classified as an urgent category. This represents conditions that could potentially progress to serious problems requiring emergency intervention. In the case of MR #1, the patient failed to follow this process, because MR #1 had been triaged as ESI-3 and should have had vital signs within 2 hours of triage. However, based on interview with staff #2 on 1/28/14, it was stated  there is no written schedule for reassessment for patients triaged to the waiting room. _x000D_
-_x000D_
-Despite having been triaged as level three, the patient never received a medical evaluation and the staff's attempts to locate this patient were insufficient._x000D_
-_x000D_
-The facility failed to effectively monitor the emergency room    waiting area to ensure the health and safety of patients awaiting medical evaluation or for those with presumptive need for medical care._x000D_
-_x000D_
-The facility failed to provide a medical screening examination to a patient who was triaged but who did not answer calls made by medical staff for a medical screening examination.  The facility failed to implement a process for emergency waiting room patients who are unregistered or who do not respond to calls for medical evaluation following triage. _x000D_
-_x000D_
-2. Review of MR #2 on 1/29/14 at approximately 3 PM referenced a pregnant patient who came by EMS who complained of generalized body aches was never triaged and thus never received any medical screening examination. _x000D_
-_x000D_
- Review of MR #2 found that on the ambulance call report (ACR) that the patient arrived at 12:32 PM on 1/27/14 complaining of body aches and the ambulance call report was signed by the Emergency department triage nurse._x000D_
-_x000D_
-During interview with the triage nurse in the adult ED (staff #23) on 1/29/14 at approximately 2 PM, the nurse stated that she signed the ACR and she sent the patient and EMS to Labor and Delivery for triage and assessment. The nurse stated she did not triage the patient nor take any vital signs. _x000D_
-_x000D_
-During interview with the Staff #12 on 1/31/14, Staff #12 stated that there was no record of the patient being examined, no record of fetal monitoring performed, no chart was prepared , and the patient was sent back to the main ED because the patient's complaints were not related to pregnancy._x000D_
-_x000D_
-Review of the triage log book for Labor and Delivery on 1/31/14 for the date of 1/27/14 at 1341 hours (1:41 PM) found that the patient was transferred to ED._x000D_
-_x000D_
-The patient was returned to the ED where she walked out without being triaged or medically evaluated._x000D_
-_x000D_
-Review of policy and procedure titled : "Pregnant patients presenting to the ED" on 1/31/14 it is stated that pregnant patients presenting to ED with pregnancy greater than 20 weeks whose complaint is non-pregnancy related , e.g., asthma, shall be registered in the ED and be evaluated by the emergency physician. Further review of policy finds that pregnant patients with flu like illness are to be isolated away from the maternity pavilion. In the case of MR #2 staff failed to follow this policy. _x000D_
-._x000D_
-._x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>453</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2406 EF3G11</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>SCOTLAND MEMORIAL HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>340008</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>500 LAUCHWOOD DR</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>LAURINBURG</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" s="2" t="n">
-        <v>42529</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>EF3G11</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on hospital policy and procedure review, medical record reviews, and physician and staff interviews, the hospital's DED (Dedicated Emergency Department)  physician failed to provide an appropriate medical screening examination (MSE) within the capability of the hospital's DED, including ancillary services routinely available to the DED, to determine whether or not an emergency medical condition (EMC) existed for 1 of 23 sampled patients who presented to the DED (Patient # 11) with complaint of a fall with no feeling in her legs after an altercation._x000D_
-_x000D_
-The findings include:_x000D_
-_x000D_
-Closed DED medical record review of patient (Pt) #11 revealed a [AGE] year old female that presented via private vehicle to the DED on 04/23/2016 at 0349 with a chief complaint of "ALL (NO FEELING IN HER LEG)."  Review of Nursing Triage assessment dated  [DATE] at 0402 revealed "VITAL SIGNS: BP 151/69, Pulse: 67, Resp: 17, Temp: 97.8, Pain: 0, O2 Sat: 99, on ROOM AIR."  Further review of Triage assessment dated  [DATE] at 0403 revealed "ADMISSION: URGENCY:  ESI 3 (Urgent)...TRANSPORT: Wheelchair ...CURRENT MEDICATIONS  None."  Review of record revealed Pt #11 was placed in a treatment room at 0405.  Review of Triage assessment dated  [DATE] at 0405 revealed "...SUBJECT ASSESSMENT:  PT. (patient) C/O (complaining of) NOT BEING ABLE TO FEEL HER LEGS.  PT'S FAMILY STATES SHE WAS PHYSICALLY ASSAULTED BY HER HUSBAND.  PT. WAS SLAMMED ON THE FLOOR BY HER HUSBAND AND HAS NOT BEEN ABLE TO WALK SINCE.  PT. URINATED ON HERSELF PER FAMILY.  PAIN:  On a scale 0-10 (pain scale 0-no pain, 10 -excruciating pain)   patient rates pain as 0."  Review of Physician's HPI (history of present illness) dated 04/23/2106 at 0429 revealed "CHIEF COMPLAINT: Patient presents for the evaluation of bilateral, Back, Legs, numbness, decreased use...MECHANISM: Complaint occurred by fall, Fall from standing. OCCURRED: Onset was few hours prior to arrival, Patient currently has symptoms.  LOCATION: Unable to localize.  QUALITY: Unable to describe pain.  ASSOCIATED WITH: Alcohol: Yes, Neurologic Symptoms Prior to Patient Arrival present, LOC (loss of consciousness): none, GCS (Glasgow Coma Score-level of consciousness): 15, Patient denies clavicle pain, shoulder pain, elbow pain, wrist pain, hand pain, finger pain.  Patient is able to ambulate or bear weight, Patient denies pain on walking, hip pain, knee pain, ankle pain, foot pain.  RISK FACTORS: Spine Injury Risk Factors: None ...NOTES:  Slammed on to Chair at Party, struck Back, denied pain, stated cannot feel or move legs."   Review of Physician's Orders dated 04/23/2016 at 0429 revealed an order for an Alcohol level, a Basic Metabolic Panel, Complete Blood Count with Diff, Drug screen, Pregnancy Test, Urinalysis, Magnesium and Lumbar Spine without contrast.  Review of Nursing assessment dated  [DATE] at 0430 revealed "CONSTITUTIONAL:  Patient is alert and oriented x 3 (person, place and time) ...Patient arrives to treatment area via hospital wheelchair, Patient lifted to cart (stretcher), History obtained from family, Patient appears intoxicated, pt anxious and tearful, verbally abusive.  BACK:  Patient has strong pulses to upper and lower extremities bilaterally,  Patient complains of pain to lower back, Pain described as aching, Pain is continuous, Patient unable to ambulate, verbalizes numbness from waist down both lower extremities, pt has inward turn of both legs."  Review of Physician's Physical Exam dated 04/23/2016 at 0431 revealed "CONSTITUTIONAL ...Patient appears comfortable, Hypertensive, Patient is agitated....BACK:  There is no CVA Tenderness, There is no tenderness to palpation, Normal Inspection ...LOWER EXTREMITY:  Inspection normal, No cyanosis, clubbing, edema.  Normal range of motion, No calf tenderness, Normal pulses.  NEURO:  There is weakness in the left leg. There is weakness in the right leg. There is a sensory deficit in the left leg. There is a sensory deficit in the right leg. Subjective...PSYCHIATRIC:  Oriented x 3, Normal insight, concentration.  Agitated affect, Anxious affect."  Review of nursing procedures revealed IV (intravenous) access was established and labs drawn with family present on 04/23/2016 at 0445.  Further review of procedure notes revealed urine specimen for urinalysis and pregnancy test obtained via straight catheter at 0455.  Review of Physician's orders dated 04/23/2016 at 0539 revealed an order for Morphine (Pain medication) 2mg IV Push.  Review of Medication Service Records revealed Morphine 2 mg IV was administered and response to Morphine was reassessed at 0620.  Review of Physician's Orders dated 04/23/2016 at 0603 revealed an order for Thiamine 100 mg IV Drip/Infusion.  Review of Medication Service Records revealed Thiamine 100 mg IV piggyback infusion administered at 0623 and discontinued at 0650.  Review of Physician's Order dated 04/23/2016 at 0604 revealed an order for Benadryl 50 mg IV push.  Review of Medication Service Records revealed Benadryl 50 mg IV was administered at 0620 and response to Benadryl was reassessed at 0650.  Review of Physician's Orders dated 04/23/2016 at 0607 revealed an order for Normal Saline 1000 ml IV bolus.  Review of Physician's "LAB INTERPRETATION"  Notes dated 04/23/2016 at 0623 revealed "INTERPRETATION: I reviewed the lab results, Elevated WBC (white blood count), CBC (complete blood count) otherwise normal, Decreased Sodium Bicarbonate, otherwise Chemistry normal, Urinalysis is normal, Urine toxicology positive for, cannabinoids, Alcohol level 227, by blood."  Review of Physician's "RADIOLOGY INTERPRETATION" Notes dated 04/23/2016 at 0623 revealed "INTERPRETER: Preliminary review of CT by Radiologist.  BACK: Interpretation of L-spine CT shows, L-spine negative, no fracture, no subluxation, no bony lesion, no cord compression, however, degenerative joint disease present."  Review of "DOCTOR NOTES" dated 04/23/2016 at 0624 revealed "Moved both legs w/ (with) Painful Stimuli to Feet and Legs, appears to be more anxiety related, friends agree and will take pt home to F/U (follow-up) as an outpt (outpatient).  PATIENT STATUS:  Patient has improved since arrival to emergency department.  PATIENT PLAN: The patient will be discharged   . The patient will follow up with primary care physician." Review of Physician's Notes revealed a Final Primary Diagnosis of "Low back contusion" with Additional diagnosis of "Acute alcohol intoxication, Anxiety, CANNABIS (marijuana) ABUSE UNCOMPLICATED, CONVERSION D/O (Disorder) W/MOTOR SX (symptoms)/DEFICIT, DEHYDRATION, Hypertension, Paresthesia."  Review of Physician's Orders dated 04/23/2016 at 0627 revealed an order for Hydroxyzine HCl 50 mg po and Ultram 50 mg po to take home. Review of Medications Service record revealed Hydroxyzine HCl 50 mg po and Ultram 50 mg po were given to patient's father for patient to take at home.  Further review of DED record dated 04/23/2016 at 0628 revealed "DISPOSITION ...discharge ... Home/Self Care, Disposition Transport: *Wheelchair, Condition: Stable."  Review of Medication Service Records revealed Normal Saline 1000 ml bolus was administered at 0630 and discontinued at 0720.  Review of Nurse's Notes dated 04/23/2016 at 0700 revealed "VITAL SIGNS: BP 142/106 (SITTING), Pulse: 119 (STRONG), Resp: 20 (NORMAL), Temp: 98.3 (ORAL), Pain: 10, O2 Sat: 100 on ROOM AIR."  Review of Physician's Orders dated 04/23/2016 at 0717 revealed and order for Norflex 60 mg IV Push.  Review of Medication Service Records revealed Norflex 60 mg IV was administered at 0720 and response to Norflex was reassessed at 0800.   Review of Nurse's Notes dated 04/23/2016 at 0730 revealed "Pt. aggressive and cussing.  States she wanted to be transferred.  States 'don't come close to me because I grab'.  Tried to calm pt. down ..."  Review of Nurse's Notes dated 04/23/2016 at 0811 revealed "...Attempted to call family and pts. boyfriend multiple times with the phone numbers pt. provided.  No answer from any of the numbers will continue to call."  Review of Nurse's Notes dated 04/23/2016 at 1010 revealed "Pt. gave a phone number to call that she didn't give earlier.  Spoke with family member states they will be here to pick up pt."  Review of Nurse's Notes dated 04/23/2016 at 1042 revealed "VITAL SIGNS: BP 133/101 (LYING), Pulse: 97 (STRONG), Resp: 22, Temp: 98.0 (ORAL), Pain: 10, O2 Sat: 99 on ROOM AIR."  Review of Nurse's Notes dated 04/23/2016 at 1110 revealed "Father at bedside.  States he would like for pt. to be reevaluated.  'Name' (DED Physician) to speak with pts. father."  Review of "DOCTOR NOTES" dated 04/23/2016 at 1119 revealed "TEXT:  Pt refusing to leave, father at bedside, pt screaming and hyperventilating, moving legs freely, states can't  feel or move legs but has 10/10 pain and thrashing about, clear psychiatric component present, had discussion with father, he agrees to take pt home after a dose of pain medications, pt has nml (normal) motor/sensation/vascular in the lower extremities.  CT spine nml, doubt acute cord syndrome, doubt acute vascular compromise."  Review of Physician's Orders dated 04/23/2016 at 1119 revealed and order for Dilaudid 1 mg IM, Phenergan 12.5 mg IM and Valium 10 mg IM.  Review of Medication Service Records revealed Dilaudid 1 mg IM was administered at 1132 and response to Dilaudid was reassessed at 1214 with documentation of pain decreased and rated an 8 on a 0-10 scale.  Further review of Medication Service Records revealed Phenergan 12.5 mg IM was administered at 1133 and response to Phenergan was reassessed at 1215.  Further review of Medication Service Record revealed Valium 10 mg IM was administered at 1135 and response to Valium was reassessed at 1215.  Review of Nurse's Notes dated 04/23/2016 at 1203 revealed "VITAL SIGNS: BP 153/89 (LYING), Pulse: 65, Resp: 18, Temp: 98.5 (ORAL), Pain: 8, O2 Sat: 100 on ROOM AIR."  There was no documentation in the medical record to indicate that prior to discharging Patient #11 on 4/23/2016 from the ED that she was able to walk/ambulate. Prior to discharge there was no explanation for the patient ' s numbness, back pain or urinary incontinence.   Review of Nursing Discharge Note dated 04/23/2016 at 1215 revealed patient was discharged    via wheelchair with family to home at 1215.  Further review revealed discharge instructions were given to the patient and her father with discharge teaching performed.  Further review revealed medication prescriptions for Hydroxyzine HCL (antihistamine used short-term to treat anxiety), Ultram (pain medication) and Norflex (muscle relaxer) given to patient at discharge.  Further review of Nurse's Notes revealed "Patient counseling on medication(s) dispensed provided. Above person(s) (patient/father) verbalized understanding of discharge instructions and follow-up care, Patient treated and evaluated by physician."  Review of DED record dated 04/23/2016 at 1217 revealed "...Patient left the department."   _x000D_
-_x000D_
-The Medical record from hospital B was reviewed.  The medical record revealed that patient #11 (MDS) dated [DATE]. A review of the History and Physical documented by the emergency room    physician revealed in part,  " [AGE] year old with a past medical significant for Hypertension, osteoporosis. She apparently fell    past Friday while drinking ...and reports since that time she has had inability to walk with burning and numbness in her feet. She reports that she was able to sense that she needed to urinate. She apparently was seen in outside emergency room    and was sent home. She then presented to (Hospital B Name of Hospital) yesterday afternoon, and underwent CT scan of her lumbar spine and an MRI scan of her which showed some posterior ligament calcification ...She was recommended for MRI (magnetic reasoning imaging -technique used in radiology to perform pictures of the anatomy and physiological processes of the body) for cervical and thoracic spine, which was performed. This showed multi-level ligamentous calcification, most severe at T (thoracic) 10-T11 where there was canal compromise and spinal gliosis. Neurosurgery was then asked to evaluate and recommended was made for admission. The operative report dated  4/26/2016 revealed the Chief complaint was listed as Spinal Cord injury with evidence of severe T10-T11 thoracic stenosis secondary to calcified mass in the ligamentum Flavum. The surgical procedure performed was T10-11 laminectomy ( Surgical procedure where the back  part of the vertebra is removed to relieve pressure on the spinal cord)   with excision of epidural mass._x000D_
-_x000D_
-Policy and procedure_x000D_
-The facilities policy titled,  " Emergency Medical Treatment and Labor Act (EMTALA), Effective date 3/98, Revised date 10/2011 was reviewed. The policy and procedure revealed in part,  " Medical Screening Examination is to determine whether or not an emergency medical condition exists ...SMH (Scotland Memorial Hospital) shall provide an appropriate medical screening examination and provide stabilizing treatment for medical conditions ...that is within the  hospital ' s capability and capacity. "_x000D_
-_x000D_
-_x000D_
-_x000D_
-Staff interview on 06/08/2016 at 1015 with the Quality/Compliance Director [QC DIR] #1 and Patient Experience Director [PX DIR] #2 revealed the hospital first became aware of a grievance when Pt #11's sister-in-law called to hospital administration. Interview revealed the grievance process was followed and an immediate investigation was begun. Interview revealed they learned Pt #11 was currently in another hospital and attempted to reach her by phone.  Interview revealed Pt #11 was contacted and information about her concerns was documented and an investigation was immediately started.  Interview revealed a request was sent to the Emergency Department Assistant Medical Director, Emergency Department Medical Director and the Emergency Department Nursing Director to review Pt #11's medical record.  Interview revealed physician peer review was completed by the Assistant Medical Director of the Emergency Department.  Interview revealed Emergency Department Nursing Director discussed case and presented education on behaviors, and discharge during a staff meeting.  Interview revealed an email requesting a review and confirmation of findings of the CT Scan Pt #11 received during her Emergency Department visit was sent to the Radiology Department.  Interview revealed a review of the CT Scan images was performed and an email from the Radiology Department was received with the findings.  Interview revealed a resolution letter was sent to the complainant._x000D_
-_x000D_
-Physician interview on 06/08/2016 with MD #3, the MD who reviewed Pt #11's record for the grievance, revealed MD #3 reviewed Pt #11's medical record with MD #4 and MD #7.  Interview revealed MD #3 interviewed MD #4 and MD #7 there were no concerns about the decision to discharge Pt #11 home.  Interview revealed Pt #11 was evaluated by 2 different Physicians in the Emergency Department, 3 hours apart and both found sensation and movement of Pt #11's legs.  Interview revealed MD #3's findings after review of the record was that Pt #11's sensation and movement in lower extremities were intact.  Interview revealed MD #4 and MD #7 documented in the record that Pt #11 was able to move her legs and responded to painful stimuli.  Interview revealed MD #3 felt the medical care Pt #11 received was appropriate.  Interview revealed "Based on review and interview, I found no issues with Medical Screening Exam, Treatment or Stabilization of Pt #11."_x000D_
-_x000D_
-Physician interview on 06/08/2016 at 0925 with MD #4, the MD who completed the MSE on Pt #11, revealed Pt # 11 came to the DED with friends after an altercation with her boyfriend/significant other at a party where she had been drinking.  Interview revealed the boyfriend/significant other reportedly slammed Pt #11 across a chair and onto the ground.  Interview revealed that Pt #11 was agitated and belligerent.  Interview revealed MD #4 performed a physical exam, reviewed vital signs and nursing assessment, ordered a CT Scan of the Lumbar Spine and ordered Labs.  Interview revealed Pt #11 was not cooperative with the exam, but did retract both legs with painful stimuli.  Interview revealed MD #3 was able view Pt #11 moving her lower extremities by distracting her focus on something else.  Interview revealed MD #4 did not note any bruising or obvious red marks to Pt #11's back.  Interview revealed MD #3 did consider transferring Pt #11 to another hospital until Pt #11 begin moving her lower extremities.  Interview revealed Pt #11 did not complain of lower back pain and Benadryl and Morphine were ordered.  Interview revealed "I did not want to mask her symptoms by giving too much medication.  I did order Norflex after her tests (CT scan and labs) were back (completed).  I was not aware of any incontinence, but she did refuse the bedpan and bedside commode.  Pt was hard to assess due to her drunkenness.  I did not see her stand or attempt to walk.  Pt was not cooperative."  Interview revealed the CT scan was read and resulted by the Radiologist.   _x000D_
-_x000D_
-Staff interview on 06/08/2016 at 0940 with RN #5 revealed Pt #11 presented to the DED via wheelchair with her sister and another family member.  Interview revealed Pt #11's sister did most of the talking.  Interview revealed Pt #11 was upset, crying, screaming and yelling.  Interview revealed the family told RN #5 that the patient had urinated on herself.  Interview revealed the patient smelled of alcohol and her speech was slurred upon arrival to triage.  Interview revealed "Patient was cooperative in triage, but was difficult getting information from her as she was grabbing the top of stretcher, pushing/pulling herself to the top about to come off, then grabbed my arm.  I told her she was going to break my arm if she didn't let go.  She was very anxious.  She looked like she was in terror.  I didn't notice if she was using her legs to push/pull up on the stretcher."  Interview revealed RN #5 did vital signs, obtained history, and performed a triage assessment.  Interview revealed Pt # 11's sister requested to speak to RN #5 alone.  Interview revealed other Emergency Department (ED) staff transported Pt #11 to ED treatment room while she spoke with sister.  Interview revealed Pt #11's sister told RN #5 that Pt 11's boyfriend/husband punched her in the back, stood her up and she fell    on  to the floor.  Interview revealed RN #5 did not ask family how they got her to the car to bring to the hospital.  Interview revealed two ED staff members held Pt #11 under the arms and assisted her to the stretcher from the wheelchair.  Interview revealed RN #5 did not recall if Pt #11 was able to bear weight on her legs/feet, but did recall that getting Pt #11 onto the stretcher was not a difficult task.  Interview revealed "I charted she had '0' pain in triage.  Being she was upset in triage, I went back into the room with (physician name) (MD #4) to do a sensation test on her lower extremities.  Physician broke a tongue depressor to make a sharp edge, poked bottom of feet with tongue depressor.  She (Pt #11) did respond by moving feet, left foot, and toes moving.  I never saw her legs retracting back onto the bed.  Her legs were bowed inward in triage.  Family stated her legs had been like that all her whole life and she had had several surgeries on her legs.  I did not see any bruising or redness on her back. She was crying with her hand over her face and yelling at times.  While in room, Pt was sitting on side of bed with her feet touching the floor.  She asked 'Are my feet touching the floor' nurse told her 'Yes'.  Pt said 'I can' t feel my feet'."_x000D_
-_x000D_
-Staff interview on 06/08/2016 at 0910 with RN #6 revealed she was the primary nurse for Pt #11.  Interview revealed Pt #11 presented to treatment room via wheelchair, hollering and rude to staff.  Interview revealed family told RN #6 that Pt #11 had been drinking and got involved in a fight and somehow got pushed.  Interview revealed the family stated Pt #11 wanted to wait a few hours before going to hospital because she had been drinking.  Interview revealed RN #6 completed an assessment on Pt #11.  Interview revealed Pt #11 initially complained of no pain, but did complain that she couldn't move her legs.  Interview revealed Pt #11 was seen by MD #4 who tested   Pt #11's sensation in her legs by using a sharp object on her feet.  Interview revealed Pt #11 responded to painful stimuli by moving her legs.  Interview revealed staff attempted to assist Pt #11 with bedside commode and patient sit on edge of bed with feet on the floor.  Interview revealed staff asked Pt #11 if she was able to stand up and Pt #11 jerked her feet up off the floor and stated "I didn't realize my feet were on the floor".  Interview revealed Pt #11 refused to use the bedside commode and refused to use the bedpan. Interview revealed Pt #11 urinated in the bed several times and was cleaned up and eventually placed in a brief (diaper like pants).  Interview revealed Pt #11 refused to allow staff to assist her to bedpan or bedside commode.  Interview revealed nursing staff attempted to check mobility and sensation of Pt #11's legs, but patient would just keep cussing at staff and would not cooperate.  Interview revealed Pt #11 did not respond to nursing assessment of legs by stating "she could feel something".  Interview revealed Pt #11 felt no one would listen to her because she had been drinking.  Interview revealed RN #6 reassured Pt #11 that she would still receive appropriate treatment.  Interview revealed Pt 11's  family left and did not return until after called numerous times to pick patient up after discharge.  Interview revealed "I don't believe I ever saw her (Pt #11) stand or walk. She seemed to have anxiety attacks, hollering 'can't feel legs'.   She would settle down if no one was in room to talk with her.  She did complain of pain in her legs, but don't believe she complained of pain in her back."  Interview revealed RN #6 did administer medications for pain and anxiety._x000D_
-_x000D_
-Physician interview with MD #7 revealed he was the MD that relieved MD #4.  Interview revealed Pt #11 was discharged    prior to MD #7 coming on shift.  Interview revealed MD #7 did not get involved in Pt #11's care until 4 hours after his shift started.  Interview revealed Pt #11 was quiet during the first 4 hours of his shift.  Interview revealed Pt #11's father came to pick up Pt #11 for discharge around 11 a.m. and Pt #11 became very agitated and yelling from her room. Interview revealed Pt #11's father requested to speak with MD #7 about re-evaluating patient and administering pain medication prior to leaving the hospital.  Interview revealed MD #7 completed a brief physical exam.  Interview revealed Pt #11 was moving her legs freely, lower extremity pulses were intact, and lower extremity motor function was intact.  Interview revealed MD #7 met and sat with Pt #11 and her father to review the CT findings and address pain.  Interview revealed Pt #11 was complaining of low back pain and pain medication with nausea medication and anxiety medication was ordered and administered to Pt #11 prior to discharge.  Interview revealed Pt #11's father was very appreciative of MD #7 speaking with him.  Interview revealed MD #7 felt that Pt #11 was stable for discharge home._x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>461</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2406 65OP11</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>CAPE FEAR VALLEY MEDICAL CENTER</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>340028</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>1638 OWEN DRIVE P O BOX 2000</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>FAYETTEVILLE</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" s="2" t="n">
-        <v>40961</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>65OP11</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on hospital policy review, closed medical record review, and physician interview, the hospital staff failed to provide an appropriate medical screening examination to determine whether or not an emergency medical condition existed for 1 of 43 sampled patients that presented to the hospital's DED (dedicated emergency department) and requested medical treatment (Patient #30)._x000D_
-_x000D_
-The findings include:_x000D_
-_x000D_
-Review of current hospital policy entitled "Medical Screening" revised 10/18/2011 revealed, "POLICY:  (Name of Hospital - Hospital A) provides a medical screening examination (MSE) and ancillary services, within the capabilities of the Health System's Emergency Department (ED), to patients requesting examination or medical treatment.... PURPOSE:  To provide appropriate medical care to patients who present to the Health System and to comply with Emergency Medical Treatment and Active Labor Act (EMTALA) requirements related to medical screening examination....DEFINITIONS:  1.  Emergency Medical Condition:  A medical condition manifesting itself by acute symptoms of [DIAGNOSES REDACTED]....2.  Medical Screening Examination:  An evaluation sufficient to determine if an emergency medical condition or pregnancy with contractions exists.  The exam includes appropriate resources routinely available or accessible to (Hospital A).  3.  Qualified Medical Personnel:  For the purpose of this policy, a physician, a physician's assistant, nurse practitioner, a certified nurse midwife, and/or obstetrical Registered Nurse is the person qualified to provide medical screening examinations to rule out an emergency medical condition....GUIDELINES:  1.  Patients presenting to (Hospital A) requesting or having request made on their behalf for examination, are to have a medical screening examination performed by qualified medical personnel to determine if an emergency medical condition exists...."  _x000D_
-_x000D_
-Closed medical record review for Patient #30 revealed a [AGE] year-old female that presented to Hospital A's DED via EMS (Emergency Management System - Ambulance) on 01/31/2012 at 0045.  Review of EMS paramedic's documentation prior to arrival at the hospital revealed, "History of Present Illness:  Pt (patient) states she had surgery on her bladder 2 weeks ago due to [DIAGNOSES REDACTED].  Pt's bladder bag was leaking so pt went to (outpatient clinic at Hospital B) today to have bag changed out....Pt stated she has been unable to eat since yesterday.  Pt began vomiting tonight, has been dizzy since she returned home from (outpatient clinic at Hospital B), and is also complaining of a headache times one day."  Further review of EMS documentation revealed at 0016 the patient was given 4 milligrams (mg) of Zofran (antiemetic medication) via intramuscular injection.  Record review revealed the triage nurse assessed the patient upon arrival at 0045, at which time the patient complained of a headache that she rated 10 of 10 (on a scale of 0-10, with 10 being the most intense pain).  Record review revealed at 0145 Physician #1 (DED physician) evaluated the patient.  Review of Physician #1's notes revealed at 0145 revealed, "HPI (history of present illness) chief complaint: vomiting...'I think I'm dehydrated'...Pt c/o (complains of) weakness, lightheadedness, dizziness + HA (headache).  States s/s (signs and symptoms) began as HA, then N &amp; V (nausea/vomiting)....current symptoms: nausea...vomiting....1/17 (01/17/2012) had surg(ery) (secondary) to bladder CA (cancer).  Uncomplicated hosp(ital) course per pt...."  Record review revealed at 0159 Physician #1 ordered the following lab and diagnostic studies:  CBC (complete blood count), CMP (comprehensive metabolic panel), lipase, urinalysis, urine culture, PT/PTT (prothrombin time and partial thromboplastin time), and CT (computed tomography) scan of the head and brain.  Record review revealed the head/brain CT scan was done at 0302 and was noted by the radiologist to be "unremarkable" at 0335.  Record review revealed all labwork was completed and resulted by 0409.  Further record review revealed at 0324 the patient was given an intravenous (IV) fluid bolus and Zofran 4 mg IV per Physician #1's orders.  Review of nurse's notes revealed, "03:47...Patient remains stable....03:50...Pain Assessment...0/10 - Pain Free....03:56...Response to Medication...Feels better."  Review of Physician #1's notes (not timed) revealed, "Pt stable, tachycardia improved s/p (after) hydration.  Pt has (illegible) appt (appointment) w (with) (Hospital B) urology....r/o (ruled out) obvious evidence of infection.  Plan f/u (follow up) am today w specialist....Disposition - discharge....Condition - improved, stable."  Review of Physician #1's notes at 0642 revealed, "Discharge Diagnosis...Primary:  Vomiting, persistant  Secondary:  Weakness fatigue  Additional Diagnoses:  Headache."  Record review revealed at 0719 the patient was discharged    to home with prescriptions for Phenergan (antiemetic medication) and Zofran.  Record review revealed the patient was instructed to go to the outpatient clinic at Hospital B at 0900 on the same morning as discharge, to keep the appointment she already had with the specialist there.  Record review revealed no radiological diagnostic studies of the patient's abdomen were done on 01/31/2012 when the patient presented with persistent vomiting 14 days following surgery._x000D_
-_x000D_
-Closed medical record review for Patient #30 revealed the patient presented to Hospital A's DED again on 02/02/2012 at 1728 via private transportation (2 days after first visit).  Review of triage nurse's notes at 1739 revealed, "Pt arrived to front line triage via wheel chair with c/o chest and back pain.  Pt is vomiting at this time at triage desk.  Pt appears pale in color and recent surgery noted for [DIAGNOSES REDACTED]."  Record review revealed at 1733 the patient rated her pain to be a 10 out of 10.  Record review revealed an electrocardiogram (EKG) was done at 1743.  Record review revealed Physician #2 evaluated the patient at 1800.  Review of Physician #2's notes at 1800 revealed, "Pt here with nausea and vomiting since this past Saturday (01/29/2012).  She is S/P 'bladder surgery' this past January at (Hospital B).  Was seen here with similar complaints 2 days ago."  Record review revealed at 1802 the physician ordered the following lab studies:  CBC, CMP, and Lipase.  Record review revealed the patient was given intravenous fluids and Zofran 8 mg IV at 1825 per physician's orders.  Record review revealed the patient waited in the waiting room until 2148, at which time she was taken to a treatment room.  Review of nurse's notes at 2235 revealed, "...Pt states 0/10 cp (chest pain) @ this time, but states lower back pain...."  Record review revealed at 2330 Physician #3 reviewed lab and EKG results.  Record review revealed Physician #3 examined the patient at 2339.  Review of Physician #3's notes at 2339 revealed the patient complained of "aching" epigastric pain and vomiting for one day (patient was unsure of how many times she had vomited).  Review of Physician #3's notes at 2339 revealed the patient stated she had not had a bowel movement for 4-5 days.  Further review of Physician #3's notes at 2339 revealed the patient had a urostomy and had bladder resection with urine diversion surgery on 01/17/2012 at Hospital B.  Record review revealed a hemoccult test (swab of patient's stool checked for presence of blood) was done at on 02/03/2012 at 0245, per physician's orders, and was positive (blood present).  Record review revealed Physician #3 ordered an abdominal Xray at 0221.  Record review revealed the Xray was done at 0346.  Review of abdominal Xray results dictated by the radiologist at 0353 revealed, "...Impression:...Abnormal bowel gas pattern, findings suggesting possible developing small bowel obstruction...."  Further record review revealed at 0223 Physician #3 ordered an abdominal CT scan for "H/O (history of) Abdominal pain/Vomiting/Constipation."  Record review revealed the abdominal CT scan was done at 0721.  Review of CT scan results dictated by the radiologist at 0734 revealed, ""...Impression:  1.  Small bowel obstruction thought to be related to adhesions with a transition zone in the left pelvic region.  2.  Postoperative changes of what is thought to represent a cystectomy with ureteral stents extending through the ileal conduit into a collection bag without obstruction.  3.  Small right renal cyst.  4.  Prominent rectal fecal material."  Review of Physician #1's notes on 02/03/2012 at 1039 revealed, "Discharge Diagnosis...Primary:  Bowel Obstruction  Secondary:  Dehydration  Additional Diagnoses:  Renal failure, acute."  Record review revealed the patient was transferred to Hospital B for further treatment on 02/03/2012 at 1952 (3 days after the patient first presented to the DED with persistent vomiting 14 days following surgery).  _x000D_
-_x000D_
-Interview on 02/23/2012 at 1530 with Physician #1 revealed the physician recalled seeing Patient #30 in the DED on 02/03/2012.  Interview revealed when the physician saw the patient on 02/03/2012 he did not recognize her or recall that he had seen her before in the DED.  The physician reviewed the patient's medical record from the 01/31/2012 DED visit during the interview.  Interview revealed the patient (MDS) dated [DATE] with nausea and vomiting and "not feeling well".  Interview revealed the patient had an appointment later that same day to follow up with the specialist at the outpatient clinic at Hospital B.  Interview revealed, "She had a routine nausea/vomiting evaluation.  The (head) CT must have been done because of the headache she was having....The labwork showed she was slightly anemic and dehydrated.  It looks like after hydration in the ED she was feeling better....I do not see films (Xray studies) of her belly.  I didn't order any.  It depends on what direction they (patients) are going in whether or not I order radiology studies of the abdomen....Not everyone gets a big workup with nausea and vomiting....With her (Patient #30) I didn't go down the road of thinking it was infection or bowel obstruction.  If I was going down that road, I would have ordered an abdominal Xray, maybe even a CT....I don't know why I didn't go down that road."_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-  _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>462</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2406 ON7F11</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>CAPE FEAR VALLEY MEDICAL CENTER</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>340028</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>1638 OWEN DRIVE P O BOX 2000</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>FAYETTEVILLE</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" s="2" t="n">
-        <v>40864</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>ON7F11</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
         <is>
           <t>**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -13691,73 +13315,73 @@
 Interview on 11/17/2011 at 1100 with CPO #1 revealed she was the company police officer on duty 10/18/2011 when Patient #41 was escorted out of the DED lobby and arrested.  Interview revealed SO #1 called for assistance in the DED lobby.  Interview revealed when she arrived Patient #41 was sitting in a chair in front of the visitors' information desk (guest services desk).  Interview revealed the patient was acting out, using profanity, and was disruptive.  Interview revealed SO #1 stated RN #3 wanted the patient escorted off of the property because she would not move out from in front of the guest services desk and was cursing.  Interview revealed when the CPO arrived the patient was not appearing suicidal, homicidal or a danger to self or others.  Interview revealed the patient was verbally abusive, using profanity, and being loud.  Interview revealed, "If the Lead Charge Nurse wants a patient escorted off of the property then we do what the Charge Nurse requests regardless of medical treatment and condition."  Interview revealed she approached the patient while on her cell phone and she advised the patient she was going to have to leave because the hospital was requesting her to leave. Interview revealed the patient continued to talk on the cell phone telling someone "they are kicking me out of the hospital.  Can you come and pick me up".  Interview revealed the patient ignored the officer's request to leave 3-4 times.  Interview revealed the CPO informed Patient #41 if she did not leave she (CPO #1) would have to arrest her for trespassing.  Interview revealed the patient continued to ignore the CPO until she unsnapped her handcuff case to remove her handcuffs.  Interview revealed the patient then stood up and walked out of the DED lobby without assistance.  Interview revealed when the patient walked towards the exit doors the patient stated she was cold and was advised by her (CPO#1) that she (Patient #41) could hold onto the two blankets she had wrapped around her for right then.  Interview revealed, "(SO #1) stated, 'He (RN #3) wants the patient off the property.'"  Interview revealed CPO #1 advised the patient that she was to be escorted off hospital property.  Interview revealed as she escorted the patient off the property the patient was very argumentative and "venting."  Interview revealed the CPO and patient walked towards the smoking area where the patient wanted to wait for her ride.  Interview revealed the patient was informed she could not wait at the smoking area because it was still hospital property.  Interview revealed the patient was instructed by the CPO that she could wait at the bus stop or on the tobacco store property (not on hospital property).  Interview revealed the patient requested to wait at the tobacco store.  Interview revealed the CPO requested the patient to give back the two hospital blankets and the patient became argumentative.  Interview revealed the patient refused to give the blankets back.  Interview revealed the officer advised the patient if she did not give the blankets back she would be charged with larceny.  Interview revealed the patient refused to give back the blankets and the CPO grabbed for the blankets and retrieved one.  Interview revealed the patient refused to give her the second blanket.  Interview revealed the CPO reached for the other blanket and the patient went to grab for the CPO's hands.  Interview revealed the CPO then advised the patient she was under arrest.  Interview revealed she (CPO #1) struggled with the patient to get her into handcuffs.  Interview revealed SO #1 arrived and assisted with placing the patient into handcuffs.  Interview revealed the patient was escorted back to the CPO office.  Interview revealed the CPO initiated paperwork for the magistrate in preparation to take Patient #41 to jail.  Interview revealed the patient was searched and was being very difficult and verbally abusive.  Interview revealed while completing the paperwork for the magistrate, the patient started breathing heavy and complained of chest tightness.</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="106">
+      <c r="A106" t="n">
         <v>465</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>2406 E64I11</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>CAPE FEAR VALLEY MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F110" t="n">
+      <c r="F106" t="n">
         <v>340028</v>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>1638 OWEN DRIVE P O BOX 2000</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>FAYETTEVILLE</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="J110" t="n">
+      <c r="J106" t="n">
         <v>2406</v>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" s="2" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" s="2" t="n">
         <v>43082</v>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>E64I11</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -13805,73 +13429,73 @@
 </t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="107">
+      <c r="A107" t="n">
         <v>466</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>2406 DMLL11</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>IREDELL MEMORIAL HOSPITAL INC</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F111" t="n">
+      <c r="F107" t="n">
         <v>340039</v>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>557 BROOKDALE DR</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>STATESVILLE</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="J111" t="n">
+      <c r="J107" t="n">
         <v>2406</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" s="2" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" s="2" t="n">
         <v>41865</v>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>DMLL11</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -13895,73 +13519,73 @@
 </t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
         <v>2014</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="108">
+      <c r="A108" t="n">
         <v>467</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>2407 DMLL11</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>IREDELL MEMORIAL HOSPITAL INC</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F112" t="n">
+      <c r="F108" t="n">
         <v>340039</v>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>557 BROOKDALE DR</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>STATESVILLE</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="J112" t="n">
+      <c r="J108" t="n">
         <v>2407</v>
       </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" s="2" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" s="2" t="n">
         <v>41865</v>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>DMLL11</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -13987,73 +13611,73 @@
 </t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="n">
         <v>2014</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="109">
+      <c r="A109" t="n">
         <v>479</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>2406 GHSJ11</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>THE MOSES H CONE MEMORIAL HOSPITAL</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="F109" t="n">
         <v>340091</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>1200 N ELM ST</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>GREENSBORO</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="J113" t="n">
+      <c r="J109" t="n">
         <v>2406</v>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" s="2" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" s="2" t="n">
         <v>44373</v>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>GHSJ11</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
+      <c r="P109" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -14084,73 +13708,73 @@
 </t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="110">
+      <c r="A110" t="n">
         <v>503</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>2409 FBP511</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>LAKE HEALTH</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F110" t="n">
         <v>360098</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>7590 AUBURN ROAD</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>CONCORD</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>OH</t>
         </is>
       </c>
-      <c r="J114" t="n">
+      <c r="J110" t="n">
         <v>2409</v>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
         <is>
           <t>APPROPRIATE TRANSFER</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" s="2" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" s="2" t="n">
         <v>41339</v>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>FBP511</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -14204,366 +13828,73 @@
 </t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>517</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2405 724D11</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="n">
+        <v>527</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2406 U7G911</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>ST CHARLES REDMOND</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SACRED HEART MEDICAL CENTER - RIVERBEND</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F115" t="n">
-        <v>380040</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>1253 NW CANAL BLVD</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>REDMOND</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
+      <c r="F111" t="n">
+        <v>380102</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>3333 RIVERBEND DRIVE</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>SPRINGFIELD</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>OR</t>
         </is>
       </c>
-      <c r="J115" t="n">
-        <v>2405</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>EMERGENCY ROOM LOG</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" s="2" t="n">
-        <v>43503</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>724D11</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on interview, review of central log documentation, and review of policies and procedures, it was determined the hospital failed to fully develop and enforce EMTALA policies and procedures to ensure maintenance of a central log that contained clear and accurate information about the presentation and disposition of each patient who came to the hospital seeking emergency services, including women who presented to the Maternity Department in labor, or with possible EMCs related to pregnancy._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-1. The hospital policy and procedure titled "EMTALA Rights and Responsibilities, " dated as effective 06/29/2016 was reviewed. It reflected:_x000D_
-* "Each person who comes to the emergency department seeking treatment of a medical condition will be given an appropriate MSE ... the MSE will be performed by a QMP ... St. Charles will maintain in the electronic medical records system a central log on each individual who comes to the emergency department seeking assistance. The log will contain the patient's:_x000D_
-* Name_x000D_
-* Identification number_x000D_
-* Chief complaint_x000D_
-*Arrival date and time_x000D_
-* Disposition date and time_x000D_
-* Disposition type (e.g. refused treatment, was refused treatment, transferred, admitted     and treated, stabilized and transferred or discharged   )."_x000D_
-_x000D_
-2.  During interviews with the FBCM and the CNO on 02/06/2018 at 1715, the FBCM stated Patient 9 "was not registered into the computer system because the patient was here less than 2 minutes before being sent to Bend in his/her own vehicle."_x000D_
-_x000D_
-3. Review of the ED and OB Central Logs revealed that Patient 9, who presented to the hospital seeking emergency services, was not identified on the log as having been registered for emergency services on 11/23/2018. Refer to Tag A2406 for the detailed findings related to Patient 9._x000D_
-_x000D_
-4. The medical record of Patient 4 reflected that he/she (MDS) dated [DATE] at 1940 with a disposition of " Left AMA"and there was no chief complaint recorded in the OB Event log. Refer to Tag A2406 for the detailed findings related to Patient 4._x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>522</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2402 78J911</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>PROVIDENCE PORTLAND MEDICAL CENTER</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>380061</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>4805 NE GLISAN STREET</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PORTLAND</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>2402</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>POSTING OF SIGNS</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" s="2" t="n">
-        <v>43299</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>78J911</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on observation, interview and review of policies and procedures it was determined the hospital failed to fully develop and implement policies and procedures that ensured the posting of signage that specified patients' EMTALA rights in all areas likely to be noticed and where patients wait for examination and treatment. _x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-1. The PPMC policy and procedure titled "Emergency Treatment and Active Labor Act (EMTALA) Patient Transfers Between Facilities" dated as last revised "03/2018" contained the following reference to EMTALA signage: _x000D_
-* "Signage means the signs posted by the Hospital in its dedicated emergency department(s) and in a place or places likely to be noticed by all individuals entering the dedicated emergency department(s) that inform individual (sic) of their rights under EMTALA...Each Hospital will post signage in the dedicated emergency department specifying the rights of individuals with emergency medical conditions and women in labor who come to the dedicated ED for health care services, and indicate on the signs whether the hospital participates in the Medicaid program." _x000D_
-_x000D_
-The policy and procedure explicitly referred to the "dedicated emergency department" and thereby failed to address EMTALA signage in the Maternity Department where women in labor, or with other possible EMCs related to pregnancy, presented.    _x000D_
-_x000D_
-2. A tour of the ED department was conducted at 1035 on 07/17/2018 with the ED manager. It was observed that the department had one primary ambulatory entrance from outside the hospital, along with access to the ED registration area from 2 other internal hallway access points and one separate ambulance entrance. The main waiting area and the three triage rooms did not have any EMTALA signage posted. In addition, although there was an EMTALA sign observed on a wall behind the glass-enclosed registration desk, it was not readable as a result of glare from the glass barrier and its location behind the registration desk. These observations were confirmed during interviews with staff present during the ED tour._x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D__x000D_
-_x000D__x000D_
- _x000D__x000D_
-_x000D__x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>523</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2405 78J911</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>PROVIDENCE PORTLAND MEDICAL CENTER</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>380061</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>4805 NE GLISAN STREET</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PORTLAND</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>2405</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>EMERGENCY ROOM LOG</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" s="2" t="n">
-        <v>43299</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>78J911</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on review of central log documentation, and review of policies and procedures, it was determined the hospital failed to fully develop and enforce EMTALA policies and procedures to ensure maintenance of a central log that contained clear and accurate information about the presentation and disposition of each patient who came to the hospital seeking emergency services, including women who presented to the Maternity Department in labor, or with possible EMCs related to pregnancy._x000D_
-_x000D_
-Findings included:_x000D_
-_x000D_
-1.  The PPMC policy and procedure titled "Emergency Treatment and Active Labor Act (EMTALA) Patient Transfers Between Facilities" dated as last revised "03/2018" contained the following references to a central log:_x000D_
-* "Central log - Central log is a log maintained by the Hospital on each individual who comes to its dedicated emergency department...Central log. Each dedicated emergency department of the Hospital will maintain a central log recording the names of individuals who came to the dedicated emergency department seeking treatment and indicate whether these individuals refused treatment, were denied treatment, or were treated, admitted    , stabilized, and/or transferred or were discharged   ."_x000D_
-_x000D_
-The policy and procedure explicitly referred to the "dedicated emergency department" and thereby failed to ensure that women who presented to the Maternity Department in labor, or to rule out labor or other possible EMCs related to pregnancy, were included in the central log.   _x000D_
-_x000D_
-In addition, the PPMC policy and procedure titled "Perinatal Triage and Medical Screening Examination" dated as last revised "04/2017" lacked any references to the central log. An indirect reference was at the end of the policy and procedure under "Cross References" where the "Emergency Treatment and Active Labor Act (EMTALA) Patient Transfers Between Facilities" policy and procedure was listed.  _x000D_
-_x000D_
-2. The hospital's Maternity Department log was reviewed. The log was hand written and contained fifteen columns of for recording of information that included, but was not limited to: Date In; Time In; Patient Name; MD/CNM; Reason For Visit; Disposition; Date Out; Time out. _x000D_
-_x000D_
-A seventy-four-page sample of the log was reviewed that contained 1,024 patient entries between 06/01/2018 through 07/17/2018. Of the 1,024 entries 298 entries had multiple incomplete dates, blank spaces, omissions, alterations and inaccuracies. Examples included but were not limited to the following:_x000D_
-*One entry on the log dated "6/18" reflected blank spaces for date out and time out; and entries in the spaces for reason for visit and disposition had been altered and the original entry had been scribbled over and was not readable. _x000D_
-*One entry on the log dated "6/19" reflected five blank spaces including date out and time out; and entries in the spaces for patient name, MD/CNM, and birthdate had been altered with "White-out" and a write-over. . _x000D_
-*Three entries all dated "7/2" that had patient names and the majority of spaces completed for those patients had been entirely crossed out. _x000D_
-_x000D_
-_x000D_
-_x000D__x000D_
-_x000D__x000D_
- _x000D__x000D_
-_x000D__x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>527</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2406 U7G911</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>SACRED HEART MEDICAL CENTER - RIVERBEND</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>380102</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>3333 RIVERBEND DRIVE</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>SPRINGFIELD</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
+      <c r="J111" t="n">
         <v>2406</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" s="2" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" s="2" t="n">
         <v>44602</v>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>U7G911</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -14646,19 +13977,741 @@
 </t>
         </is>
       </c>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>546</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2409 62EZ11</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CONEMAUGH MEMORIAL MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>390110</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1086 FRANKLIN STREET</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>JOHNSTOWN</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>2409</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>APPROPRIATE TRANSFER</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" s="2" t="n">
+        <v>42328</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>62EZ11</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on a review of medical records (MR), facility documentation and interview with facility staff (EMP), it was determined that Conemaugh Memorial Medical Center failed to ensure a safe transfer with qualified medical personnel in 3 of 9 Emergency Department transfers (MR1, MR4 and MR6). _x000D_
+_x000D_
+Findings Include: _x000D_
+_x000D_
+Review of Rules &amp; Regulations of the Medical Staff of Memorial Medical Center, revised and approved Board October 27, 2015. "Rule 1. Patient Care. 1. Admission and Discharge of Patients.  A. The Memorial Medical Center shall accept all patients within the capabilities of the Medical Center who present themselves for care and treatment regardless of race, religion or national origin. ... I.  Patient Transfers - Patients are to be transferred from the following areas, on any given date, prior to any elective admissions that same day:  1.  Emergency Department to appropriate bed area; ... J.  Suicidal Patients - Consideration must be given to taking all necessary precautions in caring for suicidal patients, including placing them in maximum-security areas. ... ." _x000D_
+_x000D_
+Review of Life Point Health LL.027. EMTALA-Transfer Policy dated December 5, 2013.  "... Purpose: To ensure that a patient requesting or requiring a transfer for further medical care and follow-up in connection  with treatment for an emergency medical condition is transferred appropriately.  Policy: Each hospital must have written guidelines outlining the requirements for an appropriate transfer to another facility in accordance with federal and state laws.  Any transfer of an individual with an emergency medical condition must be initiated by a physician order with the appropriate physician certification.  The transfer of a patient shall not be predicted upon arbitrary, capricious or unreasonable discrimination based upon race, religion, national origin, age, sex, physical condition or economic status. ... Procedure: ... 3. The four requirements of an appropriate transfer must be met before a patient can be transferred to a second facility: a. The transferring hospital must, within its capability, provide treatment to minimize the risks to the health of the individual or unborn child; b. The receiving hospital must have available space and qualified personnel for the treatment of the individual, and must have agreed to accept the transfer and provide appropriate treatment; c. The transferring hospital must send copies of all available medical records pertaining to the individual's emergency medical condition to the hospital where the patient is being transferred. ... d. The transfer must be carried out through the use of qualified personnel and transportation equipment, including those life support measures that may be required during transfer.  The physician at the sending hospital has the responsibility of determining the appropriate mode, equipment and attendants for the transfer.  Patients should not be transferred by private vehicle, for risk management purposes. ... The transferring hospital should document its communication with the receiving hospital, including the date and time of the transfer request and the name of the person accepting the transfer; If the transfer is requested by the patient, the request must be in writing and must indicate the reason(s) for the request as well as indicate that the patient is aware of the risks and benefits of the transfer; The patient has been informed of the hospital's obligation to provide an emergency medical screening and the necessary stabilizing treatment; The receiving facility: a) has available space and qualified personnel for the treatment of the individual, and b) has agreed to accept the transfer of the individual and to provide appropriate medical treatment; and The individual agrees to the transfer. ... 9. The physician at the transferring hospital has the responsibility to determine appropriate mode of transportation, equipment and attendants necessary to effect a transfer to a receiving or recipient facility. ... ." (jb) _x000D_
+_x000D_
+Review of Consent For Treatment In The Department of Emergency Medicine policy and procedure dated December 2014.  "... Minors.  Minor patients may or may not establish consent.  A minor who understands the nature and consequences of treatment is capable of consenting if the minor is 18 years of age or older, graduated from high school, has married, has been pregnant, needs diagnosis or treatment of pregnancy or venereal disease, or is 14 years of age or older and requests psychiatric treatment.  In emergency situations treatment may be rendered without consent if in the opinion of the attending physician involved, an attempt to secure consent would result in a delay of treatment which could seriously increase the risk to the minor's life or health. ... ." _x000D_
+_x000D_
+Review of Purchase of Transport Services for ...  Transport Service revealed, "... This agreement is made between Conemaugh Memorial Medical Center ... and ...Transport Service for the provision of patient transportation 24 hours per day, 7 days per week ... for transfers from Conemaugh Memorial Medical Center to a specified destination in a safe, reliable and effective manner complying with medical, legal, and patient requirements.  II. Definitions: 1)  Basic Van- transport of a patient with or without a wheelchair.  2)  Basic Invalid Coach- transport of a patient via litter.  3)  Ambulance Rental - transport of a patient by ambulance with personnel from Conemaugh Memorial Medical Center accompanying the patient.  4)  BLS transport - patient requires transport with Emergency Medical Technician and requires basic life support care measures.  No personnel from Conemaugh Memorial Medical Center accompany the patient.  5)  ALS transport - patient requires transport with Paramedic and requires advanced life support care measures.  No personnel from Conemaugh Memorial Medical Center accompany the patient  ... VI.  Responsibilities of Provider.  V.  The transport service will supply suitable and safe transportation for all transports ... 6) All transport personnel are expected to conduct themselves in a professional manner in both conduct and appearance.  Interactions with patients, health care professionals and general public are expected to be courteous and respectful in alignment with MMC's CARING Values ... 8)  Transport personnel shall be duly licensed and certified, and shall maintain that status while performing services for and on behalf of MMC.  MMC has the right to request proof of licensure and certifications upon request.  9)  Transport service will provide upon request a criminal background check on personnel providing services for MMC.  MMC may have the right to bar an individual from providing service to or for MMC for 'cause' ... 11.  Attendance at quarterly meetings to be held by the transport personnel and the hospital personnel to discuss quality assurance issues and opportunities for improvement ... VII.  Responsibilities of the Hospital 1) MMC personnel, under the direction of a physician, will determine the mode of transport. ... ." (kw)_x000D_
+_x000D_
+1) MR1, MR4 and MR6 revealed no documented evidence that suicidal patients all under the age of 18 were transferred  in the company of a parent, a guardian or a responsible adult, in addition to the ... Transport Service driver. _x000D_
+_x000D_
+MR1, MR4 and MR6 also revealed inconsistencies between the mode of transportation that was documented in the Nurses Notes and the mode of transportation documented on the Transfer Consents. _x000D_
+_x000D_
+2) MR1 ER  FACESHEET dated November 11, 2015 revealed, "... Time of Arrival: 1231 ... Time in Room: 1323 ... Age: 13 ... Chief Complaint: Eval ... Triage Priority: 3 ... Time: 1235 ... Additional Orders: PAC called ... 2242: Bactrim DS PO x 1, Hydroxyzine 50mg PO x 1,  Prazosin 1 mg PO x 1 ... Time Seen by Provider: 1350 ... Condition: Stable ... Check out time: 0206 ... Disposition: ... Transfer ... Diagnosis: [blank] ... ." _x000D_
+_x000D_
+MR1 emergency room    physician documentation dated November 11, 2015 revealed, "... Chief Complaint: Is evaluation.  History of Present Illness: [Patient]  is a [AGE]-year-old who presents from the ... Home, states that patient has been suicidal for 5 years and this afternoon was found to be in bed with a belt from a robe tied around their neck in a bow. ... Diagnostic Impression: 1.  Suicidal ideation. ... Disposition: Admit to Psychiatry and transfer with a bed search underway. ... ." _x000D_
+_x000D_
+MR1 ER  Primary Nurse Note dated November 11, 2015 revealed, "... 0206: Pt transported to Southwood with ... Transport Service.  Southwood called &amp; updated with ETA. ... ." _x000D_
+_x000D_
+MR1 Memorial Medical Center Transfer Consent To Acute Care Hospital dated November 1, 2015 at 10:35 PM revealed, "... Person Completing: [EMP28] ... Mode of Transportation: Ambulance: BLS ... ." _x000D_
+_x000D_
+3) MR4 ER  FACESHEET revealed, "Date: 10/26/2015 ... Time of Arrival: 1332 ... Time in Room: 1335 ... Age: 15 ... Chief Complaint: Eval ... Triage Priority: 3 ... Time: 1332 ... Time Seen by Provider: 1345 ... Condition: Stable ... Diagnosis: 1. Suicidal Ideation ... Check out time: 0942 ... Disposition: Observation ... Primary Nurse Note revealed ... 0850: Pt to be transferred to Latrobe Hospital.  Awaiting precert. ... 0942: Report to ... receiving facility  ...  Transport Service here to transport. ... .  MR4 Memorial Medical Center Transfer Consent:  To Acute Care Hospital ... Mode of Transportation: Ambulance: BLS. ... ." _x000D_
+_x000D_
+4) MR6 ER  FACESHEET revealed, "Date: 07/30/2015 ... Time of Arrival: ... 1830 ... Time in Room: 1837 ... Age: 14 ... Chief Complaint: evaluation ... Triage Priority: 3 ... Time: 1830 ... Time Seen by Provider: 1841 ... Condition: Stable ... Diagnosis:  1. SI ... Check out time: 0153 ... Disposition: Transfer ... MR6 Primary Nurse Note revealed, ... 0117: ... Transport Service notified. Will transport pt ... MR6 Memorial Medical Center Transfer Consent: To Acute Care Hospital ... Mode of Transportation: Ambulance: BLS. ... ."_x000D_
+_x000D_
+_x000D_
+5) Facility documentation from EMP30 dated November 19, 2015 at 11:34 AM revealed, "... Per our conversation regarding chaperones/family accompaniment, I couldn't find any documentation to show that chaperones or family members went with MR1, MR4 or MR6. _x000D_
+_x000D_
+6) A telephone interview was conducted with EMP27 on November 6, 2015, at 2:30 PM.   "... We regularly use the van for all patient transports.  Families could follow behind the van.   _x000D_
+_x000D_
+A second telephone interview was conducted with EMP27 on November 17, 2015 at approximately 3:20 PM.   "... The physician doesn't tell us how they want the patient to go. The mode of transportation and arrangements are determined by us, the Psychiatric Assessment Coordinators." _x000D_
+_x000D_
+6) A telephone interview was conducted with EMP28 on November 6, 2015, at 3:14 PM.  "... I made the arrangements for transport, that was around 10:00 or 11:00 PM.  We transfer children to other facilities on a daily basis.  Several of these children have gone with just a van driver.  Their parents can follow behind.  ... Transport Service does not normally allow the parents to ride with them.  Normally it's just the patient and the driver.  ... Transport Service is our 'go to' for transport.  Their driver could not get to us until after dropping off another patient.  I don't think there was any reason why we had to send the patient out at 2:00 AM, but they had already been there so long and the ER  was ready to have the patient move on."  _x000D_
+_x000D_
+A second telephone interview was conducted with EMP28 on November 16, 2015, at 10:20 AM.   "... Transport Service is our 'go to' transport company. The doctors tell us, the PACs,  to arrange for patient transportation. They don't specify how they want the patients to go.   There is an option on the Consent to Transfer to select 'ambulance' and I do believe that it was checked on MR1.  I checked BLS because I thought it was the least restrictive. MR1 didn't have a medical need, they just needed a driver."  _x000D_
+_x000D_
+7) An interview was conducted with  EMP10 on November 12, 2015, at approximately 12:45 PM.  "... EMP9, the patient's primary nurse had another patient who required an ICU transfer.  EMP9 saw the patient and their Care Giver from the ... Residence home walking out to get in the van.  EMP9 thought that since the ... Residence Care Giver was carrying the patient's bags, that they were going to ride along with the patient ... We have no specific policy related to the transfers of minors. ... It happens with other under age children, we have been sending them with just the driver transporting." _x000D_
+_x000D_
+8) A telephone interview was conducted with EMP9 on November 17, 2015, at 8:10 AM.   "MR1's legal guardian, ... , was never present.  I guess I assumed that the ... Residence Care Giver was going along with patient.  The ... Residence staff was carrying the patient's belongings. ...  I do not typically document who accompanied the patient when they are being  transferred. ... ." _x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>548</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2400 3W7M11</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MEADVILLE MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>390113</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>751 LIBERTY STREET</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>MEADVILLE</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>COMPLIANCE WITH 489.24</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" s="2" t="n">
+        <v>41264</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>3W7M11</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on review of facility documents and medical records (MR), and staff interviews (EMP), it was determined the provider failed to abide by its agreement to provide an appropriate medical screening exam to any individual who comes to the emergency department for two of 25 medical records (MR1 and MR24).._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+_x000D_
+Review of the Meadville Medical Center Emergency Department Rules and Regulations  revealed, "Section 2-Patient Care  The status of patients seen in the Emergency Department is determined by the physician on duty at that time.  Any patient seeking emergency services must be offered an appropriate medical screening examination to determine whether or not an emergency medical condition exists...  B.  Emergency Cases.  If an emergency medical condition is found, the hospital must either:  1.  Provide stabilizing treatment within its capabilities or 2.  If the patient cannot be stabilized, the hospital must arrange for an appropriate transfer...  C.  Non-Emergent Cases.  1.  Such patients will be evaluated by the emergency physician and treated appropriately..." _x000D_
+_x000D_
+Review of Administrative Policy A-123.1  "Emergency Medical Treatment and Labor Act (EMTALA) Policy," published August 30, 2012, revealed, "It is the policy of the Meadville Medical Center that any patient who comes to MMC, is on hospital property and requesting emergency services, is entitled to and will receive a medical screening examination performed by individuals qualified to perform such examination to determine whether an emergency medical condition exists, without regard to a patient's ethnicity, religion, national origin, citizenship, age, gender, pre-existing medical condition(s), physical or mental disability, insurance status, economic status, or ability to pay for medical services...  Procedure:  All patients who come to the Medical Center requesting emergency medical examination or treatment shall receive an appropriate medical screening examination in the dedicated emergency department or departments that serve as the access point for someone in need of emergency care for a psychiatric or pregnancy-relations condition...  Once the medical screening examination is completed and it has been determined that the patient does not have an emergency medical condition or that the emergency medical condition has been stabilized, the patient may be:  A.  treated for their non-emergency medical condition; or B.  discharged    with a reasonable plan for appropriate follow up care and discharge instructions; or C.  transferred for continued care..."   _x000D_
+_x000D_
+Review of Administrative Policy A-100, Patients Rights and Responsibilities, published 10/24/2012, revealed, "Patients have the right to:  -Receive a medical screening exam to determine treatment..."  _x000D_
+_x000D_
+1.  Review of MR1 on December 19, 2012, revealed the patient presented to the Emergency Department (ED) on November 11, 2012, at 5:29 PM with a chief complaint of "HIV test sent by city police."  Review of the medical record failed to reveal any documentation by the triage nurse.  The admitted   and time and discharge date    and time revealed the same time of November 11, 2012, at 5:29 PM.  The Emergency Department log revealed MR1 left without being seen or triaged._x000D_
+_x000D_
+Review of facility documentation revealed MR1 contacted the facility on November 12, 2012, initially with concerns unrelated to EMTALA.  Additional information revealed, "The mother states that a male nurse came into the waiting area next to the triage window and told them that they wouldn't see [him/her] in the ED because it wasn't an emergency.  They were told to follow up with their family physician.  [the mother] stated that [son/daughter] was visibly distraught and that the staff did nothing nor offered [him/her] the opportunity to speak with someone.  The mother states that the nurse spoke to them about HIV testing, treatment and prognosis in the middle of the waiting room..." _x000D_
+_x000D_
+Review of security films from November 11, 2012, revealed a staff person came from the ED to speak with the patient and mother at 5:35 PM, left the waiting area of the ED at 5:40 PM, and the patient and his/her mother left at 5:41 PM._x000D_
+_x000D_
+Interview on December 20, 2012, at 9:37 AM with EMP10 revealed that to the best of his/her recollection, he/she had been working in the back (ED) when EMP8 stated that someone had presented for an HIV test.  "[EMP8] came back to see if I would see [MR1].  I said yes but there would be no guarantee of any testing.  I would be happy to see [him/her], or [he/she] could follow-up with the PCP."  EMP10 added, "I thought [MR1] was here for a lab test.  I did not know [he/she] was seeking emergency care."_x000D_
+_x000D_
+Interview on December 20, 2012, at 9:55 AM with EMP8 revealed, "I saw it pop up on the screen that the patient [MR1] was requesting an HIV test.  I went out to speak with the patient and [his/her] mother...  I told them we don't do random testing but they could see the doctor but there was no guarantee of testing...  They asked me if there were any options.  I said [he/she] could see [his/her] PCP or stay and see our doctor...  [He/she] said it was hard to get in to see their PCP, so I said they could follow up with our infectious disease doctor..."_x000D_
+_x000D_
+2.  Review of MR24 on December 20, 2012, revealed the patient presented on   September 5, 2012, at 8:36 PM with the chief complaint of possible sexual assault.  The admission time and discharge time were documented as the same time.  There was no documentation in the medical record of triage or a medical screening being performed.  Review of additional facility documentation revealed MR24 was transferred to another hospital.  When questioned on December 20, 2012, at 2:55 PM about where that information (regarding the transfer) was obtained,  EMP2 stated that the sexual abuse nurse at Meadville Medical Center is not trained to examine minors under [AGE].  There was documentation in the "T" system [which is not part of the electronic medical record] that the physician transferred the patient to the other hospital.  EMP2 confirmed there was no documentation in the medical record of a screening exam or documentation of a  transfer, "It was at least an inappropriate transfer."_x000D_
+_x000D_
+3.  Review of MR26 (the medical record from the receiving hospital to which MR24 was sent) on December 21, 2012, revealed, "... so they went to Meadville Med Ctr and were told there that they would not examine her because she is less than [AGE] years old..." _x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>549</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2406 3W7M11</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MEADVILLE MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>390113</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>751 LIBERTY STREET</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>MEADVILLE</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" s="2" t="n">
+        <v>41264</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>3W7M11</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
+_x000D__x000D_
+Based on review of facility documents and closed medical records (MR), and staff interviews (EMP), it was determined that Meadville Medical Center failed to provide an appropriate medical screening examination for two of 25 Emergency Department medical records reviewed (MR1 and MR24)._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+Review of the Meadville Medical Center Emergency Department Rules and Regulations  revealed, "Section 2-Patient Care  The status of patients seen in the Emergency Department is determined by the physician on duty at that time.  Any patient seeking emergency services must be offered an appropriate medical screening examination to determine whether or not an emergency medical condition exists...  B.  Emergency Cases.  If an emergency medical condition is found, the hospital must either:  1.  Provide stabilizing treatment within its capabilities or 2.  If the patient cannot be stabilized, the hospital must arrange for an appropriate transfer...  C.  Non-Emergent Cases.  1.  Such patients will be evaluated by the emergency physician and treated appropriately..." _x000D_
+_x000D_
+Review of Administrative Policy A-123.1  "Emergency Medical Treatment and Labor Act (EMTALA) Policy," published August 30, 2012, revealed, "It is the policy of the Meadville Medical Center that any patient who comes to MMC, is on hospital property and requesting emergency services, is entitled to and will receive a medical screening examination performed by individuals qualified to perform such examination to determine whether an emergency medical condition exists, without regard to a patient's ethnicity, religion, national origin, citizenship, age, gender, pre-existing medical condition(s), physical or mental disability, insurance status, economic status, or ability to pay for medical services...  Procedure:  All patients who come to the Medical Center requesting emergency medical examination or treatment shall receive an appropriate medical screening examination in the dedicated emergency department or departments that serve as the access point for someone in need of emergency care for a psychiatric or pregnancy-relations condition...  Once the medical screening examination is completed and it has been determined that the patient does not have an emergency medical condition or that the emergency medical condition has been stabilized, the patient may be:  A.  treated for their non-emergency medical condition; or B.  discharged    with a reasonable plan for appropriate follow up care and discharge instructions; or C.  transferred for continued care..."   _x000D_
+_x000D_
+Review of Administrative Policy A-100, Patients Rights and Responsibilities, published 10/24/2012, revealed, "Patients have the right to:  -Receive a medical screening exam to determine treatment..."  _x000D_
+_x000D_
+1.  Review of MR1 on December 19, 2012, revealed the patient presented to the Emergency Department (ED) on November 11, 2012, at 5:29 PM with a chief complaint of "HIV test sent by city police."  Review of the medical record failed to reveal any documentation by the triage nurse.  The admitted   and time and discharge date    and time revealed the same time of November 11, 2012, at 5:29 PM.  The Emergency Department log revealed MR1 left without being seen or triaged._x000D_
+_x000D_
+Review of facility documentation revealed MR1 contacted the facility on November 12, 2012, initially with concerns unrelated to EMTALA.  Additional information revealed, "The mother states that a male nurse came into the waiting area next to the triage window and told them that they wouldn't see [him/her] in the ED because it wasn't an emergency.  They were told to follow up with their family physician.  [the mother] stated that [son/daughter] was visibly distraught and that the staff did nothing nor offered [him/her] the opportunity to speak with someone.  The mother states that the nurse spoke to them about HIV testing, treatment and prognosis in the middle of the waiting room..." _x000D_
+_x000D_
+Review of security films from November 11, 2012, revealed a staff person came from the ED to speak with the patient and mother at 5:35 PM, left the waiting area of the ED at 5:40 PM, and the patient and his/her mother left at 5:41 PM._x000D_
+_x000D_
+Interview on December 20, 2012, at 9:37 AM with EMP10 revealed that to the best of his/her recollection, he/she had been working in the back (ED) when EMP8 stated that someone had presented for an HIV test.  "[EMP8] came back to see if I would see [MR1].  I said yes but there would be no guarantee of any testing.  I would be happy to see [him/her], or [he/she] could follow-up with the PCP."  EMP10 added, "I thought [MR1] was here for a lab test.  I did not know [he/she] was seeking emergency care."_x000D_
+_x000D_
+Interview on December 20, 2012, at 9:55 AM with EMP8 revealed, "I saw it pop up on the screen that the patient [MR1] was requesting an HIV test.  I went out to speak with the patient and [his/her] mother...  I told them we don't do random testing but they could see the doctor but there was no guarantee of testing...  They asked me if there were any options.  I said [he/she] could see [his/her] PCP or stay and see our doctor...  [He/she] said it was hard to get in to see their PCP, so I said they could follow up with our infectious disease doctor..."_x000D_
+_x000D_
+2.  Review of MR24 on December 20, 2012, revealed the patient presented on   September 5, 2012, at 8:36 PM with the chief complaint of possible sexual assault.  The admission time and discharge time were documented as the same time.  There was no documentation in the medical record of triage or a medical screening being performed.  Review of additional facility documentation revealed MR24 was transferred to another hospital.  When questioned on December 20, 2012, at 2:55 PM about where that information (regarding the transfer) was obtained,  EMP2 stated that the sexual abuse nurse at Meadville Medical Center was not trained to examine minors under [AGE].  There was documentation in the "T" system [which is not part of the electronic medical record] that the physician transferred the patient to the other hospital.  EMP2 at that time confirmed there was no documentation in the medical record of a screening exam or documentation of a  transfer, "It was at least an inappropriate transfer."_x000D_
+_x000D_
+3.  Review of MR26 (the medical record from the receiving hospital  to which MR24 was sent) on December 21, 2012, revealed, "... so they went to Meadville Med Ctr and were told there that they would not examine her because she is less than [AGE] years old..." _x000D_
+_x000D_
+Cross reference with 489.24(e)(1)(2) Appropriate transfer._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>554</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2406 0SI711</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>WARREN GENERAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>390146</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>TWO CRESCENT PARK WEST</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>WARREN</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>0SI711</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D__x000D_
+_x000D__x000D_
+Based on review of facility documentation and medical records (MR), as well as employee interviews (EMP), it was determined that the facility failed to provide a medical screening examination within the capabilities of the hospital's Emergency Department (ED) for one of two patients presenting for alleged sexual assault (MR1)._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+Review, at approximately 1:12 PM on August 30, 2016, of the "Warren General Hospital  Medical Staff Rules and Regulations &amp; Allied Health Professional Rules and Regulations," updated March 27, 2015, revealed, "... I.  Medical Staff Policies ... C.  Transfer Orders.  3. To Other Healthcare Facility. ... No patient who presents with an emergency medical condition (including a woman in labor) shall be transferred who has not received a medical screening examination and appropriate stabilization."_x000D_
+_x000D_
+Review, at approximately 1:23 PM on August 30, 2016, of Policy #101.18, EMTALA Compliance Plan, effective December 2, 2009, revealed, "... Warren General Hospital shall comply with the Emergency Medical Treatment and Active Labor Act (EMTALA) and all other federal and state laws governing the treatment of persons with emergency medical conditions.  Medical Screening Examination  Warren General Hospital will provide an appropriate medical screening examination to any individual who presents to the hospital for emergency care. ... The medical record must reflect continued monitoring, according to the individual's needs, until it is determined whether or not the individual has an emergency medical condition, and, if the individual has an emergency medical condition, until the individual is stabilized or appropriately transferred.  The medical screening examination must be conducted in a non-discriminatory manner.  The individual shall not receive a different level of care based upon the patient's ability or inability to pay.  The medical screening examination shall be performed by qualified medical personnel."    _x000D_
+_x000D_
+Review, at approximately 1:50 PM on August 30, 2016, of Policy #1207-d-R, Sexual Assault, revised December 9, 2005, revealed, "Policy:  To provide victims of sexual assault with prompt, comprehensive, and professional treatment while respecting their need for privacy.  Procedure:  As soon after arrival as possible, a victim of sexual assault should be placed in a private examination room.  The screening nurse should take a brief history to the events of the assault. History should be limited to a very brief description of the events surrounding the assault including date, time and location of assault. Medical history per screening policy #1202-R should be obtained.  Patients should be screened for any injuries needing emergency treatment. ... Any individual who identifies herself/himself as a victim of sexual assault that occurred within the previous 120 hours should be asked if she/he wishes to be seen by a Sexual Assault Nurse Examiner (SANE). If the patient refuses, the ECC physician will see that patient.  Patients identified with need for emergency treatment for injuries received as a result of a sexual assault will be evaluated by the ECC physician, initially.  The SANE nurse will perform a detailed history and forensic exam with the intent of collecting evidence under the auspices of the ECC physician, and will document all findings thoroughly. ... The interview and the forensic examination will be done after the arrival of a police officer.  A careful assessment will be done with particular attention to the events prior to and during the assault, the time of assault, the clothing worn, and any bathing since the event. ... Specimens will be collected in conjunction with the guidelines of the Tri-Tech Sexual Assault Evidence Kit, or a suitable alternative.  After the examination is complete, all specimens are appropriately labeled, and the chain of evidence is transferred to the investigating officer.  Initial testing will include serum pregnancy test for any female of childbearing age.  Urine drug screen and Rohypnol testing may be done when appropriate.  The Pennsylvania Department of Health or the primary care physician should do testing for sexually transmitted diseases, including HIV, on follow-up within 2 weeks.  Preventative medical care will be provided through the offering of the following medication(s):  Ceftriaxone 125-250 mg IM in a single dose  Metronidazole 2 gm orally BID x 7 days  Doxycycline 100 mg orally BID x 7 days  Azithromycin 1 gm PO in a single dose  Cipro 500 mg PO in a single dose  Plan B one tablet PO STAT and repeat in 12 hours, if pregnancy test is negative  HIV prophylaxis at discretion of the SANE/ECC physician ..."  _x000D_
+_x000D_
+1.  Review of MR1 revealed that the patient presented on   July 23, 2016, at 2:21 AM for an alleged sexual assault.  Review of the record revealed no documentation of a SANE assessment or internal examination of the patient.  The record further revealed no initial testing and preventative medical care as per facility policy.   _x000D_
+_x000D_
+2.  Review of the physician physical examination revealed, "PHYSICAL EXAM ... No overt lacerations noted on external examination only. ... EMERGENCY COURSE  Urinalysis was obtained as [MR1] had to urinate here in the ER.  I discussed the case with the [Tertiary Hospital] Nurse OTH4 and it was agreed the patient would be sent to [Tertiary Hospital] for evaluation by the SANE nurse on call tonight. ... Education/Counseling provided: Patient, family Provided Edu/Counseling on: Diagnosis, Treatment, Prognosis, need for follow up ... Primary Impression: Reported sexual assault.  Transferred to Go to [Tertiary Hospital] and be evaluated by the SANE nurse on-call.  Condition: Stable."  The documentation was electronically signed by EMP1 on July 23, 2016, at 3:38 AM.  _x000D_
+_x000D_
+3.  Between 8:50 AM and 9:30 AM on August 31, 2016, an interview was conducted with EMP10.  EMP10 confirmed that the ED used to have a SANE nurse, but no longer does.  When asked the last time the facility had a SANE nurse, EMP10 stated, "I believe EMP11 was our last certified SANE nurse; and [he/she] left ... in July [2016] some time. ... We don't have anyone who is certified at this time."  When asked if the ED is still capable of performing a sexual assault examination, EMP10 stated, "Yes."  When asked if [he/she] has sat in on an examination as a second staff person in the past, EMP10 stated, "Yes."  When asked if the examination typically includes an examination of exterior and interior damage, EMP10 stated, "Yes."  When asked if the ED physician performs the external and internal examinations, EMP10 stated, "Yes ... I believe if the SANE nurse has that specific training and been through so many classes ... there are some SANE nurses that are able to do that."  EMP10 confirmed that ED physician is able to perform both internal and external examinations.  Upon identifying MR1 and asking about [his/her] recollection of the case, EMP10 stated, "Vaguely.  I knew there was one [pediatric sexual assault case], but I don't believe I was here."  When asked if [he/she] could identify, within the medical record, an internal examination of the patient, EMP10 confirmed there was an external examination only.  EMP10 added, "I believe that according to this (MR1), an internal exam was not done. ... Actually, I do not believe that we have pediatric speculums. ... We have small adult [speculum], ... but I do not believe we have any pediatric ones.  I don't believe we have the equipment for that [pediatric internal examination]."  Upon reviewing the medical record, EMP10 stated, "This patient, looks like [he/she] had a UA [urinalysis] and a culture."  When asked if there would typically have been testing for positivity of drugs and/or alcohol in the patient's system, EMP10 stated, "Generally, if it's an adult, and the patient said someone slipped them something, yes, we do [tests for substances/alcohol]."  When asked if it could have been possible that the patient in question could have been drugged by the perpetrator, EMP10 stated, "Yeah, I suppose."  _x000D_
+_x000D_
+4.  Review of MR2 revealed that the patient presented to the Warren General ED in February 6, 2016, for an alleged sexual assault.  On August 31, 2016, at approximately 9:08 AM, when asked what type of care was provided to this patient, EMP10 reviewed the medical record and stated, "This one, it appears they did the assault interview, ... very thorough. ... This assessment, wasn't on the other one (MR1). ... Sexual interview ..."  When asked if the patient's examination would have been internal and/or external, EMP10 stated that there was no SANE nurse called for this patient.  When asked if there was a SANE nurse available at the time the patient presented, EMP10 stated, "We could have.  If there was a SANE nurse working, they would do it, but we don't [didn't] have a SANE nurse on-call."  EMP10 confirmed that full examination [internal] was offered and lab testing was done for the patient.  EMP10 further confirmed that the facility does have a supply of rape kits stating, "... Yes.  They're kept in a locked cabinet."  When asked if there was a policy or internal memo explaining how the ED was to function without a SANE nurse, EMP10 stated, "I don't know of revisions."  _x000D_
+ _x000D_
+5.  Between 10:07 AM and 10:30 AM on August 31, 2016, a telephone interview was conducted with EMP1.  When asked about [his/her] recollection of the primary case [MR1], EMP1 stated, "I remember it pretty well.  We don't see many [age of the patient-pediatric] come through that get assaulted that often."  EMP1 confirmed that Warren no longer has SANE nurses.  When asked what portion of the examination is done by the ED physician versus the SANE nurse, EMP1 stated, "During my training, before SANE nurses were out, you could do your own sexual assault exam from beginning to end.  You take care of them just the same way SANE nurses do. ... If there wasn't a SANE nurse available, I could do the examination from beginning to end. ... That is before [SANE nurses]."  EMP1 added, "SANE nurses now do a much better job. ... It's kind of a higher level of care, if you will. ... SANE nurses have a higher level of knowledge at [specimen] collection. ... They dot all the I's and cross all the T's better. ... I don't do sexual assault exams anymore. ... I think that that's a feeling amongst most ER  physicians at this time, that if there is a sexual assault, you want to try to get your patient to a SANE nurse, because you have a better chance at catching a perp if a SANE nurse does it [internal and external examination]. ... SANE nurses, I think that is the direction that most ER  professional head to, if they're available."  When asked if there would still be some ED physicians that will do the sexual assault examinations, EMP1 stated, "I think most of my colleagues feel the same way that I just expressed.  I can't imagine any of my colleagues do them [sexual assault examinations] any more."  When explained that the external examination only was noted on MR1, EMP1 confirmed that the internal examination is left for the SANE nurse to complete.  EMP1 added, "Especially at [Tertiary Hospital] ... most SANE nurses know how to use a Culpo scope. ... [Tertiary Hospital] has ... a pediatrician or pediatric gynecologist that do pediatric sexual assaults in their office, ... They have a practice dedicated to the pediatric sexual assault victims."  EMP1 stated, "I made sure [MR1] wasn't significantly injured. ... vital signs, that kind of thing. ... If you were going to do the complete [exam], that's what you would do [laboratory testing]. ... If you're going to send them to the SANE nurse, that's what they would do [laboratory testing]. ... In the ED, the SANE nurse has a protocol/policy that they follow.  There is an order on the [Health System for Tertiary Hospital] system that would include all of that stuff.  I'm not sure who exactly signs for that eventually."  Regarding the primary case patient, EMP1 stated, "I'm not sure that we did anything with [him/her].  We may have gotten a urine. ... I think [he/she] had to pee, so we got a urinalysis. ..." When asked what information, regarding the patient's care at Warren, was conveyed to [Tertiary Hospital], EMP1 stated, "My evaluation, ... I explained to the nurse that I did a brief external exam. ... I don't think we sent a copy of the lab work, because I don't think that we had it back."  EMP1 added, "We took as good of care of that patient as we could. ... I'm confused as to why this has turned into an EMTALA investigation."   _x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>555</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2407 0SI711</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>WARREN GENERAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>390146</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>TWO CRESCENT PARK WEST</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>WARREN</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>2407</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>STABILIZING TREATMENT</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>0SI711</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D__x000D_
+_x000D__x000D_
+Based on review of facility documentation and medical records (MR), as well as employee interviews (EMP), it was determined that the facility failed to provide further examination and stabilizing treatment within the capabilities of the hospital's Emergency Department (ED) for one of two patients presenting for alleged sexual assault (MR1)._x000D_
+_x000D_
+Findings include:_x000D_
+_x000D_
+Review, at approximately 1:12 PM on August 30, 2016, of the "Warren General Hospital  Medical Staff Rules and Regulations &amp; Allied Health Professional Rules and Regulations," updated March 27, 2015, revealed, "... I.  Medical Staff Policies ... C.  Transfer Orders.  3. To Other Healthcare Facility. ... No patient who presents with an emergency medical condition (including a woman in labor) shall be transferred who has not received ... appropriate stabilization."    _x000D_
+_x000D_
+Review, at approximately 1:23 PM on August 30, 2016, of Policy #101.18, EMTALA Compliance Plan, effective December 2, 2009, revealed, "... Warren General Hospital shall comply with the Emergency Medical Treatment and Active Labor Act (EMTALA) and all other federal and state laws governing the treatment of persons with emergency medical conditions. ... If the individual has an emergency medical condition, the hospital with either (i) provide any necessary stabilizing treatment, or (ii) transfer the individual to another facility, or (iii) admit the patient for inpatient or observation services. ... The medical record must reflect continued monitoring, according to the individual's needs, until it is determined whether or not the individual has an emergency medical condition, and, if the individual has an emergency medical condition, until the individual is stabilized or appropriately transferred.  _x000D_
+_x000D_
+Review, at approximately 1:50 PM on August 30, 2016, of Policy #1207-d-R, Sexual Assault, revised December 9, 2005, revealed, "Policy:  To provide victims of sexual assault with prompt, comprehensive, and professional treatment while respecting their need for privacy.  Procedure:  As soon after arrival as possible, a victim of sexual assault should be placed in a private examination room.  The screening nurse should take a brief history to the events of the assault. History should be limited to a very brief description of the events surrounding the assault including date, time and location of assault. Medical history per screening policy #1202-R should be obtained. Patients should be screened for any injuries needing emergency treatment. ... Any individual who identifies herself/himself as a victim of sexual assault that occurred within the previous 120 hours should be asked if she/he wishes to be seen by a Sexual Assault Nurse Examiner (SANE). If the patient refuses, the ECC physician will see that patient.  Patients identified with need for emergency treatment for injuries received as a result of a sexual assault will be evaluated by the ECC physician, initially.  The SANE nurse will perform a detailed history and forensic exam with the intent of collecting evidence under the auspices of the ECC physician, and will document all findings thoroughly. ... A careful assessment will be done with particular attention to the events prior to and during the assault, the time of assault, the clothing worn, and any bathing since the event. ... Specimens will be collected in conjunction with the guidelines of the Tri-Tech Sexual Assault Evidence Kit, or a suitable alternative.  After the examination is complete, all specimens are appropriately labeled, and the chain of evidence is transferred to the investigating officer.  Initial testing will include serum pregnancy test for any female of childbearing age.  Urine drug screen and Rohypnol testing may be done when appropriate.  The Pennsylvania Department of Health or the primary care physician should do testing for sexually transmitted diseases, including HIV, on follow-up within 2 weeks.  Preventative medical care will be provided through the offering of the following medication(s):  Ceftriaxone 125-250 mg IM in a single dose  Metronidazole 2 gm orally BID x 7 days  Doxycycline 100 mg orally BID x 7 days  Azithromycin 1 gm PO in a single dose  Cipro 500 mg PO in a single dose  Plan B one tablet PO STAT and repeat in 12 hours, if pregnancy test is negative  HIV prophylaxis at discretion of the SANE/ECC physician ..."  _x000D_
+_x000D_
+1.  Review of MR1 revealed that the patient presented on   July 23, 2016, at 2:21 AM for an alleged sexual assault.  Review of the record revealed no documentation of a SANE assessment or internal examination of the patient.  The record further revealed no initial testing and preventative medical care as per facility policy.   _x000D_
+_x000D_
+2.  Review of the physician documentation revealed, "EMERGENCY COURSE  Urinalysis was obtained as [MR1] had to urinate here in the ER.  I discussed the case with the [Tertiary Hospital] Nurse OTH4 and it was agreed the patient would be sent to [Tertiary Hospital] for evaluation by the SANE nurse on call tonight. ..."  The documentation was electronically signed by EMP1 on July 23, 2016 at 3:38 AM.  _x000D_
+_x000D_
+3.  Between 8:50 AM and 9:30 AM on August 31, 2016, an interview was conducted with EMP10.  Upon identifying MR1 and asking about [his/her] recollection of the case, EMP10 stated, "Vaguely.  I knew there was one [pediatric sexual assault case], but I don't believe I was here."  EMP10 went on to stated, "[EMP1] discussed the case with a [Tertiary Hospital] nurse. ... It was agreed that the patient would be sent to [Tertiary Hospital] to be seen by the SANE nurse on-call. ..."  Upon reviewing the medical record, EMP10 stated, "This patient, looks like [he/she] had a UA [urinalysis] and a culture."  When asked if there would typically have been testing for positivity of drugs and/or alcohol in the patient's system, EMP10 stated, "Generally, if it's an adult, and the patient said someone slipped them something, yes, we do [tests for substances/alcohol]."  When asked if it could have been possible that the patient in question could have been drugged by the perpetrator, EMP10 stated, "Yeah, I suppose."  When asked if [he/she] could identify where any antibiotics and/or prophylactics were ordered for the patient, EMP10 stated, "No, none of those were ordered."  EMP10 confirmed that those medications were available.  _x000D_
+_x000D_
+4.  Review of MR2 revealed that the patient presented on   February 6, 2016, for an alleged sexual assault.  On August 31, 2016, at approximately 9:08 AM, when asked what type of care was provided to this patient, EMP10 reviewed the medical record and stated, "... Ok, discussion with prophylaxis against pregnancy and STI. ... check tetanus status, and if not within last five years, please update. ... They did the Hepatitis B and C and serum pregnancy test, and an HIV baseline."  EMP10 confirmed that lab testing was done and preventative care was arranged for the patient.  When asked if there was a policy or internal memo explaining how the ED was to function without a SANE nurse, EMP10 stated, "I don't know of revisions."  _x000D_
+_x000D_
+5.  Between 10:07 AM and 10:30 AM on August 31, 2016, a telephone interview was conducted with EMP1.  When asked about [his/her] recollection of the primary case [MR1], EMP1 stated, "I remember it pretty well.  We don't see many [age of the patient-pediatric] come through that get assaulted that often."  EMP1 confirmed that Warren no longer has SANE nurses.  EMP1 stated, "I made sure [MR1] wasn't significantly injured. ... vital signs, that kind of thing. ... If you were going to do the complete [exam], that's what you would do [laboratory testing]. ... If you're going to send them to the SANE nurse, that's what they would do [laboratory testing]. ... In the ED, the SANE nurse has a protocol/policy that they follow.  There is an order on the [Health System for Tertiary Hospital] system that would include all of that stuff.  I'm not sure who exactly signs for that eventually."  When asked if the protocol/policy being referred to would be inclusive of antibiotics and/or prophylaxis, EMP1 stated, "Yeah, there's an entire order set that they collect and somebody signs off, it's either the ED medical director or the physician on duty."  Regarding the primary case patient, EMP1 stated, "I'm not sure that we did anything with [him/her].  We may have gotten a urine. ... I think [he/she] had to pee, so we got a urinalysis."  When asked what information, regarding the patient's care at Warren, was conveyed to [Tertiary Hospital], EMP1 stated, "My evaluation, ... I explained to the nurse that I did a brief external exam. ... I don't think we sent a copy of the lab work, because I don't think that we had it back."  EMP1 added, "We took as good of care of that patient as we could. ... I'm confused as to why this has turned into an EMTALA investigation."    _x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>560</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2400 KFIO11</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>UPMC PRESBYTERIAN SHADYSIDE</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>390164</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>200 LOTHROP STREET</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>PITTSBURGH</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>COMPLIANCE WITH 489.24</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" s="2" t="n">
+        <v>43476</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>KFIO11</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D__x000D_
+_x000D__x000D_
+_x000D_
+Based on a review of facility policy and medical records (MR), and staff interviews (EMP), it was determined that the facility failed to comply in the case of the hospital as defined in 489.24(b)._x000D_
+_x000D_
+_x000D_
+Findings include: _x000D_
+_x000D_
+A review of facility policy and procedure "Emergency Medical Treatment and Active Labor Act (EMTALA)" dated October 29, 2018, revealed, "Definitions  ... 2.  Emergency Medical Condition is  "a medical condition manifesting itself by acute symptoms of sufficient severity (including severe pain, psychiatric disturbances, and or symptoms of substance abuse) such that the absence of immediate medical attention could reasonably be expected to result in: placing the health of the individual (or, with respect to a pregnant woman, the health of the woman or her unborn child) in serious jeopardy; serious impairment to bodily functions; or serious dysfunction of any bodily organ or part, or with respect to a pregnant woman who is having contractions that there is inadequate time to effect a safe transfer to another hospital before delivery, or that the transfer may pose a threat to the health or safety of the woman or the unborn child'  ... 3. Medical Screening Exam (MSE) is an exam within the capability of the hospital to determine whether an emergency medical condition exists.  4. Stabilization of an  "emergency medical condition"  should allow that no material deterioration of the condition is likely, within reasonable medical probability, from or during transfer of the individual from a facility.  In pregnancy at-term, stabilization includes delivery of the child and the placenta (unless the latter cannot occur safely without transfer).  ... V. Procedure 1. If an individual seeking emergency medical care comes to the hospital ' s Dedicated Emergency Department a QMP shall offer a Medical Screening Exam.  If an individual seeking emergency medical care comes to any other portion of the hospital campus, including on-campus clinics, sidewalks, driveways, and parking lots, and requests emergency medical care, a QMP will offer a Medical Screening Exam to that person.  Hospital property is the hospital's campus, defined as an area that is 250 yards around the main hospital building that are not a part of the hospital, such as physician offices, rural health centers, skilled nursing facilities, or other entities that participate separately in Medicare or restaurants, shops or other nonmedical facilities.  In the absence of a request for emergency medical care made by the patient or their representative, a QMP medical screening exam will be offered if the Prudent Layperson Observer standard is met.  2. Under no circumstances shall the QMP or other staff inquire as to insurance status or method of payment of a patient seeking emergency treatment so as to delay the initiation of a Medical Screening Examination or further stabilizing treatment of that patient.  3. If necessary, following the Medical Screening Exam, QMPs shall offer further medical examination and treatment required to stabilize the medical condition within the hospital's resources."_x000D_
+_x000D_
+_x000D_
+A review of MR15 revealed the patient presented to the facility's Diagnostic Evaluation Center on October, 27, 2018 with complaints of abdominal pain, constant nausea, increased anxiety, and concern of adverse effects from current medication.  The review of MR15 also revealed a psychiatric evaluation and completed lab work.  However, further review revealed no vital signs charted in the medical record and  no documentation that an appropriate medical screening examination was completed to rule out an emergency medical condition._x000D_
+_x000D_
+Interview with EMP15 on January 11, 2019, at 2:00 PM confirmed that MR15 did not have documentation of an appropriate medical screening examination._x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>562</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2406 KFIO11</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>UPMC PRESBYTERIAN SHADYSIDE</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Short Term</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>390164</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>200 LOTHROP STREET</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>PITTSBURGH</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>2406</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>MEDICAL SCREENING EXAM</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" s="2" t="n">
+        <v>43476</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>KFIO11</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D__x000D_
+_x000D__x000D_
+Based on a review of facility policy and documents and medical records (MR), and staff interviews (EMP), it was determined that the facility failed to provide an appropriate medical screening examination (MSE) to determine whether an emergency medical condition (EMC) existed for one of 22 medical records reviewed (MR15)._x000D_
+_x000D_
+Findings include: _x000D_
+_x000D_
+A review of facility policy and procedure "Emergency Medical Treatment and Active Labor Act (EMTALA)" dated October 29, 2018, revealed, "Definitions  ... 2.  Emergency Medical Condition is  "a medical condition manifesting itself by acute symptoms of sufficient severity (including severe pain, psychiatric disturbances, and or symptoms of substance abuse) such that the absence of immediate medical attention could reasonably be expected to result in: placing the health of the individual (or, with respect to a pregnant woman, the health of the woman or her unborn child) in serious jeopardy; serious impairment to bodily functions; or serious dysfunction of any bodily organ or part, or with respect to a pregnant woman who is having contractions that there is inadequate time to effect a safe transfer to another hospital before delivery, or that the transfer may pose a threat to the health or safety of the woman or the unborn child'  ... 3. Medical Screening Exam (MSE) is an exam within the capability of the hospital to determine whether an emergency medical condition exists.  4. Stabilization of an  "emergency medical condition"  should allow that no material deterioration of the condition is likely, within reasonable medical probability, from or during transfer of the individual from a facility.  In pregnancy at-term, stabilization includes delivery of the child and the placenta (unless the latter cannot occur safely without transfer).  ... V. Procedure 1. If an individual seeking emergency medical care comes to the hospital ' s Dedicated Emergency Department a QMP shall offer a Medical Screening Exam.  If an individual seeking emergency medical care comes to any other portion of the hospital campus, including on-campus clinics, sidewalks, driveways, and parking lots, and requests emergency medical care, a QMP will offer a Medical Screening Exam to that person.  Hospital property is the hospital's campus, defined as an area that is 250 yards around the main hospital building that are not a part of the hospital, such as physician offices, rural health centers, skilled nursing facilities, or other entities that participate separately in Medicare or restaurants, shops or other nonmedical facilities.  In the absence of a request for emergency medical care made by the patient or their representative, a QMP medical screening exam will be offered if the Prudent Layperson Observer standard is met.  2. Under no circumstances shall the QMP or other staff inquire as to insurance status or method of payment of a patient seeking emergency treatment so as to delay the initiation of a Medical Screening Examination or further stabilizing treatment of that patient.  3. If necessary, following the Medical Screening Exam, QMPs shall offer further medical examination and treatment required to stabilize the medical condition within the hospital's resources."_x000D_
+_x000D_
+_x000D_
+A review of MR15 revealed the patient presented to the facility's Diagnostic Evaluation Center on October, 27, 2018 with complaints of abdominal pain, constant nausea, increased anxiety, and concern of adverse effects from current medication.  The review of MR15 also revealed a psychiatric evaluation and completed lab work.  However, further review revealed no vital signs charted in the medical record and  no documentation that an appropriate medical screening examination was completed to rule out an emergency medical condition._x000D_
+_x000D_
+Interview with EMP15 on January 11, 2019, at 2:00 PM confirmed that MR15 did not have documentation of an appropriate medical screening examination._x000D_
+_x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+</t>
+        </is>
+      </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2409 62EZ11</t>
+          <t>2408 LCRQ11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -14668,7 +14721,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CONEMAUGH MEMORIAL MEDICAL CENTER</t>
+          <t>PRISMA HEALTH GREENVILLE MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -14677,764 +14730,42 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>390110</v>
+        <v>420078</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1086 FRANKLIN STREET</t>
+          <t>701 GROVE ROAD</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>JOHNSTOWN</t>
+          <t>GREENVILLE</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>APPROPRIATE TRANSFER</t>
+          <t>DELAY IN EXAMINATION OR TREATMENT</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" s="2" t="n">
-        <v>42328</v>
+        <v>43860</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>62EZ11</t>
+          <t>LCRQ11</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on a review of medical records (MR), facility documentation and interview with facility staff (EMP), it was determined that Conemaugh Memorial Medical Center failed to ensure a safe transfer with qualified medical personnel in 3 of 9 Emergency Department transfers (MR1, MR4 and MR6). _x000D_
-_x000D_
-Findings Include: _x000D_
-_x000D_
-Review of Rules &amp; Regulations of the Medical Staff of Memorial Medical Center, revised and approved Board October 27, 2015. "Rule 1. Patient Care. 1. Admission and Discharge of Patients.  A. The Memorial Medical Center shall accept all patients within the capabilities of the Medical Center who present themselves for care and treatment regardless of race, religion or national origin. ... I.  Patient Transfers - Patients are to be transferred from the following areas, on any given date, prior to any elective admissions that same day:  1.  Emergency Department to appropriate bed area; ... J.  Suicidal Patients - Consideration must be given to taking all necessary precautions in caring for suicidal patients, including placing them in maximum-security areas. ... ." _x000D_
-_x000D_
-Review of Life Point Health LL.027. EMTALA-Transfer Policy dated December 5, 2013.  "... Purpose: To ensure that a patient requesting or requiring a transfer for further medical care and follow-up in connection  with treatment for an emergency medical condition is transferred appropriately.  Policy: Each hospital must have written guidelines outlining the requirements for an appropriate transfer to another facility in accordance with federal and state laws.  Any transfer of an individual with an emergency medical condition must be initiated by a physician order with the appropriate physician certification.  The transfer of a patient shall not be predicted upon arbitrary, capricious or unreasonable discrimination based upon race, religion, national origin, age, sex, physical condition or economic status. ... Procedure: ... 3. The four requirements of an appropriate transfer must be met before a patient can be transferred to a second facility: a. The transferring hospital must, within its capability, provide treatment to minimize the risks to the health of the individual or unborn child; b. The receiving hospital must have available space and qualified personnel for the treatment of the individual, and must have agreed to accept the transfer and provide appropriate treatment; c. The transferring hospital must send copies of all available medical records pertaining to the individual's emergency medical condition to the hospital where the patient is being transferred. ... d. The transfer must be carried out through the use of qualified personnel and transportation equipment, including those life support measures that may be required during transfer.  The physician at the sending hospital has the responsibility of determining the appropriate mode, equipment and attendants for the transfer.  Patients should not be transferred by private vehicle, for risk management purposes. ... The transferring hospital should document its communication with the receiving hospital, including the date and time of the transfer request and the name of the person accepting the transfer; If the transfer is requested by the patient, the request must be in writing and must indicate the reason(s) for the request as well as indicate that the patient is aware of the risks and benefits of the transfer; The patient has been informed of the hospital's obligation to provide an emergency medical screening and the necessary stabilizing treatment; The receiving facility: a) has available space and qualified personnel for the treatment of the individual, and b) has agreed to accept the transfer of the individual and to provide appropriate medical treatment; and The individual agrees to the transfer. ... 9. The physician at the transferring hospital has the responsibility to determine appropriate mode of transportation, equipment and attendants necessary to effect a transfer to a receiving or recipient facility. ... ." (jb) _x000D_
-_x000D_
-Review of Consent For Treatment In The Department of Emergency Medicine policy and procedure dated December 2014.  "... Minors.  Minor patients may or may not establish consent.  A minor who understands the nature and consequences of treatment is capable of consenting if the minor is 18 years of age or older, graduated from high school, has married, has been pregnant, needs diagnosis or treatment of pregnancy or venereal disease, or is 14 years of age or older and requests psychiatric treatment.  In emergency situations treatment may be rendered without consent if in the opinion of the attending physician involved, an attempt to secure consent would result in a delay of treatment which could seriously increase the risk to the minor's life or health. ... ." _x000D_
-_x000D_
-Review of Purchase of Transport Services for ...  Transport Service revealed, "... This agreement is made between Conemaugh Memorial Medical Center ... and ...Transport Service for the provision of patient transportation 24 hours per day, 7 days per week ... for transfers from Conemaugh Memorial Medical Center to a specified destination in a safe, reliable and effective manner complying with medical, legal, and patient requirements.  II. Definitions: 1)  Basic Van- transport of a patient with or without a wheelchair.  2)  Basic Invalid Coach- transport of a patient via litter.  3)  Ambulance Rental - transport of a patient by ambulance with personnel from Conemaugh Memorial Medical Center accompanying the patient.  4)  BLS transport - patient requires transport with Emergency Medical Technician and requires basic life support care measures.  No personnel from Conemaugh Memorial Medical Center accompany the patient.  5)  ALS transport - patient requires transport with Paramedic and requires advanced life support care measures.  No personnel from Conemaugh Memorial Medical Center accompany the patient  ... VI.  Responsibilities of Provider.  V.  The transport service will supply suitable and safe transportation for all transports ... 6) All transport personnel are expected to conduct themselves in a professional manner in both conduct and appearance.  Interactions with patients, health care professionals and general public are expected to be courteous and respectful in alignment with MMC's CARING Values ... 8)  Transport personnel shall be duly licensed and certified, and shall maintain that status while performing services for and on behalf of MMC.  MMC has the right to request proof of licensure and certifications upon request.  9)  Transport service will provide upon request a criminal background check on personnel providing services for MMC.  MMC may have the right to bar an individual from providing service to or for MMC for 'cause' ... 11.  Attendance at quarterly meetings to be held by the transport personnel and the hospital personnel to discuss quality assurance issues and opportunities for improvement ... VII.  Responsibilities of the Hospital 1) MMC personnel, under the direction of a physician, will determine the mode of transport. ... ." (kw)_x000D_
-_x000D_
-1) MR1, MR4 and MR6 revealed no documented evidence that suicidal patients all under the age of 18 were transferred  in the company of a parent, a guardian or a responsible adult, in addition to the ... Transport Service driver. _x000D_
-_x000D_
-MR1, MR4 and MR6 also revealed inconsistencies between the mode of transportation that was documented in the Nurses Notes and the mode of transportation documented on the Transfer Consents. _x000D_
-_x000D_
-2) MR1 ER  FACESHEET dated November 11, 2015 revealed, "... Time of Arrival: 1231 ... Time in Room: 1323 ... Age: 13 ... Chief Complaint: Eval ... Triage Priority: 3 ... Time: 1235 ... Additional Orders: PAC called ... 2242: Bactrim DS PO x 1, Hydroxyzine 50mg PO x 1,  Prazosin 1 mg PO x 1 ... Time Seen by Provider: 1350 ... Condition: Stable ... Check out time: 0206 ... Disposition: ... Transfer ... Diagnosis: [blank] ... ." _x000D_
-_x000D_
-MR1 emergency room    physician documentation dated November 11, 2015 revealed, "... Chief Complaint: Is evaluation.  History of Present Illness: [Patient]  is a [AGE]-year-old who presents from the ... Home, states that patient has been suicidal for 5 years and this afternoon was found to be in bed with a belt from a robe tied around their neck in a bow. ... Diagnostic Impression: 1.  Suicidal ideation. ... Disposition: Admit to Psychiatry and transfer with a bed search underway. ... ." _x000D_
-_x000D_
-MR1 ER  Primary Nurse Note dated November 11, 2015 revealed, "... 0206: Pt transported to Southwood with ... Transport Service.  Southwood called &amp; updated with ETA. ... ." _x000D_
-_x000D_
-MR1 Memorial Medical Center Transfer Consent To Acute Care Hospital dated November 1, 2015 at 10:35 PM revealed, "... Person Completing: [EMP28] ... Mode of Transportation: Ambulance: BLS ... ." _x000D_
-_x000D_
-3) MR4 ER  FACESHEET revealed, "Date: 10/26/2015 ... Time of Arrival: 1332 ... Time in Room: 1335 ... Age: 15 ... Chief Complaint: Eval ... Triage Priority: 3 ... Time: 1332 ... Time Seen by Provider: 1345 ... Condition: Stable ... Diagnosis: 1. Suicidal Ideation ... Check out time: 0942 ... Disposition: Observation ... Primary Nurse Note revealed ... 0850: Pt to be transferred to Latrobe Hospital.  Awaiting precert. ... 0942: Report to ... receiving facility  ...  Transport Service here to transport. ... .  MR4 Memorial Medical Center Transfer Consent:  To Acute Care Hospital ... Mode of Transportation: Ambulance: BLS. ... ." _x000D_
-_x000D_
-4) MR6 ER  FACESHEET revealed, "Date: 07/30/2015 ... Time of Arrival: ... 1830 ... Time in Room: 1837 ... Age: 14 ... Chief Complaint: evaluation ... Triage Priority: 3 ... Time: 1830 ... Time Seen by Provider: 1841 ... Condition: Stable ... Diagnosis:  1. SI ... Check out time: 0153 ... Disposition: Transfer ... MR6 Primary Nurse Note revealed, ... 0117: ... Transport Service notified. Will transport pt ... MR6 Memorial Medical Center Transfer Consent: To Acute Care Hospital ... Mode of Transportation: Ambulance: BLS. ... ."_x000D_
-_x000D_
-_x000D_
-5) Facility documentation from EMP30 dated November 19, 2015 at 11:34 AM revealed, "... Per our conversation regarding chaperones/family accompaniment, I couldn't find any documentation to show that chaperones or family members went with MR1, MR4 or MR6. _x000D_
-_x000D_
-6) A telephone interview was conducted with EMP27 on November 6, 2015, at 2:30 PM.   "... We regularly use the van for all patient transports.  Families could follow behind the van.   _x000D_
-_x000D_
-A second telephone interview was conducted with EMP27 on November 17, 2015 at approximately 3:20 PM.   "... The physician doesn't tell us how they want the patient to go. The mode of transportation and arrangements are determined by us, the Psychiatric Assessment Coordinators." _x000D_
-_x000D_
-6) A telephone interview was conducted with EMP28 on November 6, 2015, at 3:14 PM.  "... I made the arrangements for transport, that was around 10:00 or 11:00 PM.  We transfer children to other facilities on a daily basis.  Several of these children have gone with just a van driver.  Their parents can follow behind.  ... Transport Service does not normally allow the parents to ride with them.  Normally it's just the patient and the driver.  ... Transport Service is our 'go to' for transport.  Their driver could not get to us until after dropping off another patient.  I don't think there was any reason why we had to send the patient out at 2:00 AM, but they had already been there so long and the ER  was ready to have the patient move on."  _x000D_
-_x000D_
-A second telephone interview was conducted with EMP28 on November 16, 2015, at 10:20 AM.   "... Transport Service is our 'go to' transport company. The doctors tell us, the PACs,  to arrange for patient transportation. They don't specify how they want the patients to go.   There is an option on the Consent to Transfer to select 'ambulance' and I do believe that it was checked on MR1.  I checked BLS because I thought it was the least restrictive. MR1 didn't have a medical need, they just needed a driver."  _x000D_
-_x000D_
-7) An interview was conducted with  EMP10 on November 12, 2015, at approximately 12:45 PM.  "... EMP9, the patient's primary nurse had another patient who required an ICU transfer.  EMP9 saw the patient and their Care Giver from the ... Residence home walking out to get in the van.  EMP9 thought that since the ... Residence Care Giver was carrying the patient's bags, that they were going to ride along with the patient ... We have no specific policy related to the transfers of minors. ... It happens with other under age children, we have been sending them with just the driver transporting." _x000D_
-_x000D_
-8) A telephone interview was conducted with EMP9 on November 17, 2015, at 8:10 AM.   "MR1's legal guardian, ... , was never present.  I guess I assumed that the ... Residence Care Giver was going along with patient.  The ... Residence staff was carrying the patient's belongings. ...  I do not typically document who accompanied the patient when they are being  transferred. ... ." _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>548</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2400 3W7M11</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>MEADVILLE MEDICAL CENTER</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>390113</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>751 LIBERTY STREET</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>MEADVILLE</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>COMPLIANCE WITH 489.24</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" s="2" t="n">
-        <v>41264</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>3W7M11</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on review of facility documents and medical records (MR), and staff interviews (EMP), it was determined the provider failed to abide by its agreement to provide an appropriate medical screening exam to any individual who comes to the emergency department for two of 25 medical records (MR1 and MR24).._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-_x000D_
-Review of the Meadville Medical Center Emergency Department Rules and Regulations  revealed, "Section 2-Patient Care  The status of patients seen in the Emergency Department is determined by the physician on duty at that time.  Any patient seeking emergency services must be offered an appropriate medical screening examination to determine whether or not an emergency medical condition exists...  B.  Emergency Cases.  If an emergency medical condition is found, the hospital must either:  1.  Provide stabilizing treatment within its capabilities or 2.  If the patient cannot be stabilized, the hospital must arrange for an appropriate transfer...  C.  Non-Emergent Cases.  1.  Such patients will be evaluated by the emergency physician and treated appropriately..." _x000D_
-_x000D_
-Review of Administrative Policy A-123.1  "Emergency Medical Treatment and Labor Act (EMTALA) Policy," published August 30, 2012, revealed, "It is the policy of the Meadville Medical Center that any patient who comes to MMC, is on hospital property and requesting emergency services, is entitled to and will receive a medical screening examination performed by individuals qualified to perform such examination to determine whether an emergency medical condition exists, without regard to a patient's ethnicity, religion, national origin, citizenship, age, gender, pre-existing medical condition(s), physical or mental disability, insurance status, economic status, or ability to pay for medical services...  Procedure:  All patients who come to the Medical Center requesting emergency medical examination or treatment shall receive an appropriate medical screening examination in the dedicated emergency department or departments that serve as the access point for someone in need of emergency care for a psychiatric or pregnancy-relations condition...  Once the medical screening examination is completed and it has been determined that the patient does not have an emergency medical condition or that the emergency medical condition has been stabilized, the patient may be:  A.  treated for their non-emergency medical condition; or B.  discharged    with a reasonable plan for appropriate follow up care and discharge instructions; or C.  transferred for continued care..."   _x000D_
-_x000D_
-Review of Administrative Policy A-100, Patients Rights and Responsibilities, published 10/24/2012, revealed, "Patients have the right to:  -Receive a medical screening exam to determine treatment..."  _x000D_
-_x000D_
-1.  Review of MR1 on December 19, 2012, revealed the patient presented to the Emergency Department (ED) on November 11, 2012, at 5:29 PM with a chief complaint of "HIV test sent by city police."  Review of the medical record failed to reveal any documentation by the triage nurse.  The admitted   and time and discharge date    and time revealed the same time of November 11, 2012, at 5:29 PM.  The Emergency Department log revealed MR1 left without being seen or triaged._x000D_
-_x000D_
-Review of facility documentation revealed MR1 contacted the facility on November 12, 2012, initially with concerns unrelated to EMTALA.  Additional information revealed, "The mother states that a male nurse came into the waiting area next to the triage window and told them that they wouldn't see [him/her] in the ED because it wasn't an emergency.  They were told to follow up with their family physician.  [the mother] stated that [son/daughter] was visibly distraught and that the staff did nothing nor offered [him/her] the opportunity to speak with someone.  The mother states that the nurse spoke to them about HIV testing, treatment and prognosis in the middle of the waiting room..." _x000D_
-_x000D_
-Review of security films from November 11, 2012, revealed a staff person came from the ED to speak with the patient and mother at 5:35 PM, left the waiting area of the ED at 5:40 PM, and the patient and his/her mother left at 5:41 PM._x000D_
-_x000D_
-Interview on December 20, 2012, at 9:37 AM with EMP10 revealed that to the best of his/her recollection, he/she had been working in the back (ED) when EMP8 stated that someone had presented for an HIV test.  "[EMP8] came back to see if I would see [MR1].  I said yes but there would be no guarantee of any testing.  I would be happy to see [him/her], or [he/she] could follow-up with the PCP."  EMP10 added, "I thought [MR1] was here for a lab test.  I did not know [he/she] was seeking emergency care."_x000D_
-_x000D_
-Interview on December 20, 2012, at 9:55 AM with EMP8 revealed, "I saw it pop up on the screen that the patient [MR1] was requesting an HIV test.  I went out to speak with the patient and [his/her] mother...  I told them we don't do random testing but they could see the doctor but there was no guarantee of testing...  They asked me if there were any options.  I said [he/she] could see [his/her] PCP or stay and see our doctor...  [He/she] said it was hard to get in to see their PCP, so I said they could follow up with our infectious disease doctor..."_x000D_
-_x000D_
-2.  Review of MR24 on December 20, 2012, revealed the patient presented on   September 5, 2012, at 8:36 PM with the chief complaint of possible sexual assault.  The admission time and discharge time were documented as the same time.  There was no documentation in the medical record of triage or a medical screening being performed.  Review of additional facility documentation revealed MR24 was transferred to another hospital.  When questioned on December 20, 2012, at 2:55 PM about where that information (regarding the transfer) was obtained,  EMP2 stated that the sexual abuse nurse at Meadville Medical Center is not trained to examine minors under [AGE].  There was documentation in the "T" system [which is not part of the electronic medical record] that the physician transferred the patient to the other hospital.  EMP2 confirmed there was no documentation in the medical record of a screening exam or documentation of a  transfer, "It was at least an inappropriate transfer."_x000D_
-_x000D_
-3.  Review of MR26 (the medical record from the receiving hospital to which MR24 was sent) on December 21, 2012, revealed, "... so they went to Meadville Med Ctr and were told there that they would not examine her because she is less than [AGE] years old..." _x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>549</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2406 3W7M11</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>MEADVILLE MEDICAL CENTER</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>390113</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>751 LIBERTY STREET</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>MEADVILLE</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" s="2" t="n">
-        <v>41264</v>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>3W7M11</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
-_x000D__x000D_
-Based on review of facility documents and closed medical records (MR), and staff interviews (EMP), it was determined that Meadville Medical Center failed to provide an appropriate medical screening examination for two of 25 Emergency Department medical records reviewed (MR1 and MR24)._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-Review of the Meadville Medical Center Emergency Department Rules and Regulations  revealed, "Section 2-Patient Care  The status of patients seen in the Emergency Department is determined by the physician on duty at that time.  Any patient seeking emergency services must be offered an appropriate medical screening examination to determine whether or not an emergency medical condition exists...  B.  Emergency Cases.  If an emergency medical condition is found, the hospital must either:  1.  Provide stabilizing treatment within its capabilities or 2.  If the patient cannot be stabilized, the hospital must arrange for an appropriate transfer...  C.  Non-Emergent Cases.  1.  Such patients will be evaluated by the emergency physician and treated appropriately..." _x000D_
-_x000D_
-Review of Administrative Policy A-123.1  "Emergency Medical Treatment and Labor Act (EMTALA) Policy," published August 30, 2012, revealed, "It is the policy of the Meadville Medical Center that any patient who comes to MMC, is on hospital property and requesting emergency services, is entitled to and will receive a medical screening examination performed by individuals qualified to perform such examination to determine whether an emergency medical condition exists, without regard to a patient's ethnicity, religion, national origin, citizenship, age, gender, pre-existing medical condition(s), physical or mental disability, insurance status, economic status, or ability to pay for medical services...  Procedure:  All patients who come to the Medical Center requesting emergency medical examination or treatment shall receive an appropriate medical screening examination in the dedicated emergency department or departments that serve as the access point for someone in need of emergency care for a psychiatric or pregnancy-relations condition...  Once the medical screening examination is completed and it has been determined that the patient does not have an emergency medical condition or that the emergency medical condition has been stabilized, the patient may be:  A.  treated for their non-emergency medical condition; or B.  discharged    with a reasonable plan for appropriate follow up care and discharge instructions; or C.  transferred for continued care..."   _x000D_
-_x000D_
-Review of Administrative Policy A-100, Patients Rights and Responsibilities, published 10/24/2012, revealed, "Patients have the right to:  -Receive a medical screening exam to determine treatment..."  _x000D_
-_x000D_
-1.  Review of MR1 on December 19, 2012, revealed the patient presented to the Emergency Department (ED) on November 11, 2012, at 5:29 PM with a chief complaint of "HIV test sent by city police."  Review of the medical record failed to reveal any documentation by the triage nurse.  The admitted   and time and discharge date    and time revealed the same time of November 11, 2012, at 5:29 PM.  The Emergency Department log revealed MR1 left without being seen or triaged._x000D_
-_x000D_
-Review of facility documentation revealed MR1 contacted the facility on November 12, 2012, initially with concerns unrelated to EMTALA.  Additional information revealed, "The mother states that a male nurse came into the waiting area next to the triage window and told them that they wouldn't see [him/her] in the ED because it wasn't an emergency.  They were told to follow up with their family physician.  [the mother] stated that [son/daughter] was visibly distraught and that the staff did nothing nor offered [him/her] the opportunity to speak with someone.  The mother states that the nurse spoke to them about HIV testing, treatment and prognosis in the middle of the waiting room..." _x000D_
-_x000D_
-Review of security films from November 11, 2012, revealed a staff person came from the ED to speak with the patient and mother at 5:35 PM, left the waiting area of the ED at 5:40 PM, and the patient and his/her mother left at 5:41 PM._x000D_
-_x000D_
-Interview on December 20, 2012, at 9:37 AM with EMP10 revealed that to the best of his/her recollection, he/she had been working in the back (ED) when EMP8 stated that someone had presented for an HIV test.  "[EMP8] came back to see if I would see [MR1].  I said yes but there would be no guarantee of any testing.  I would be happy to see [him/her], or [he/she] could follow-up with the PCP."  EMP10 added, "I thought [MR1] was here for a lab test.  I did not know [he/she] was seeking emergency care."_x000D_
-_x000D_
-Interview on December 20, 2012, at 9:55 AM with EMP8 revealed, "I saw it pop up on the screen that the patient [MR1] was requesting an HIV test.  I went out to speak with the patient and [his/her] mother...  I told them we don't do random testing but they could see the doctor but there was no guarantee of testing...  They asked me if there were any options.  I said [he/she] could see [his/her] PCP or stay and see our doctor...  [He/she] said it was hard to get in to see their PCP, so I said they could follow up with our infectious disease doctor..."_x000D_
-_x000D_
-2.  Review of MR24 on December 20, 2012, revealed the patient presented on   September 5, 2012, at 8:36 PM with the chief complaint of possible sexual assault.  The admission time and discharge time were documented as the same time.  There was no documentation in the medical record of triage or a medical screening being performed.  Review of additional facility documentation revealed MR24 was transferred to another hospital.  When questioned on December 20, 2012, at 2:55 PM about where that information (regarding the transfer) was obtained,  EMP2 stated that the sexual abuse nurse at Meadville Medical Center was not trained to examine minors under [AGE].  There was documentation in the "T" system [which is not part of the electronic medical record] that the physician transferred the patient to the other hospital.  EMP2 at that time confirmed there was no documentation in the medical record of a screening exam or documentation of a  transfer, "It was at least an inappropriate transfer."_x000D_
-_x000D_
-3.  Review of MR26 (the medical record from the receiving hospital  to which MR24 was sent) on December 21, 2012, revealed, "... so they went to Meadville Med Ctr and were told there that they would not examine her because she is less than [AGE] years old..." _x000D_
-_x000D_
-Cross reference with 489.24(e)(1)(2) Appropriate transfer._x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>554</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2406 0SI711</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>WARREN GENERAL HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>390146</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>TWO CRESCENT PARK WEST</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>WARREN</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" s="2" t="n">
-        <v>42614</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>0SI711</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on review of facility documentation and medical records (MR), as well as employee interviews (EMP), it was determined that the facility failed to provide a medical screening examination within the capabilities of the hospital's Emergency Department (ED) for one of two patients presenting for alleged sexual assault (MR1)._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-Review, at approximately 1:12 PM on August 30, 2016, of the "Warren General Hospital  Medical Staff Rules and Regulations &amp; Allied Health Professional Rules and Regulations," updated March 27, 2015, revealed, "... I.  Medical Staff Policies ... C.  Transfer Orders.  3. To Other Healthcare Facility. ... No patient who presents with an emergency medical condition (including a woman in labor) shall be transferred who has not received a medical screening examination and appropriate stabilization."_x000D_
-_x000D_
-Review, at approximately 1:23 PM on August 30, 2016, of Policy #101.18, EMTALA Compliance Plan, effective December 2, 2009, revealed, "... Warren General Hospital shall comply with the Emergency Medical Treatment and Active Labor Act (EMTALA) and all other federal and state laws governing the treatment of persons with emergency medical conditions.  Medical Screening Examination  Warren General Hospital will provide an appropriate medical screening examination to any individual who presents to the hospital for emergency care. ... The medical record must reflect continued monitoring, according to the individual's needs, until it is determined whether or not the individual has an emergency medical condition, and, if the individual has an emergency medical condition, until the individual is stabilized or appropriately transferred.  The medical screening examination must be conducted in a non-discriminatory manner.  The individual shall not receive a different level of care based upon the patient's ability or inability to pay.  The medical screening examination shall be performed by qualified medical personnel."    _x000D_
-_x000D_
-Review, at approximately 1:50 PM on August 30, 2016, of Policy #1207-d-R, Sexual Assault, revised December 9, 2005, revealed, "Policy:  To provide victims of sexual assault with prompt, comprehensive, and professional treatment while respecting their need for privacy.  Procedure:  As soon after arrival as possible, a victim of sexual assault should be placed in a private examination room.  The screening nurse should take a brief history to the events of the assault. History should be limited to a very brief description of the events surrounding the assault including date, time and location of assault. Medical history per screening policy #1202-R should be obtained.  Patients should be screened for any injuries needing emergency treatment. ... Any individual who identifies herself/himself as a victim of sexual assault that occurred within the previous 120 hours should be asked if she/he wishes to be seen by a Sexual Assault Nurse Examiner (SANE). If the patient refuses, the ECC physician will see that patient.  Patients identified with need for emergency treatment for injuries received as a result of a sexual assault will be evaluated by the ECC physician, initially.  The SANE nurse will perform a detailed history and forensic exam with the intent of collecting evidence under the auspices of the ECC physician, and will document all findings thoroughly. ... The interview and the forensic examination will be done after the arrival of a police officer.  A careful assessment will be done with particular attention to the events prior to and during the assault, the time of assault, the clothing worn, and any bathing since the event. ... Specimens will be collected in conjunction with the guidelines of the Tri-Tech Sexual Assault Evidence Kit, or a suitable alternative.  After the examination is complete, all specimens are appropriately labeled, and the chain of evidence is transferred to the investigating officer.  Initial testing will include serum pregnancy test for any female of childbearing age.  Urine drug screen and Rohypnol testing may be done when appropriate.  The Pennsylvania Department of Health or the primary care physician should do testing for sexually transmitted diseases, including HIV, on follow-up within 2 weeks.  Preventative medical care will be provided through the offering of the following medication(s):  Ceftriaxone 125-250 mg IM in a single dose  Metronidazole 2 gm orally BID x 7 days  Doxycycline 100 mg orally BID x 7 days  Azithromycin 1 gm PO in a single dose  Cipro 500 mg PO in a single dose  Plan B one tablet PO STAT and repeat in 12 hours, if pregnancy test is negative  HIV prophylaxis at discretion of the SANE/ECC physician ..."  _x000D_
-_x000D_
-1.  Review of MR1 revealed that the patient presented on   July 23, 2016, at 2:21 AM for an alleged sexual assault.  Review of the record revealed no documentation of a SANE assessment or internal examination of the patient.  The record further revealed no initial testing and preventative medical care as per facility policy.   _x000D_
-_x000D_
-2.  Review of the physician physical examination revealed, "PHYSICAL EXAM ... No overt lacerations noted on external examination only. ... EMERGENCY COURSE  Urinalysis was obtained as [MR1] had to urinate here in the ER.  I discussed the case with the [Tertiary Hospital] Nurse OTH4 and it was agreed the patient would be sent to [Tertiary Hospital] for evaluation by the SANE nurse on call tonight. ... Education/Counseling provided: Patient, family Provided Edu/Counseling on: Diagnosis, Treatment, Prognosis, need for follow up ... Primary Impression: Reported sexual assault.  Transferred to Go to [Tertiary Hospital] and be evaluated by the SANE nurse on-call.  Condition: Stable."  The documentation was electronically signed by EMP1 on July 23, 2016, at 3:38 AM.  _x000D_
-_x000D_
-3.  Between 8:50 AM and 9:30 AM on August 31, 2016, an interview was conducted with EMP10.  EMP10 confirmed that the ED used to have a SANE nurse, but no longer does.  When asked the last time the facility had a SANE nurse, EMP10 stated, "I believe EMP11 was our last certified SANE nurse; and [he/she] left ... in July [2016] some time. ... We don't have anyone who is certified at this time."  When asked if the ED is still capable of performing a sexual assault examination, EMP10 stated, "Yes."  When asked if [he/she] has sat in on an examination as a second staff person in the past, EMP10 stated, "Yes."  When asked if the examination typically includes an examination of exterior and interior damage, EMP10 stated, "Yes."  When asked if the ED physician performs the external and internal examinations, EMP10 stated, "Yes ... I believe if the SANE nurse has that specific training and been through so many classes ... there are some SANE nurses that are able to do that."  EMP10 confirmed that ED physician is able to perform both internal and external examinations.  Upon identifying MR1 and asking about [his/her] recollection of the case, EMP10 stated, "Vaguely.  I knew there was one [pediatric sexual assault case], but I don't believe I was here."  When asked if [he/she] could identify, within the medical record, an internal examination of the patient, EMP10 confirmed there was an external examination only.  EMP10 added, "I believe that according to this (MR1), an internal exam was not done. ... Actually, I do not believe that we have pediatric speculums. ... We have small adult [speculum], ... but I do not believe we have any pediatric ones.  I don't believe we have the equipment for that [pediatric internal examination]."  Upon reviewing the medical record, EMP10 stated, "This patient, looks like [he/she] had a UA [urinalysis] and a culture."  When asked if there would typically have been testing for positivity of drugs and/or alcohol in the patient's system, EMP10 stated, "Generally, if it's an adult, and the patient said someone slipped them something, yes, we do [tests for substances/alcohol]."  When asked if it could have been possible that the patient in question could have been drugged by the perpetrator, EMP10 stated, "Yeah, I suppose."  _x000D_
-_x000D_
-4.  Review of MR2 revealed that the patient presented to the Warren General ED in February 6, 2016, for an alleged sexual assault.  On August 31, 2016, at approximately 9:08 AM, when asked what type of care was provided to this patient, EMP10 reviewed the medical record and stated, "This one, it appears they did the assault interview, ... very thorough. ... This assessment, wasn't on the other one (MR1). ... Sexual interview ..."  When asked if the patient's examination would have been internal and/or external, EMP10 stated that there was no SANE nurse called for this patient.  When asked if there was a SANE nurse available at the time the patient presented, EMP10 stated, "We could have.  If there was a SANE nurse working, they would do it, but we don't [didn't] have a SANE nurse on-call."  EMP10 confirmed that full examination [internal] was offered and lab testing was done for the patient.  EMP10 further confirmed that the facility does have a supply of rape kits stating, "... Yes.  They're kept in a locked cabinet."  When asked if there was a policy or internal memo explaining how the ED was to function without a SANE nurse, EMP10 stated, "I don't know of revisions."  _x000D_
- _x000D_
-5.  Between 10:07 AM and 10:30 AM on August 31, 2016, a telephone interview was conducted with EMP1.  When asked about [his/her] recollection of the primary case [MR1], EMP1 stated, "I remember it pretty well.  We don't see many [age of the patient-pediatric] come through that get assaulted that often."  EMP1 confirmed that Warren no longer has SANE nurses.  When asked what portion of the examination is done by the ED physician versus the SANE nurse, EMP1 stated, "During my training, before SANE nurses were out, you could do your own sexual assault exam from beginning to end.  You take care of them just the same way SANE nurses do. ... If there wasn't a SANE nurse available, I could do the examination from beginning to end. ... That is before [SANE nurses]."  EMP1 added, "SANE nurses now do a much better job. ... It's kind of a higher level of care, if you will. ... SANE nurses have a higher level of knowledge at [specimen] collection. ... They dot all the I's and cross all the T's better. ... I don't do sexual assault exams anymore. ... I think that that's a feeling amongst most ER  physicians at this time, that if there is a sexual assault, you want to try to get your patient to a SANE nurse, because you have a better chance at catching a perp if a SANE nurse does it [internal and external examination]. ... SANE nurses, I think that is the direction that most ER  professional head to, if they're available."  When asked if there would still be some ED physicians that will do the sexual assault examinations, EMP1 stated, "I think most of my colleagues feel the same way that I just expressed.  I can't imagine any of my colleagues do them [sexual assault examinations] any more."  When explained that the external examination only was noted on MR1, EMP1 confirmed that the internal examination is left for the SANE nurse to complete.  EMP1 added, "Especially at [Tertiary Hospital] ... most SANE nurses know how to use a Culpo scope. ... [Tertiary Hospital] has ... a pediatrician or pediatric gynecologist that do pediatric sexual assaults in their office, ... They have a practice dedicated to the pediatric sexual assault victims."  EMP1 stated, "I made sure [MR1] wasn't significantly injured. ... vital signs, that kind of thing. ... If you were going to do the complete [exam], that's what you would do [laboratory testing]. ... If you're going to send them to the SANE nurse, that's what they would do [laboratory testing]. ... In the ED, the SANE nurse has a protocol/policy that they follow.  There is an order on the [Health System for Tertiary Hospital] system that would include all of that stuff.  I'm not sure who exactly signs for that eventually."  Regarding the primary case patient, EMP1 stated, "I'm not sure that we did anything with [him/her].  We may have gotten a urine. ... I think [he/she] had to pee, so we got a urinalysis. ..." When asked what information, regarding the patient's care at Warren, was conveyed to [Tertiary Hospital], EMP1 stated, "My evaluation, ... I explained to the nurse that I did a brief external exam. ... I don't think we sent a copy of the lab work, because I don't think that we had it back."  EMP1 added, "We took as good of care of that patient as we could. ... I'm confused as to why this has turned into an EMTALA investigation."   _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>555</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2407 0SI711</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>WARREN GENERAL HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>390146</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>TWO CRESCENT PARK WEST</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>WARREN</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="J123" t="n">
-        <v>2407</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>STABILIZING TREATMENT</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" s="2" t="n">
-        <v>42614</v>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>0SI711</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on review of facility documentation and medical records (MR), as well as employee interviews (EMP), it was determined that the facility failed to provide further examination and stabilizing treatment within the capabilities of the hospital's Emergency Department (ED) for one of two patients presenting for alleged sexual assault (MR1)._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-Review, at approximately 1:12 PM on August 30, 2016, of the "Warren General Hospital  Medical Staff Rules and Regulations &amp; Allied Health Professional Rules and Regulations," updated March 27, 2015, revealed, "... I.  Medical Staff Policies ... C.  Transfer Orders.  3. To Other Healthcare Facility. ... No patient who presents with an emergency medical condition (including a woman in labor) shall be transferred who has not received ... appropriate stabilization."    _x000D_
-_x000D_
-Review, at approximately 1:23 PM on August 30, 2016, of Policy #101.18, EMTALA Compliance Plan, effective December 2, 2009, revealed, "... Warren General Hospital shall comply with the Emergency Medical Treatment and Active Labor Act (EMTALA) and all other federal and state laws governing the treatment of persons with emergency medical conditions. ... If the individual has an emergency medical condition, the hospital with either (i) provide any necessary stabilizing treatment, or (ii) transfer the individual to another facility, or (iii) admit the patient for inpatient or observation services. ... The medical record must reflect continued monitoring, according to the individual's needs, until it is determined whether or not the individual has an emergency medical condition, and, if the individual has an emergency medical condition, until the individual is stabilized or appropriately transferred.  _x000D_
-_x000D_
-Review, at approximately 1:50 PM on August 30, 2016, of Policy #1207-d-R, Sexual Assault, revised December 9, 2005, revealed, "Policy:  To provide victims of sexual assault with prompt, comprehensive, and professional treatment while respecting their need for privacy.  Procedure:  As soon after arrival as possible, a victim of sexual assault should be placed in a private examination room.  The screening nurse should take a brief history to the events of the assault. History should be limited to a very brief description of the events surrounding the assault including date, time and location of assault. Medical history per screening policy #1202-R should be obtained. Patients should be screened for any injuries needing emergency treatment. ... Any individual who identifies herself/himself as a victim of sexual assault that occurred within the previous 120 hours should be asked if she/he wishes to be seen by a Sexual Assault Nurse Examiner (SANE). If the patient refuses, the ECC physician will see that patient.  Patients identified with need for emergency treatment for injuries received as a result of a sexual assault will be evaluated by the ECC physician, initially.  The SANE nurse will perform a detailed history and forensic exam with the intent of collecting evidence under the auspices of the ECC physician, and will document all findings thoroughly. ... A careful assessment will be done with particular attention to the events prior to and during the assault, the time of assault, the clothing worn, and any bathing since the event. ... Specimens will be collected in conjunction with the guidelines of the Tri-Tech Sexual Assault Evidence Kit, or a suitable alternative.  After the examination is complete, all specimens are appropriately labeled, and the chain of evidence is transferred to the investigating officer.  Initial testing will include serum pregnancy test for any female of childbearing age.  Urine drug screen and Rohypnol testing may be done when appropriate.  The Pennsylvania Department of Health or the primary care physician should do testing for sexually transmitted diseases, including HIV, on follow-up within 2 weeks.  Preventative medical care will be provided through the offering of the following medication(s):  Ceftriaxone 125-250 mg IM in a single dose  Metronidazole 2 gm orally BID x 7 days  Doxycycline 100 mg orally BID x 7 days  Azithromycin 1 gm PO in a single dose  Cipro 500 mg PO in a single dose  Plan B one tablet PO STAT and repeat in 12 hours, if pregnancy test is negative  HIV prophylaxis at discretion of the SANE/ECC physician ..."  _x000D_
-_x000D_
-1.  Review of MR1 revealed that the patient presented on   July 23, 2016, at 2:21 AM for an alleged sexual assault.  Review of the record revealed no documentation of a SANE assessment or internal examination of the patient.  The record further revealed no initial testing and preventative medical care as per facility policy.   _x000D_
-_x000D_
-2.  Review of the physician documentation revealed, "EMERGENCY COURSE  Urinalysis was obtained as [MR1] had to urinate here in the ER.  I discussed the case with the [Tertiary Hospital] Nurse OTH4 and it was agreed the patient would be sent to [Tertiary Hospital] for evaluation by the SANE nurse on call tonight. ..."  The documentation was electronically signed by EMP1 on July 23, 2016 at 3:38 AM.  _x000D_
-_x000D_
-3.  Between 8:50 AM and 9:30 AM on August 31, 2016, an interview was conducted with EMP10.  Upon identifying MR1 and asking about [his/her] recollection of the case, EMP10 stated, "Vaguely.  I knew there was one [pediatric sexual assault case], but I don't believe I was here."  EMP10 went on to stated, "[EMP1] discussed the case with a [Tertiary Hospital] nurse. ... It was agreed that the patient would be sent to [Tertiary Hospital] to be seen by the SANE nurse on-call. ..."  Upon reviewing the medical record, EMP10 stated, "This patient, looks like [he/she] had a UA [urinalysis] and a culture."  When asked if there would typically have been testing for positivity of drugs and/or alcohol in the patient's system, EMP10 stated, "Generally, if it's an adult, and the patient said someone slipped them something, yes, we do [tests for substances/alcohol]."  When asked if it could have been possible that the patient in question could have been drugged by the perpetrator, EMP10 stated, "Yeah, I suppose."  When asked if [he/she] could identify where any antibiotics and/or prophylactics were ordered for the patient, EMP10 stated, "No, none of those were ordered."  EMP10 confirmed that those medications were available.  _x000D_
-_x000D_
-4.  Review of MR2 revealed that the patient presented on   February 6, 2016, for an alleged sexual assault.  On August 31, 2016, at approximately 9:08 AM, when asked what type of care was provided to this patient, EMP10 reviewed the medical record and stated, "... Ok, discussion with prophylaxis against pregnancy and STI. ... check tetanus status, and if not within last five years, please update. ... They did the Hepatitis B and C and serum pregnancy test, and an HIV baseline."  EMP10 confirmed that lab testing was done and preventative care was arranged for the patient.  When asked if there was a policy or internal memo explaining how the ED was to function without a SANE nurse, EMP10 stated, "I don't know of revisions."  _x000D_
-_x000D_
-5.  Between 10:07 AM and 10:30 AM on August 31, 2016, a telephone interview was conducted with EMP1.  When asked about [his/her] recollection of the primary case [MR1], EMP1 stated, "I remember it pretty well.  We don't see many [age of the patient-pediatric] come through that get assaulted that often."  EMP1 confirmed that Warren no longer has SANE nurses.  EMP1 stated, "I made sure [MR1] wasn't significantly injured. ... vital signs, that kind of thing. ... If you were going to do the complete [exam], that's what you would do [laboratory testing]. ... If you're going to send them to the SANE nurse, that's what they would do [laboratory testing]. ... In the ED, the SANE nurse has a protocol/policy that they follow.  There is an order on the [Health System for Tertiary Hospital] system that would include all of that stuff.  I'm not sure who exactly signs for that eventually."  When asked if the protocol/policy being referred to would be inclusive of antibiotics and/or prophylaxis, EMP1 stated, "Yeah, there's an entire order set that they collect and somebody signs off, it's either the ED medical director or the physician on duty."  Regarding the primary case patient, EMP1 stated, "I'm not sure that we did anything with [him/her].  We may have gotten a urine. ... I think [he/she] had to pee, so we got a urinalysis."  When asked what information, regarding the patient's care at Warren, was conveyed to [Tertiary Hospital], EMP1 stated, "My evaluation, ... I explained to the nurse that I did a brief external exam. ... I don't think we sent a copy of the lab work, because I don't think that we had it back."  EMP1 added, "We took as good of care of that patient as we could. ... I'm confused as to why this has turned into an EMTALA investigation."    _x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>560</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2400 KFIO11</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>UPMC PRESBYTERIAN SHADYSIDE</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>390164</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>200 LOTHROP STREET</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PITTSBURGH</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>COMPLIANCE WITH 489.24</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" s="2" t="n">
-        <v>43476</v>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>KFIO11</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-_x000D_
-Based on a review of facility policy and medical records (MR), and staff interviews (EMP), it was determined that the facility failed to comply in the case of the hospital as defined in 489.24(b)._x000D_
-_x000D_
-_x000D_
-Findings include: _x000D_
-_x000D_
-A review of facility policy and procedure "Emergency Medical Treatment and Active Labor Act (EMTALA)" dated October 29, 2018, revealed, "Definitions  ... 2.  Emergency Medical Condition is  "a medical condition manifesting itself by acute symptoms of sufficient severity (including severe pain, psychiatric disturbances, and or symptoms of substance abuse) such that the absence of immediate medical attention could reasonably be expected to result in: placing the health of the individual (or, with respect to a pregnant woman, the health of the woman or her unborn child) in serious jeopardy; serious impairment to bodily functions; or serious dysfunction of any bodily organ or part, or with respect to a pregnant woman who is having contractions that there is inadequate time to effect a safe transfer to another hospital before delivery, or that the transfer may pose a threat to the health or safety of the woman or the unborn child'  ... 3. Medical Screening Exam (MSE) is an exam within the capability of the hospital to determine whether an emergency medical condition exists.  4. Stabilization of an  "emergency medical condition"  should allow that no material deterioration of the condition is likely, within reasonable medical probability, from or during transfer of the individual from a facility.  In pregnancy at-term, stabilization includes delivery of the child and the placenta (unless the latter cannot occur safely without transfer).  ... V. Procedure 1. If an individual seeking emergency medical care comes to the hospital ' s Dedicated Emergency Department a QMP shall offer a Medical Screening Exam.  If an individual seeking emergency medical care comes to any other portion of the hospital campus, including on-campus clinics, sidewalks, driveways, and parking lots, and requests emergency medical care, a QMP will offer a Medical Screening Exam to that person.  Hospital property is the hospital's campus, defined as an area that is 250 yards around the main hospital building that are not a part of the hospital, such as physician offices, rural health centers, skilled nursing facilities, or other entities that participate separately in Medicare or restaurants, shops or other nonmedical facilities.  In the absence of a request for emergency medical care made by the patient or their representative, a QMP medical screening exam will be offered if the Prudent Layperson Observer standard is met.  2. Under no circumstances shall the QMP or other staff inquire as to insurance status or method of payment of a patient seeking emergency treatment so as to delay the initiation of a Medical Screening Examination or further stabilizing treatment of that patient.  3. If necessary, following the Medical Screening Exam, QMPs shall offer further medical examination and treatment required to stabilize the medical condition within the hospital's resources."_x000D_
-_x000D_
-_x000D_
-A review of MR15 revealed the patient presented to the facility's Diagnostic Evaluation Center on October, 27, 2018 with complaints of abdominal pain, constant nausea, increased anxiety, and concern of adverse effects from current medication.  The review of MR15 also revealed a psychiatric evaluation and completed lab work.  However, further review revealed no vital signs charted in the medical record and  no documentation that an appropriate medical screening examination was completed to rule out an emergency medical condition._x000D_
-_x000D_
-Interview with EMP15 on January 11, 2019, at 2:00 PM confirmed that MR15 did not have documentation of an appropriate medical screening examination._x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>562</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2406 KFIO11</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>UPMC PRESBYTERIAN SHADYSIDE</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>390164</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>200 LOTHROP STREET</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>PITTSBURGH</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>2406</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>MEDICAL SCREENING EXAM</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" s="2" t="n">
-        <v>43476</v>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>KFIO11</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on a review of facility policy and documents and medical records (MR), and staff interviews (EMP), it was determined that the facility failed to provide an appropriate medical screening examination (MSE) to determine whether an emergency medical condition (EMC) existed for one of 22 medical records reviewed (MR15)._x000D_
-_x000D_
-Findings include: _x000D_
-_x000D_
-A review of facility policy and procedure "Emergency Medical Treatment and Active Labor Act (EMTALA)" dated October 29, 2018, revealed, "Definitions  ... 2.  Emergency Medical Condition is  "a medical condition manifesting itself by acute symptoms of sufficient severity (including severe pain, psychiatric disturbances, and or symptoms of substance abuse) such that the absence of immediate medical attention could reasonably be expected to result in: placing the health of the individual (or, with respect to a pregnant woman, the health of the woman or her unborn child) in serious jeopardy; serious impairment to bodily functions; or serious dysfunction of any bodily organ or part, or with respect to a pregnant woman who is having contractions that there is inadequate time to effect a safe transfer to another hospital before delivery, or that the transfer may pose a threat to the health or safety of the woman or the unborn child'  ... 3. Medical Screening Exam (MSE) is an exam within the capability of the hospital to determine whether an emergency medical condition exists.  4. Stabilization of an  "emergency medical condition"  should allow that no material deterioration of the condition is likely, within reasonable medical probability, from or during transfer of the individual from a facility.  In pregnancy at-term, stabilization includes delivery of the child and the placenta (unless the latter cannot occur safely without transfer).  ... V. Procedure 1. If an individual seeking emergency medical care comes to the hospital ' s Dedicated Emergency Department a QMP shall offer a Medical Screening Exam.  If an individual seeking emergency medical care comes to any other portion of the hospital campus, including on-campus clinics, sidewalks, driveways, and parking lots, and requests emergency medical care, a QMP will offer a Medical Screening Exam to that person.  Hospital property is the hospital's campus, defined as an area that is 250 yards around the main hospital building that are not a part of the hospital, such as physician offices, rural health centers, skilled nursing facilities, or other entities that participate separately in Medicare or restaurants, shops or other nonmedical facilities.  In the absence of a request for emergency medical care made by the patient or their representative, a QMP medical screening exam will be offered if the Prudent Layperson Observer standard is met.  2. Under no circumstances shall the QMP or other staff inquire as to insurance status or method of payment of a patient seeking emergency treatment so as to delay the initiation of a Medical Screening Examination or further stabilizing treatment of that patient.  3. If necessary, following the Medical Screening Exam, QMPs shall offer further medical examination and treatment required to stabilize the medical condition within the hospital's resources."_x000D_
-_x000D_
-_x000D_
-A review of MR15 revealed the patient presented to the facility's Diagnostic Evaluation Center on October, 27, 2018 with complaints of abdominal pain, constant nausea, increased anxiety, and concern of adverse effects from current medication.  The review of MR15 also revealed a psychiatric evaluation and completed lab work.  However, further review revealed no vital signs charted in the medical record and  no documentation that an appropriate medical screening examination was completed to rule out an emergency medical condition._x000D_
-_x000D_
-Interview with EMP15 on January 11, 2019, at 2:00 PM confirmed that MR15 did not have documentation of an appropriate medical screening examination._x000D_
-_x000D_
- _x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>571</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2408 LCRQ11</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>PRISMA HEALTH GREENVILLE MEMORIAL HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>420078</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>701 GROVE ROAD</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>GREENVILLE</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>2408</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>DELAY IN EXAMINATION OR TREATMENT</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" s="2" t="n">
-        <v>43860</v>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>LCRQ11</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -15495,73 +14826,73 @@
 </t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="120">
+      <c r="A120" t="n">
         <v>575</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>2406 KWXT11</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>MONUMENT HEALTH RAPID CITY HOSPITAL</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F120" t="n">
         <v>430077</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>353 FAIRMONT BLVD  POST OFFICE BOX 6000</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>RAPID CITY</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="J127" t="n">
+      <c r="J120" t="n">
         <v>2406</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" s="2" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" s="2" t="n">
         <v>41869</v>
       </c>
-      <c r="O127" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>KWXT11</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr">
+      <c r="P120" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -15755,73 +15086,73 @@
 </t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="n">
         <v>2014</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="121">
+      <c r="A121" t="n">
         <v>598</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>2406 D0Q511</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>ERLANGER MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F128" t="n">
+      <c r="F121" t="n">
         <v>440104</v>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>975 E 3RD ST</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>CHATTANOOGA</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="J128" t="n">
+      <c r="J121" t="n">
         <v>2406</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" s="2" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" s="2" t="n">
         <v>42389</v>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>D0Q511</t>
         </is>
       </c>
-      <c r="P128" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -15873,73 +15204,73 @@
 </t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="122">
+      <c r="A122" t="n">
         <v>599</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>2407 D0Q511</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>ERLANGER MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F122" t="n">
         <v>440104</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>975 E 3RD ST</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>CHATTANOOGA</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="J129" t="n">
+      <c r="J122" t="n">
         <v>2407</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
         <is>
           <t>STABILIZING TREATMENT</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" s="2" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" s="2" t="n">
         <v>42389</v>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>D0Q511</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr">
+      <c r="P122" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -15990,73 +15321,73 @@
 </t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="123">
+      <c r="A123" t="n">
         <v>621</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>2406 45DH11</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>SAINT FRANCIS BARTLETT MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="F123" t="n">
         <v>440228</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>2986 KATE BOND RD</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>BARTLETT</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="J130" t="n">
+      <c r="J123" t="n">
         <v>2406</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" s="2" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" s="2" t="n">
         <v>44488</v>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>45DH11</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr">
+      <c r="P123" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -16202,73 +15533,73 @@
 </t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="124">
+      <c r="A124" t="n">
         <v>623</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>2404 1HCP11</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>METHODIST DALLAS MEDICAL CENTER</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F124" t="n">
         <v>450051</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>1441 NORTH BECKLEY AVENUE</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>DALLAS</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="J131" t="n">
+      <c r="J124" t="n">
         <v>2404</v>
       </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
         <is>
           <t>ON CALL PHYSICIANS</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" s="2" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" s="2" t="n">
         <v>40759</v>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>1HCP11</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr">
+      <c r="P124" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -16310,73 +15641,73 @@
 </t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="125">
+      <c r="A125" t="n">
         <v>634</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>2406 LK9V11</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>NORTHWEST TEXAS HOSPITAL</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F125" t="n">
         <v>450209</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>1501 S  COULTER ST</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>AMARILLO</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="J132" t="n">
+      <c r="J125" t="n">
         <v>2406</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" s="2" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" s="2" t="n">
         <v>43664</v>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>LK9V11</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
+      <c r="P125" t="inlineStr">
         <is>
           <t xml:space="preserve">_x000D__x000D_
 _x000D__x000D_
@@ -16408,73 +15739,73 @@
 </t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="126">
+      <c r="A126" t="n">
         <v>639</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>2406 MKNX11</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>UT HEALTH EAST TEXAS ATHENS HOSPITAL</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F126" t="n">
         <v>450389</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>2000 SOUTH PALESTINE ST</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>ATHENS</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="J133" t="n">
+      <c r="J126" t="n">
         <v>2406</v>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" s="2" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" s="2" t="n">
         <v>42849</v>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>MKNX11</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr">
+      <c r="P126" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -16663,73 +15994,73 @@
 </t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="127">
+      <c r="A127" t="n">
         <v>653</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>2406 M5D411</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>TRIOS</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Short Term</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F127" t="n">
         <v>500053</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>900 SOUTH AUBURN STREET</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>KENNEWICK</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="J134" t="n">
+      <c r="J127" t="n">
         <v>2406</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" s="2" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" s="2" t="n">
         <v>43448</v>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>M5D411</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr">
+      <c r="P127" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -16777,158 +16108,73 @@
 </t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>660</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2402 ZSG311</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="n">
+        <v>674</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2406 WLL511</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ASCENSION NE WISCONSIN MERCY CAMPUS</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Short Term</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>520048</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>500 S OAKWOOD RD</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>OSHKOSH</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>WI</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>2402</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>POSTING OF SIGNS</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" s="2" t="n">
-        <v>42509</v>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>ZSG311</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_x000D__x000D_
-_x000D__x000D_
-Based on observation, interview and record review, the facility failed to ensure EMTALA signs are posted in all waiting areas for emergency treatment in 1 of 2 observations (Obstetrics unit). This deficiency potentially affects all Emergency Department patients treated at this facility's Obstetrics floor. This deficient practice has the potential to affect all Obstetric patients seeking emergency medical treatment at this facility._x000D_
-_x000D_
-Findings include:_x000D_
-_x000D_
-On 5/17/16 at 10:35 AM, the facility policy titled  "Care of the Pregnant Patient in the Emergency Department"  dated 7/21/2015 was reviewed. This policy states  "Patients who are 20 or more weeks gestation with symptoms of an obstetrics related problem will be admitted     directly to the BirthPlace unit. Specific symptoms include but may not be limited to: A. Vaginal bleeding, B. Uterine cramping/contractions C. Abdominal or pelvic pain, pressure or cramping, D. low back pain or pressure. E. Urinary symptoms. F. Suspected ruptured membranes..."_x000D_
-_x000D_
-On 5/17/16 at 1:50 PM, observed no EMTALA signage was in the Obstetrics department (BirthPlace unit) while accompanied by Women and Families Manager M._x000D_
-_x000D_
-An interview was conducted with Women and Families Manager M on 5/17/16 at 1:50 PM, at the time of the observation. Manager M stated the Obstetrics department does not have a designated emergency room    for Obstetrics patients. Patients would be admitted     and examined in an available room. Manager M stated there are no EMTALA signs on the Obstetrics floor._x000D_
-_x000D_
-_x000D_
-_x000D_
-</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>674</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2406 WLL511</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>SAN ANTONIO BEHAVIORAL HEALTHCARE HOSPITAL</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Psychiatric</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F128" t="n">
         <v>454132</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>8550 HUEBNER ROAD</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>SAN ANTONIO</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="J136" t="n">
+      <c r="J128" t="n">
         <v>2406</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
         <is>
           <t>MEDICAL SCREENING EXAM</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" s="2" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" s="2" t="n">
         <v>43256</v>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>WLL511</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr">
+      <c r="P128" t="inlineStr">
         <is>
           <t xml:space="preserve">**NOTE- TERMS IN BRACKETS HAVE BEEN EDITED TO PROTECT CONFIDENTIALITY**  _x000D__x000D_
 _x000D__x000D_
@@ -16955,9 +16201,9 @@
 </t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="n">
         <v>2018</v>
       </c>
     </row>
